--- a/Date_time_functions/Date_and_Time_InClass.xlsx
+++ b/Date_time_functions/Date_and_Time_InClass.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Xaltius_Trainings\6_Months_DSCC_Program\2. Data Analysis using Microsoft Excel\Date and Time Functions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\MexEE402_ExcelExcercises\Date_time_functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAE0A901-9528-4581-ACDE-19D7150B7D50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E27BAA-4EBB-4055-958B-471E1AD73D15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="988" firstSheet="1" activeTab="9" xr2:uid="{A6137C47-DE02-48C6-8473-5C1EB30628DD}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="11160" tabRatio="988" activeTab="1" xr2:uid="{A6137C47-DE02-48C6-8473-5C1EB30628DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Hour_Min_sec" sheetId="8" r:id="rId1"/>
@@ -33,14 +33,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1094,7 +1086,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1146,6 +1138,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1280,7 +1278,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1408,6 +1406,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1726,8 +1727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49F9B7FA-D6F8-4003-A416-AFBB4B7BA8C8}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.54296875" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1746,16 +1747,16 @@
       <c r="D1" s="36"/>
     </row>
     <row r="2" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="51" t="s">
         <v>54</v>
       </c>
       <c r="F2" s="36" t="s">
@@ -1769,18 +1770,9 @@
       <c r="A3" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="1">
-        <f>HOUR(A3)</f>
-        <v>10</v>
-      </c>
-      <c r="C3" s="1">
-        <f>MINUTE(A3)</f>
-        <v>34</v>
-      </c>
-      <c r="D3" s="1">
-        <f>SECOND(A3)</f>
-        <v>21</v>
-      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
       <c r="F3" s="36"/>
       <c r="G3" s="36"/>
       <c r="H3" s="36"/>
@@ -1790,18 +1782,9 @@
       <c r="A4" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="1">
-        <f t="shared" ref="B4:B5" si="0">HOUR(A4)</f>
-        <v>9</v>
-      </c>
-      <c r="C4" s="1">
-        <f t="shared" ref="C4:C5" si="1">MINUTE(A4)</f>
-        <v>34</v>
-      </c>
-      <c r="D4" s="1">
-        <f t="shared" ref="D4:D5" si="2">SECOND(A4)</f>
-        <v>11</v>
-      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
       <c r="F4" s="36"/>
       <c r="G4" s="36"/>
       <c r="H4" s="36"/>
@@ -1811,35 +1794,17 @@
       <c r="A5" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C5" s="1">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="D5" s="1">
-        <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="1">
-        <f>HOUR(A6)</f>
-        <v>0</v>
-      </c>
-      <c r="C6" s="1">
-        <f>MINUTE(A6)</f>
-        <v>20</v>
-      </c>
-      <c r="D6" s="1">
-        <f>SECOND(A6)</f>
-        <v>12</v>
-      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
       <c r="F6" s="36" t="s">
         <v>113</v>
       </c>
@@ -1922,7 +1887,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60A01787-94D0-47F2-852E-F6AD7B2B2DE1}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -2955,10 +2920,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60731025-88A1-4F03-9758-A1EC0BD1E50E}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:K7"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.81640625" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2966,7 +2931,7 @@
     <col min="4" max="4" width="16.36328125" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2980,7 +2945,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1994</v>
       </c>
@@ -2994,15 +2959,15 @@
         <f>DATE(A2,B2,C2)</f>
         <v>34670</v>
       </c>
-      <c r="G2" s="37" t="s">
+      <c r="F2" s="37" t="s">
         <v>107</v>
       </c>
+      <c r="G2" s="37"/>
       <c r="H2" s="37"/>
       <c r="I2" s="37"/>
       <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-    </row>
-    <row r="3" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1987</v>
       </c>
@@ -3016,13 +2981,13 @@
         <f>DATE(A3,B3,C3)</f>
         <v>32097</v>
       </c>
+      <c r="F3" s="37"/>
       <c r="G3" s="37"/>
       <c r="H3" s="37"/>
       <c r="I3" s="37"/>
       <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-    </row>
-    <row r="4" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1986</v>
       </c>
@@ -3036,13 +3001,13 @@
         <f>DATE(A4,B4,C4)</f>
         <v>31635</v>
       </c>
+      <c r="F4" s="37"/>
       <c r="G4" s="37"/>
       <c r="H4" s="37"/>
       <c r="I4" s="37"/>
       <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-    </row>
-    <row r="5" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>1976</v>
       </c>
@@ -3056,13 +3021,13 @@
         <f t="shared" ref="D5:D6" si="0">DATE(A5,B5,C5)</f>
         <v>27771</v>
       </c>
+      <c r="F5" s="37"/>
       <c r="G5" s="37"/>
       <c r="H5" s="37"/>
       <c r="I5" s="37"/>
       <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-    </row>
-    <row r="6" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>1940</v>
       </c>
@@ -3076,22 +3041,22 @@
         <f t="shared" si="0"/>
         <v>14857</v>
       </c>
+      <c r="F6" s="37"/>
       <c r="G6" s="37"/>
       <c r="H6" s="37"/>
       <c r="I6" s="37"/>
       <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-    </row>
-    <row r="7" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F7" s="37"/>
       <c r="G7" s="37"/>
       <c r="H7" s="37"/>
       <c r="I7" s="37"/>
       <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="G2:K7"/>
+    <mergeCell ref="F2:J7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -3826,7 +3791,7 @@
       </c>
       <c r="B2" s="4">
         <f ca="1">TODAY()</f>
-        <v>44815</v>
+        <v>45179</v>
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="2" t="s">
@@ -3845,7 +3810,7 @@
       </c>
       <c r="B3" s="19">
         <f ca="1">NOW()</f>
-        <v>44815.650314120372</v>
+        <v>45179.485856134263</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="1" t="s">
@@ -3856,7 +3821,7 @@
       </c>
       <c r="F3" s="18">
         <f ca="1">(TODAY()-E3)/365</f>
-        <v>2.0876712328767124</v>
+        <v>3.0849315068493151</v>
       </c>
       <c r="H3" s="37" t="s">
         <v>111</v>
@@ -3869,7 +3834,7 @@
       </c>
       <c r="B4" s="4">
         <f ca="1">TODAY()-1</f>
-        <v>44814</v>
+        <v>45178</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>45</v>
@@ -3879,7 +3844,7 @@
       </c>
       <c r="F4" s="18">
         <f t="shared" ref="F4:F7" ca="1" si="0">(TODAY()-E4)/365</f>
-        <v>4</v>
+        <v>4.9972602739726026</v>
       </c>
       <c r="H4" s="37"/>
       <c r="I4" s="37"/>
@@ -3890,7 +3855,7 @@
       </c>
       <c r="B5" s="4">
         <f ca="1">TODAY()+1</f>
-        <v>44816</v>
+        <v>45180</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>46</v>
@@ -3900,7 +3865,7 @@
       </c>
       <c r="F5" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>4.9232876712328766</v>
+        <v>5.9205479452054792</v>
       </c>
       <c r="H5" s="37"/>
       <c r="I5" s="37"/>
@@ -3911,7 +3876,7 @@
       </c>
       <c r="B6" s="4">
         <f ca="1">TODAY()+7</f>
-        <v>44822</v>
+        <v>45186</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>47</v>
@@ -3921,7 +3886,7 @@
       </c>
       <c r="F6" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>7.5945205479452058</v>
+        <v>8.5917808219178085</v>
       </c>
       <c r="H6" s="37"/>
       <c r="I6" s="37"/>
@@ -3935,7 +3900,7 @@
       </c>
       <c r="F7" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>6.6109589041095891</v>
+        <v>7.6082191780821917</v>
       </c>
       <c r="H7" s="37"/>
       <c r="I7" s="37"/>
@@ -4137,11 +4102,11 @@
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8">
         <f ca="1">NOW()</f>
-        <v>44815.650314120372</v>
+        <v>45179.485856134263</v>
       </c>
       <c r="B3" s="1">
         <f t="shared" ref="B3" ca="1" si="0">DAY(A3)</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1">
         <f t="shared" ref="C3" ca="1" si="1">MONTH(A3)</f>
@@ -4149,7 +4114,7 @@
       </c>
       <c r="D3" s="1">
         <f t="shared" ref="D3" ca="1" si="2">YEAR(A3)</f>
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F3" s="36"/>
       <c r="G3" s="36"/>
@@ -4380,6 +4345,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="1670c0fe-6d31-4556-b86f-9e87b6880aec" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a9454a14-a1be-4dae-96dd-930f17aa1325">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A740584D75509F4F816ECA19663AA050" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2c4fec7a5ecf2686ff0e7fa8e74d8f92">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a9454a14-a1be-4dae-96dd-930f17aa1325" xmlns:ns3="1670c0fe-6d31-4556-b86f-9e87b6880aec" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6f7e007abd3148683626701b1277c03d" ns2:_="" ns3:_="">
     <xsd:import namespace="a9454a14-a1be-4dae-96dd-930f17aa1325"/>
@@ -4622,27 +4607,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71BC860C-AA40-4CA3-9074-2EA8ABC54426}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1670c0fe-6d31-4556-b86f-9e87b6880aec"/>
+    <ds:schemaRef ds:uri="a9454a14-a1be-4dae-96dd-930f17aa1325"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="1670c0fe-6d31-4556-b86f-9e87b6880aec" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a9454a14-a1be-4dae-96dd-930f17aa1325">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FB83BE2-BC13-46AD-B889-B1608B0310FB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A0CF385-FD32-4537-8781-2D1FBAB4C748}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4659,23 +4643,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FB83BE2-BC13-46AD-B889-B1608B0310FB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71BC860C-AA40-4CA3-9074-2EA8ABC54426}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="1670c0fe-6d31-4556-b86f-9e87b6880aec"/>
-    <ds:schemaRef ds:uri="a9454a14-a1be-4dae-96dd-930f17aa1325"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Date_time_functions/Date_and_Time_InClass.xlsx
+++ b/Date_time_functions/Date_and_Time_InClass.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\MexEE402_ExcelExcercises\Date_time_functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E27BAA-4EBB-4055-958B-471E1AD73D15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72DCE88D-8BEB-42F6-8277-4FAD457F377D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="11160" tabRatio="988" activeTab="1" xr2:uid="{A6137C47-DE02-48C6-8473-5C1EB30628DD}"/>
   </bookViews>
@@ -1278,7 +1278,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1409,6 +1409,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2923,7 +2929,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.81640625" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2932,16 +2938,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="52" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2955,10 +2961,7 @@
       <c r="C2" s="1">
         <v>2</v>
       </c>
-      <c r="D2" s="4">
-        <f>DATE(A2,B2,C2)</f>
-        <v>34670</v>
-      </c>
+      <c r="D2" s="53"/>
       <c r="F2" s="37" t="s">
         <v>107</v>
       </c>
@@ -2977,10 +2980,7 @@
       <c r="C3" s="1">
         <v>16</v>
       </c>
-      <c r="D3" s="4">
-        <f>DATE(A3,B3,C3)</f>
-        <v>32097</v>
-      </c>
+      <c r="D3" s="53"/>
       <c r="F3" s="37"/>
       <c r="G3" s="37"/>
       <c r="H3" s="37"/>
@@ -2997,10 +2997,7 @@
       <c r="C4" s="1">
         <v>11</v>
       </c>
-      <c r="D4" s="4">
-        <f>DATE(A4,B4,C4)</f>
-        <v>31635</v>
-      </c>
+      <c r="D4" s="53"/>
       <c r="F4" s="37"/>
       <c r="G4" s="37"/>
       <c r="H4" s="37"/>
@@ -3017,10 +3014,7 @@
       <c r="C5" s="1">
         <v>12</v>
       </c>
-      <c r="D5" s="4">
-        <f t="shared" ref="D5:D6" si="0">DATE(A5,B5,C5)</f>
-        <v>27771</v>
-      </c>
+      <c r="D5" s="53"/>
       <c r="F5" s="37"/>
       <c r="G5" s="37"/>
       <c r="H5" s="37"/>
@@ -3037,10 +3031,7 @@
       <c r="C6" s="1">
         <v>3</v>
       </c>
-      <c r="D6" s="4">
-        <f t="shared" si="0"/>
-        <v>14857</v>
-      </c>
+      <c r="D6" s="53"/>
       <c r="F6" s="37"/>
       <c r="G6" s="37"/>
       <c r="H6" s="37"/>
@@ -3810,7 +3801,7 @@
       </c>
       <c r="B3" s="19">
         <f ca="1">NOW()</f>
-        <v>45179.485856134263</v>
+        <v>45179.486396064814</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="1" t="s">
@@ -4102,7 +4093,7 @@
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8">
         <f ca="1">NOW()</f>
-        <v>45179.485856134263</v>
+        <v>45179.486396064814</v>
       </c>
       <c r="B3" s="1">
         <f t="shared" ref="B3" ca="1" si="0">DAY(A3)</f>

--- a/Date_time_functions/Date_and_Time_InClass.xlsx
+++ b/Date_time_functions/Date_and_Time_InClass.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\MexEE402_ExcelExcercises\Date_time_functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72DCE88D-8BEB-42F6-8277-4FAD457F377D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A89ECE-5DD4-4ED8-816B-598DE56D76D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="11160" tabRatio="988" activeTab="1" xr2:uid="{A6137C47-DE02-48C6-8473-5C1EB30628DD}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="11160" tabRatio="988" activeTab="2" xr2:uid="{A6137C47-DE02-48C6-8473-5C1EB30628DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Hour_Min_sec" sheetId="8" r:id="rId1"/>
@@ -1348,9 +1348,6 @@
     <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1415,6 +1412,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1745,32 +1745,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="35" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
     </row>
     <row r="2" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="D2" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="F2" s="36" t="s">
+      <c r="F2" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
     </row>
     <row r="3" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
@@ -1779,10 +1779,10 @@
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
     </row>
     <row r="4" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
@@ -1791,10 +1791,10 @@
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
     </row>
     <row r="5" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
@@ -1811,12 +1811,12 @@
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="F6" s="36" t="s">
+      <c r="F6" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
     </row>
     <row r="7" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
@@ -1825,10 +1825,10 @@
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
     </row>
     <row r="8" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
@@ -1837,10 +1837,10 @@
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
     </row>
     <row r="9" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
@@ -1852,25 +1852,25 @@
     </row>
     <row r="10" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C10" s="12"/>
-      <c r="F10" s="36" t="s">
+      <c r="F10" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
     </row>
     <row r="11" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C11" s="12"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
     </row>
     <row r="12" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
     </row>
     <row r="13" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G13" s="9"/>
@@ -2056,33 +2056,33 @@
     <row r="8" spans="1:7" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="13"/>
       <c r="B8" s="5"/>
-      <c r="D8" s="36" t="s">
+      <c r="D8" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
     </row>
     <row r="9" spans="1:7" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
     </row>
     <row r="10" spans="1:7" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
     </row>
     <row r="11" spans="1:7" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2109,30 +2109,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="59.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="43"/>
-      <c r="F1" s="36" t="s">
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="42"/>
+      <c r="F1" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
     </row>
     <row r="2" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="43" t="s">
         <v>137</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="46"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="45"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
     </row>
     <row r="3" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
@@ -2148,10 +2148,10 @@
         <v>87</v>
       </c>
       <c r="E3" s="21"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
     </row>
     <row r="4" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
@@ -2168,10 +2168,10 @@
         <f>EDATE(B4,3)</f>
         <v>43961</v>
       </c>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
     </row>
     <row r="5" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
@@ -2188,8 +2188,8 @@
         <f>EDATE(B5,3)</f>
         <v>43992</v>
       </c>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
     </row>
     <row r="6" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
@@ -2203,10 +2203,10 @@
         <v>43936</v>
       </c>
       <c r="D6" s="14"/>
-      <c r="F6" s="36" t="s">
+      <c r="F6" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="G6" s="36"/>
+      <c r="G6" s="35"/>
     </row>
     <row r="7" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
@@ -2255,7 +2255,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="31" t="s">
         <v>131</v>
       </c>
       <c r="F10" s="15"/>
@@ -2313,14 +2313,14 @@
         <f>EOMONTH(A2,1)</f>
         <v>44074</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
     </row>
     <row r="3" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
@@ -2330,12 +2330,12 @@
         <f>EOMONTH(A3,2)</f>
         <v>43982</v>
       </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
     </row>
     <row r="4" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
@@ -2345,12 +2345,12 @@
         <f>EOMONTH(A4,1)</f>
         <v>43921</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
     </row>
     <row r="5" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
@@ -2371,7 +2371,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E8" s="32" t="s">
+      <c r="E8" s="31" t="s">
         <v>132</v>
       </c>
     </row>
@@ -2429,7 +2429,7 @@
       <c r="D2" s="22">
         <v>44051</v>
       </c>
-      <c r="E2" s="47">
+      <c r="E2" s="46">
         <f>WORKDAY(B2,C2,D2:D3)</f>
         <v>44055</v>
       </c>
@@ -2441,14 +2441,14 @@
       <c r="D3" s="22">
         <v>44052</v>
       </c>
-      <c r="E3" s="48"/>
-      <c r="G3" s="36" t="s">
+      <c r="E3" s="47"/>
+      <c r="G3" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
     </row>
     <row r="4" spans="1:11" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="16" t="s">
@@ -2463,15 +2463,15 @@
       <c r="D4" s="23">
         <v>44051</v>
       </c>
-      <c r="E4" s="47">
+      <c r="E4" s="46">
         <f>WORKDAY(B4,C4,D4:D5)</f>
         <v>44055</v>
       </c>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
     </row>
     <row r="5" spans="1:11" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="16"/>
@@ -2480,12 +2480,12 @@
       <c r="D5" s="23">
         <v>44052</v>
       </c>
-      <c r="E5" s="48"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
+      <c r="E5" s="47"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
     </row>
     <row r="6" spans="1:11" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="16" t="s">
@@ -2500,15 +2500,15 @@
       <c r="D6" s="25">
         <v>44051</v>
       </c>
-      <c r="E6" s="47">
+      <c r="E6" s="46">
         <f>WORKDAY(B6,C6,D6:D7)</f>
         <v>44056</v>
       </c>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
     </row>
     <row r="7" spans="1:11" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="16"/>
@@ -2517,12 +2517,12 @@
       <c r="D7" s="25">
         <v>44052</v>
       </c>
-      <c r="E7" s="48"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
+      <c r="E7" s="47"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
     </row>
     <row r="8" spans="1:11" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="16" t="s">
@@ -2537,7 +2537,7 @@
       <c r="D8" s="24">
         <v>44044</v>
       </c>
-      <c r="E8" s="47" t="s">
+      <c r="E8" s="46" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2548,7 +2548,7 @@
       <c r="D9" s="24">
         <v>44045</v>
       </c>
-      <c r="E9" s="48"/>
+      <c r="E9" s="47"/>
     </row>
     <row r="10" spans="1:11" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="16" t="s">
@@ -2563,13 +2563,13 @@
       <c r="D10" s="26">
         <v>44030</v>
       </c>
-      <c r="E10" s="47" t="s">
+      <c r="E10" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="32" t="s">
+      <c r="H10" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="I10" s="33"/>
+      <c r="I10" s="32"/>
     </row>
     <row r="11" spans="1:11" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
@@ -2578,7 +2578,7 @@
       <c r="D11" s="26">
         <v>44031</v>
       </c>
-      <c r="E11" s="48"/>
+      <c r="E11" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2644,16 +2644,16 @@
       <c r="D2" s="4">
         <v>44053</v>
       </c>
-      <c r="E2" s="47">
+      <c r="E2" s="46">
         <f>WORKDAY.INTL(B2,C2,1,D2:D3)</f>
         <v>44063</v>
       </c>
-      <c r="G2" s="36" t="s">
+      <c r="G2" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
     </row>
     <row r="3" spans="1:10" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="16"/>
@@ -2662,11 +2662,11 @@
       <c r="D3" s="4">
         <v>44049</v>
       </c>
-      <c r="E3" s="48"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
+      <c r="E3" s="47"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
     </row>
     <row r="4" spans="1:10" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="16" t="s">
@@ -2681,14 +2681,14 @@
       <c r="D4" s="4">
         <v>44053</v>
       </c>
-      <c r="E4" s="49">
+      <c r="E4" s="48">
         <f>WORKDAY.INTL(B4,C4,1,D4:D5)</f>
         <v>44057</v>
       </c>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
     </row>
     <row r="5" spans="1:10" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="16"/>
@@ -2697,11 +2697,11 @@
       <c r="D5" s="4">
         <v>44049</v>
       </c>
-      <c r="E5" s="50"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
+      <c r="E5" s="49"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
     </row>
     <row r="6" spans="1:10" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="16" t="s">
@@ -2714,21 +2714,21 @@
         <v>4</v>
       </c>
       <c r="D6" s="4"/>
-      <c r="E6" s="47">
+      <c r="E6" s="46">
         <f>WORKDAY.INTL(B6,C6,7)</f>
         <v>44055</v>
       </c>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
     </row>
     <row r="7" spans="1:10" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="16"/>
       <c r="B7" s="4"/>
       <c r="C7" s="1"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="48"/>
+      <c r="E7" s="47"/>
     </row>
     <row r="8" spans="1:10" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="16" t="s">
@@ -2743,10 +2743,10 @@
       <c r="D8" s="4">
         <v>44046</v>
       </c>
-      <c r="E8" s="47" t="s">
+      <c r="E8" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="32" t="s">
+      <c r="H8" s="31" t="s">
         <v>134</v>
       </c>
     </row>
@@ -2757,7 +2757,7 @@
       <c r="D9" s="4">
         <v>44047</v>
       </c>
-      <c r="E9" s="48"/>
+      <c r="E9" s="47"/>
     </row>
     <row r="10" spans="1:10" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="16" t="s">
@@ -2772,7 +2772,7 @@
       <c r="D10" s="4">
         <v>44024</v>
       </c>
-      <c r="E10" s="47" t="s">
+      <c r="E10" s="46" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2783,7 +2783,7 @@
       <c r="D11" s="4">
         <v>44025</v>
       </c>
-      <c r="E11" s="48"/>
+      <c r="E11" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2831,14 +2831,14 @@
         <f>_xlfn.DAYS(A2,B2)</f>
         <v>147</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
     </row>
     <row r="3" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
@@ -2851,12 +2851,12 @@
         <f>_xlfn.DAYS(A3,B3)</f>
         <v>965</v>
       </c>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
     </row>
     <row r="4" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
@@ -2869,12 +2869,12 @@
         <f>_xlfn.DAYS(A4,B4)</f>
         <v>8</v>
       </c>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
     </row>
     <row r="5" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
@@ -2886,12 +2886,12 @@
       <c r="C5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
     </row>
     <row r="6" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
@@ -2903,15 +2903,15 @@
       <c r="C6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
     </row>
     <row r="10" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="G10" s="32" t="s">
+      <c r="G10" s="31" t="s">
         <v>135</v>
       </c>
     </row>
@@ -2928,7 +2928,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60731025-88A1-4F03-9758-A1EC0BD1E50E}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -2938,16 +2938,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="52" t="s">
+      <c r="D1" s="51" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2961,14 +2961,14 @@
       <c r="C2" s="1">
         <v>2</v>
       </c>
-      <c r="D2" s="53"/>
-      <c r="F2" s="37" t="s">
+      <c r="D2" s="52"/>
+      <c r="F2" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
     </row>
     <row r="3" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
@@ -2980,12 +2980,12 @@
       <c r="C3" s="1">
         <v>16</v>
       </c>
-      <c r="D3" s="53"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
+      <c r="D3" s="52"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
     </row>
     <row r="4" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
@@ -2997,12 +2997,12 @@
       <c r="C4" s="1">
         <v>11</v>
       </c>
-      <c r="D4" s="53"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
+      <c r="D4" s="52"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
     </row>
     <row r="5" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
@@ -3014,12 +3014,12 @@
       <c r="C5" s="1">
         <v>12</v>
       </c>
-      <c r="D5" s="53"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
+      <c r="D5" s="52"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
     </row>
     <row r="6" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
@@ -3031,19 +3031,19 @@
       <c r="C6" s="1">
         <v>3</v>
       </c>
-      <c r="D6" s="53"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
+      <c r="D6" s="52"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
     </row>
     <row r="7" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3058,21 +3058,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D28EE48-3E28-4466-AD65-D8A34CB99B79}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.1796875" defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="50" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3086,16 +3088,13 @@
       <c r="C2" s="1">
         <v>0</v>
       </c>
-      <c r="D2" s="27">
-        <f>TIME(A2,B2,C2)</f>
-        <v>0.35069444444444442</v>
-      </c>
-      <c r="F2" s="37" t="s">
+      <c r="D2" s="53"/>
+      <c r="F2" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
     </row>
     <row r="3" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
@@ -3107,14 +3106,11 @@
       <c r="C3" s="1">
         <v>0</v>
       </c>
-      <c r="D3" s="27">
-        <f>TIME(A3,B3,C3)</f>
-        <v>0.38541666666666669</v>
-      </c>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
+      <c r="D3" s="53"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
     </row>
     <row r="4" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
@@ -3126,14 +3122,11 @@
       <c r="C4" s="1">
         <v>0</v>
       </c>
-      <c r="D4" s="27">
-        <f t="shared" ref="D4:D6" si="0">TIME(A4,B4,C4)</f>
-        <v>0.5083333333333333</v>
-      </c>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
+      <c r="D4" s="53"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
     </row>
     <row r="5" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
@@ -3145,10 +3138,7 @@
       <c r="C5" s="1">
         <v>-1</v>
       </c>
-      <c r="D5" s="27">
-        <f t="shared" si="0"/>
-        <v>3.460648148148282E-3</v>
-      </c>
+      <c r="D5" s="53"/>
     </row>
     <row r="6" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
@@ -3160,10 +3150,7 @@
       <c r="C6" s="1">
         <v>1</v>
       </c>
-      <c r="D6" s="27">
-        <f t="shared" si="0"/>
-        <v>0.58334490740740741</v>
-      </c>
+      <c r="D6" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3190,11 +3177,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
     </row>
     <row r="2" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -3217,11 +3204,11 @@
       <c r="C3" s="1">
         <v>11</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
     </row>
     <row r="4" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
@@ -3233,9 +3220,9 @@
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
     </row>
     <row r="5" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
@@ -3248,9 +3235,9 @@
       <c r="C5" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
     </row>
     <row r="6" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
@@ -3263,9 +3250,9 @@
       <c r="C6" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
     </row>
     <row r="7" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
@@ -3278,9 +3265,9 @@
       <c r="C7" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
     </row>
     <row r="8" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
@@ -3341,35 +3328,35 @@
     <col min="10" max="10" width="14.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:13" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="I1" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="J1" s="27" t="s">
         <v>35</v>
       </c>
     </row>
@@ -3406,10 +3393,10 @@
         <f>TIMEVALUE(G2&amp;":"&amp;H2)</f>
         <v>0.75694444444444453</v>
       </c>
-      <c r="L2" s="37" t="s">
+      <c r="L2" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="M2" s="37"/>
+      <c r="M2" s="36"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
@@ -3444,8 +3431,8 @@
         <f>TIMEVALUE(G3&amp;":"&amp;H3)</f>
         <v>0.76041666666666663</v>
       </c>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
     </row>
     <row r="4" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
@@ -3480,8 +3467,8 @@
         <f>TIMEVALUE(G4&amp;":"&amp;H4)</f>
         <v>0.73958333333333337</v>
       </c>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
     </row>
     <row r="5" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
@@ -3516,8 +3503,8 @@
         <f>TIMEVALUE(G5&amp;":"&amp;H5)</f>
         <v>0.77361111111111114</v>
       </c>
-      <c r="L5" s="37"/>
-      <c r="M5" s="37"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
     </row>
     <row r="6" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
@@ -3552,8 +3539,8 @@
         <f t="shared" ref="J6:J11" si="1">TIMEVALUE(G6&amp;":"&amp;H6)</f>
         <v>0.79999999999999993</v>
       </c>
-      <c r="L6" s="37"/>
-      <c r="M6" s="37"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
     </row>
     <row r="7" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
@@ -3588,8 +3575,8 @@
         <f t="shared" si="1"/>
         <v>0.76250000000000007</v>
       </c>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
     </row>
     <row r="8" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
@@ -3624,8 +3611,8 @@
         <f t="shared" si="1"/>
         <v>0.72222222222222221</v>
       </c>
-      <c r="L8" s="37"/>
-      <c r="M8" s="37"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
     </row>
     <row r="9" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
@@ -3660,8 +3647,8 @@
         <f t="shared" si="1"/>
         <v>0.81597222222222221</v>
       </c>
-      <c r="L9" s="37"/>
-      <c r="M9" s="37"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
     </row>
     <row r="10" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
@@ -3696,8 +3683,8 @@
         <f t="shared" si="1"/>
         <v>0.78819444444444453</v>
       </c>
-      <c r="L10" s="37"/>
-      <c r="M10" s="37"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
     </row>
     <row r="11" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
@@ -3732,14 +3719,14 @@
         <f t="shared" si="1"/>
         <v>0.76180555555555562</v>
       </c>
-      <c r="L11" s="37"/>
-      <c r="M11" s="37"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
     </row>
     <row r="16" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="H16" s="30" t="s">
+      <c r="H16" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="I16" s="30"/>
+      <c r="I16" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3770,11 +3757,11 @@
       <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
     </row>
     <row r="2" spans="1:9" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -3801,7 +3788,7 @@
       </c>
       <c r="B3" s="19">
         <f ca="1">NOW()</f>
-        <v>45179.486396064814</v>
+        <v>45179.487983217594</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="1" t="s">
@@ -3814,10 +3801,10 @@
         <f ca="1">(TODAY()-E3)/365</f>
         <v>3.0849315068493151</v>
       </c>
-      <c r="H3" s="37" t="s">
+      <c r="H3" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="I3" s="37"/>
+      <c r="I3" s="36"/>
     </row>
     <row r="4" spans="1:9" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
@@ -3837,8 +3824,8 @@
         <f t="shared" ref="F4:F7" ca="1" si="0">(TODAY()-E4)/365</f>
         <v>4.9972602739726026</v>
       </c>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
     </row>
     <row r="5" spans="1:9" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
@@ -3858,8 +3845,8 @@
         <f t="shared" ca="1" si="0"/>
         <v>5.9205479452054792</v>
       </c>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
     </row>
     <row r="6" spans="1:9" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
@@ -3879,8 +3866,8 @@
         <f t="shared" ca="1" si="0"/>
         <v>8.5917808219178085</v>
       </c>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
     </row>
     <row r="7" spans="1:9" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D7" s="1" t="s">
@@ -3893,26 +3880,26 @@
         <f t="shared" ca="1" si="0"/>
         <v>7.6082191780821917</v>
       </c>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
     </row>
     <row r="8" spans="1:9" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
     </row>
     <row r="9" spans="1:9" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F9" s="31" t="s">
+      <c r="F9" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="G9" s="31" t="s">
+      <c r="G9" s="30" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F10" s="31" t="s">
+      <c r="F10" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="G10" s="31" t="s">
+      <c r="G10" s="30" t="s">
         <v>125</v>
       </c>
     </row>
@@ -3937,102 +3924,102 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="3" spans="5:14" x14ac:dyDescent="0.35">
-      <c r="E3" s="36" t="s">
+      <c r="E3" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
     </row>
     <row r="4" spans="5:14" x14ac:dyDescent="0.35">
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
     </row>
     <row r="5" spans="5:14" x14ac:dyDescent="0.35">
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
     </row>
     <row r="6" spans="5:14" x14ac:dyDescent="0.35">
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
     </row>
     <row r="7" spans="5:14" x14ac:dyDescent="0.35">
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="35"/>
     </row>
     <row r="8" spans="5:14" x14ac:dyDescent="0.35">
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="35"/>
     </row>
     <row r="9" spans="5:14" x14ac:dyDescent="0.35">
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
     </row>
     <row r="10" spans="5:14" x14ac:dyDescent="0.35">
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4084,16 +4071,16 @@
         <f>YEAR(A2)</f>
         <v>2019</v>
       </c>
-      <c r="F2" s="36" t="s">
+      <c r="F2" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8">
         <f ca="1">NOW()</f>
-        <v>45179.486396064814</v>
+        <v>45179.487983217594</v>
       </c>
       <c r="B3" s="1">
         <f t="shared" ref="B3" ca="1" si="0">DAY(A3)</f>
@@ -4107,9 +4094,9 @@
         <f t="shared" ref="D3" ca="1" si="2">YEAR(A3)</f>
         <v>2023</v>
       </c>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
     </row>
     <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
@@ -4127,9 +4114,9 @@
         <f>YEAR(A4)</f>
         <v>2017</v>
       </c>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
     </row>
     <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
@@ -4183,17 +4170,17 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F10" s="32" t="s">
+      <c r="F10" s="31" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F11" s="32" t="s">
+      <c r="F11" s="31" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F12" s="32" t="s">
+      <c r="F12" s="31" t="s">
         <v>128</v>
       </c>
     </row>
@@ -4241,16 +4228,16 @@
         <f>WEEKNUM(B2)</f>
         <v>1</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
     </row>
     <row r="3" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
@@ -4263,14 +4250,14 @@
         <f t="shared" ref="C3" si="0">WEEKNUM(B3)</f>
         <v>2</v>
       </c>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
     </row>
     <row r="4" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
@@ -4283,14 +4270,14 @@
         <f>WEEKNUM(B4)</f>
         <v>35</v>
       </c>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
     </row>
     <row r="5" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
@@ -4303,14 +4290,14 @@
         <f>WEEKNUM(B5)</f>
         <v>36</v>
       </c>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
     </row>
     <row r="6" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
@@ -4322,7 +4309,7 @@
       <c r="C6" s="1"/>
     </row>
     <row r="9" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="H9" s="32" t="s">
+      <c r="H9" s="31" t="s">
         <v>129</v>
       </c>
     </row>

--- a/Date_time_functions/Date_and_Time_InClass.xlsx
+++ b/Date_time_functions/Date_and_Time_InClass.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\MexEE402_ExcelExcercises\Date_time_functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A89ECE-5DD4-4ED8-816B-598DE56D76D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16DBD10C-1E74-4E1A-9989-F4D114A93292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="11160" tabRatio="988" activeTab="2" xr2:uid="{A6137C47-DE02-48C6-8473-5C1EB30628DD}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="11160" tabRatio="988" activeTab="3" xr2:uid="{A6137C47-DE02-48C6-8473-5C1EB30628DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Hour_Min_sec" sheetId="8" r:id="rId1"/>
@@ -1278,7 +1278,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1415,6 +1415,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="21" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3058,7 +3064,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D28EE48-3E28-4466-AD65-D8A34CB99B79}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -3165,8 +3171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5E0EEBD-7CED-4F85-A814-0292C94AC54D}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.54296875" defaultRowHeight="28" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3184,13 +3190,13 @@
       <c r="C1" s="37"/>
     </row>
     <row r="2" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="50" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3211,13 +3217,13 @@
       <c r="G3" s="36"/>
     </row>
     <row r="4" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="50" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="36"/>
@@ -3228,10 +3234,7 @@
       <c r="A5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="5">
-        <f>DATEVALUE("05-12-1998")</f>
-        <v>36134</v>
-      </c>
+      <c r="B5" s="54"/>
       <c r="C5" s="20" t="s">
         <v>72</v>
       </c>
@@ -3243,10 +3246,7 @@
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="1">
-        <f>DATEVALUE("05/12/1998")</f>
-        <v>36134</v>
-      </c>
+      <c r="B6" s="55"/>
       <c r="C6" s="20" t="s">
         <v>72</v>
       </c>
@@ -3258,10 +3258,7 @@
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="1">
-        <f>DATEVALUE("05-August-1998")</f>
-        <v>36012</v>
-      </c>
+      <c r="B7" s="55"/>
       <c r="C7" s="20" t="s">
         <v>72</v>
       </c>
@@ -3273,10 +3270,7 @@
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="1">
-        <f>DATEVALUE("05-August")</f>
-        <v>44048</v>
-      </c>
+      <c r="B8" s="55"/>
       <c r="C8" s="20" t="s">
         <v>72</v>
       </c>
@@ -3285,10 +3279,7 @@
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="1">
-        <f>DATEVALUE("August-1998")</f>
-        <v>36008</v>
-      </c>
+      <c r="B9" s="55"/>
       <c r="C9" s="20" t="s">
         <v>72</v>
       </c>
@@ -3297,10 +3288,7 @@
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="1">
-        <f>DATEVALUE(C3&amp;"/"&amp;B3&amp;"/"&amp;A3)</f>
-        <v>43688</v>
-      </c>
+      <c r="B10" s="55"/>
       <c r="C10" s="20" t="s">
         <v>72</v>
       </c>
@@ -3788,7 +3776,7 @@
       </c>
       <c r="B3" s="19">
         <f ca="1">NOW()</f>
-        <v>45179.487983217594</v>
+        <v>45179.489529976854</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="1" t="s">
@@ -4080,7 +4068,7 @@
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8">
         <f ca="1">NOW()</f>
-        <v>45179.487983217594</v>
+        <v>45179.489529976854</v>
       </c>
       <c r="B3" s="1">
         <f t="shared" ref="B3" ca="1" si="0">DAY(A3)</f>

--- a/Date_time_functions/Date_and_Time_InClass.xlsx
+++ b/Date_time_functions/Date_and_Time_InClass.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\MexEE402_ExcelExcercises\Date_time_functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16DBD10C-1E74-4E1A-9989-F4D114A93292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1C71183-0ECD-47E6-9475-590A5232E666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="11160" tabRatio="988" activeTab="3" xr2:uid="{A6137C47-DE02-48C6-8473-5C1EB30628DD}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="11160" tabRatio="988" activeTab="4" xr2:uid="{A6137C47-DE02-48C6-8473-5C1EB30628DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Hour_Min_sec" sheetId="8" r:id="rId1"/>
@@ -1086,7 +1086,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1144,6 +1144,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1278,7 +1290,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1298,9 +1310,6 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1318,9 +1327,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1346,9 +1352,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1421,6 +1424,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1751,59 +1766,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
     </row>
     <row r="2" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="50" t="s">
+      <c r="D2" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="F2" s="35" t="s">
+      <c r="F2" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
     </row>
     <row r="3" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>55</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
     </row>
     <row r="4" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>56</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
     </row>
     <row r="5" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>57</v>
       </c>
       <c r="B5" s="1"/>
@@ -1811,45 +1826,45 @@
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>58</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="F6" s="35" t="s">
+      <c r="F6" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
     </row>
     <row r="7" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="10" t="s">
         <v>59</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
     </row>
     <row r="8" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="10" t="s">
         <v>61</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
     </row>
     <row r="9" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="10" t="s">
         <v>60</v>
       </c>
       <c r="B9" s="1"/>
@@ -1857,32 +1872,32 @@
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="12"/>
-      <c r="F10" s="35" t="s">
+      <c r="C10" s="11"/>
+      <c r="F10" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
     </row>
     <row r="11" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C11" s="12"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
+      <c r="C11" s="11"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
     </row>
     <row r="12" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
     </row>
     <row r="13" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="G13" s="9"/>
+      <c r="G13" s="8"/>
     </row>
     <row r="14" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="H14" s="9"/>
+      <c r="H14" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2060,35 +2075,35 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="13"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="5"/>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
     </row>
     <row r="9" spans="1:7" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
     </row>
     <row r="10" spans="1:7" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
     </row>
     <row r="11" spans="1:7" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2115,30 +2130,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="59.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="42"/>
-      <c r="F1" s="35" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="39"/>
+      <c r="F1" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
     </row>
     <row r="2" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="45"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="42"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
     </row>
     <row r="3" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
@@ -2153,11 +2168,11 @@
       <c r="D3" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E3" s="21"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
     </row>
     <row r="4" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
@@ -2166,18 +2181,18 @@
       <c r="B4" s="4">
         <v>43871</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="13">
         <f>EDATE(B4,1)</f>
         <v>43900</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="13">
         <f>EDATE(B4,3)</f>
         <v>43961</v>
       </c>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
     </row>
     <row r="5" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
@@ -2186,16 +2201,16 @@
       <c r="B5" s="4">
         <v>43900</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="13">
         <f>EDATE(B5,1)</f>
         <v>43931</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="13">
         <f>EDATE(B5,3)</f>
         <v>43992</v>
       </c>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
     </row>
     <row r="6" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
@@ -2204,15 +2219,15 @@
       <c r="B6" s="4">
         <v>43905</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="13">
         <f>EDATE(B6,1)</f>
         <v>43936</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="F6" s="35" t="s">
+      <c r="D6" s="13"/>
+      <c r="F6" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="G6" s="35"/>
+      <c r="G6" s="32"/>
     </row>
     <row r="7" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
@@ -2221,15 +2236,15 @@
       <c r="B7" s="4">
         <v>43964</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="13">
         <f t="shared" ref="C7:C8" si="0">EDATE(B7,1)</f>
         <v>43995</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="F7" s="15" t="s">
+      <c r="D7" s="13"/>
+      <c r="F7" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="14" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2240,41 +2255,41 @@
       <c r="B8" s="4">
         <v>44000</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="13">
         <f t="shared" si="0"/>
         <v>44030</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="F8" s="15">
+      <c r="D8" s="13"/>
+      <c r="F8" s="14">
         <v>44091</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="14" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="14" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
     </row>
     <row r="11" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D11" s="13"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
+      <c r="D11" s="12"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
     </row>
     <row r="12" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2315,54 +2330,54 @@
       <c r="A2" s="4">
         <v>44029</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="13">
         <f>EOMONTH(A2,1)</f>
         <v>44074</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
     </row>
     <row r="3" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>43905</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="13">
         <f>EOMONTH(A3,2)</f>
         <v>43982</v>
       </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
     </row>
     <row r="4" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>43864</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="13">
         <f>EOMONTH(A4,1)</f>
         <v>43921</v>
       </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
     </row>
     <row r="5" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>43994</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="13">
         <f>EOMONTH(A5,1)</f>
         <v>44043</v>
       </c>
@@ -2371,13 +2386,13 @@
       <c r="A6" s="4">
         <v>43831</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="13">
         <f>EOMONTH(A6,1)</f>
         <v>43890</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E8" s="31" t="s">
+      <c r="E8" s="28" t="s">
         <v>132</v>
       </c>
     </row>
@@ -2423,7 +2438,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>67</v>
       </c>
       <c r="B2" s="4">
@@ -2432,32 +2447,32 @@
       <c r="C2" s="1">
         <v>6</v>
       </c>
-      <c r="D2" s="22">
+      <c r="D2" s="20">
         <v>44051</v>
       </c>
-      <c r="E2" s="46">
+      <c r="E2" s="43">
         <f>WORKDAY(B2,C2,D2:D3)</f>
         <v>44055</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="16"/>
+      <c r="A3" s="15"/>
       <c r="B3" s="4"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="22">
+      <c r="D3" s="20">
         <v>44052</v>
       </c>
-      <c r="E3" s="47"/>
-      <c r="G3" s="35" t="s">
+      <c r="E3" s="44"/>
+      <c r="G3" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
     </row>
     <row r="4" spans="1:11" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="15" t="s">
         <v>68</v>
       </c>
       <c r="B4" s="4">
@@ -2466,35 +2481,35 @@
       <c r="C4" s="1">
         <v>5</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="21">
         <v>44051</v>
       </c>
-      <c r="E4" s="46">
+      <c r="E4" s="43">
         <f>WORKDAY(B4,C4,D4:D5)</f>
         <v>44055</v>
       </c>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
     </row>
     <row r="5" spans="1:11" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="16"/>
+      <c r="A5" s="15"/>
       <c r="B5" s="4"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="23">
+      <c r="D5" s="21">
         <v>44052</v>
       </c>
-      <c r="E5" s="47"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
+      <c r="E5" s="44"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
     </row>
     <row r="6" spans="1:11" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="15" t="s">
         <v>69</v>
       </c>
       <c r="B6" s="4">
@@ -2503,35 +2518,35 @@
       <c r="C6" s="1">
         <v>4</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D6" s="23">
         <v>44051</v>
       </c>
-      <c r="E6" s="46">
+      <c r="E6" s="43">
         <f>WORKDAY(B6,C6,D6:D7)</f>
         <v>44056</v>
       </c>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
     </row>
     <row r="7" spans="1:11" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="16"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="4"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="25">
+      <c r="D7" s="23">
         <v>44052</v>
       </c>
-      <c r="E7" s="47"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
+      <c r="E7" s="44"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
     </row>
     <row r="8" spans="1:11" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="15" t="s">
         <v>70</v>
       </c>
       <c r="B8" s="4">
@@ -2540,24 +2555,24 @@
       <c r="C8" s="1">
         <v>10</v>
       </c>
-      <c r="D8" s="24">
+      <c r="D8" s="22">
         <v>44044</v>
       </c>
-      <c r="E8" s="46" t="s">
+      <c r="E8" s="43" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="16"/>
+      <c r="A9" s="15"/>
       <c r="B9" s="4"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="24">
+      <c r="D9" s="22">
         <v>44045</v>
       </c>
-      <c r="E9" s="47"/>
+      <c r="E9" s="44"/>
     </row>
     <row r="10" spans="1:11" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="15" t="s">
         <v>71</v>
       </c>
       <c r="B10" s="4">
@@ -2566,25 +2581,25 @@
       <c r="C10" s="1">
         <v>3</v>
       </c>
-      <c r="D10" s="26">
+      <c r="D10" s="24">
         <v>44030</v>
       </c>
-      <c r="E10" s="46" t="s">
+      <c r="E10" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="31" t="s">
+      <c r="H10" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="I10" s="32"/>
+      <c r="I10" s="29"/>
     </row>
     <row r="11" spans="1:11" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="26">
+      <c r="D11" s="24">
         <v>44031</v>
       </c>
-      <c r="E11" s="47"/>
+      <c r="E11" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2638,7 +2653,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>67</v>
       </c>
       <c r="B2" s="4">
@@ -2650,32 +2665,32 @@
       <c r="D2" s="4">
         <v>44053</v>
       </c>
-      <c r="E2" s="46">
+      <c r="E2" s="43">
         <f>WORKDAY.INTL(B2,C2,1,D2:D3)</f>
         <v>44063</v>
       </c>
-      <c r="G2" s="35" t="s">
+      <c r="G2" s="32" t="s">
         <v>138</v>
       </c>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
     </row>
     <row r="3" spans="1:10" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="16"/>
+      <c r="A3" s="15"/>
       <c r="B3" s="4"/>
       <c r="C3" s="1"/>
       <c r="D3" s="4">
         <v>44049</v>
       </c>
-      <c r="E3" s="47"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
+      <c r="E3" s="44"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
     </row>
     <row r="4" spans="1:10" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="15" t="s">
         <v>68</v>
       </c>
       <c r="B4" s="4">
@@ -2687,30 +2702,30 @@
       <c r="D4" s="4">
         <v>44053</v>
       </c>
-      <c r="E4" s="48">
+      <c r="E4" s="45">
         <f>WORKDAY.INTL(B4,C4,1,D4:D5)</f>
         <v>44057</v>
       </c>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
     </row>
     <row r="5" spans="1:10" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="16"/>
+      <c r="A5" s="15"/>
       <c r="B5" s="4"/>
       <c r="C5" s="1"/>
       <c r="D5" s="4">
         <v>44049</v>
       </c>
-      <c r="E5" s="49"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
+      <c r="E5" s="46"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
     </row>
     <row r="6" spans="1:10" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="15" t="s">
         <v>69</v>
       </c>
       <c r="B6" s="4">
@@ -2720,24 +2735,24 @@
         <v>4</v>
       </c>
       <c r="D6" s="4"/>
-      <c r="E6" s="46">
+      <c r="E6" s="43">
         <f>WORKDAY.INTL(B6,C6,7)</f>
         <v>44055</v>
       </c>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
     </row>
     <row r="7" spans="1:10" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="16"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="4"/>
       <c r="C7" s="1"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="47"/>
+      <c r="E7" s="44"/>
     </row>
     <row r="8" spans="1:10" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="15" t="s">
         <v>70</v>
       </c>
       <c r="B8" s="4">
@@ -2749,24 +2764,24 @@
       <c r="D8" s="4">
         <v>44046</v>
       </c>
-      <c r="E8" s="46" t="s">
+      <c r="E8" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="31" t="s">
+      <c r="H8" s="28" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="16"/>
+      <c r="A9" s="15"/>
       <c r="B9" s="4"/>
       <c r="C9" s="1"/>
       <c r="D9" s="4">
         <v>44047</v>
       </c>
-      <c r="E9" s="47"/>
+      <c r="E9" s="44"/>
     </row>
     <row r="10" spans="1:10" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="15" t="s">
         <v>71</v>
       </c>
       <c r="B10" s="4">
@@ -2778,7 +2793,7 @@
       <c r="D10" s="4">
         <v>44024</v>
       </c>
-      <c r="E10" s="46" t="s">
+      <c r="E10" s="43" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2789,7 +2804,7 @@
       <c r="D11" s="4">
         <v>44025</v>
       </c>
-      <c r="E11" s="47"/>
+      <c r="E11" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2837,14 +2852,14 @@
         <f>_xlfn.DAYS(A2,B2)</f>
         <v>147</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="E2" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
     </row>
     <row r="3" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
@@ -2857,12 +2872,12 @@
         <f>_xlfn.DAYS(A3,B3)</f>
         <v>965</v>
       </c>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
     </row>
     <row r="4" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
@@ -2875,12 +2890,12 @@
         <f>_xlfn.DAYS(A4,B4)</f>
         <v>8</v>
       </c>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
     </row>
     <row r="5" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
@@ -2892,12 +2907,12 @@
       <c r="C5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
     </row>
     <row r="6" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
@@ -2909,15 +2924,15 @@
       <c r="C6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
     </row>
     <row r="10" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="G10" s="31" t="s">
+      <c r="G10" s="28" t="s">
         <v>135</v>
       </c>
     </row>
@@ -2944,16 +2959,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="48" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2967,14 +2982,14 @@
       <c r="C2" s="1">
         <v>2</v>
       </c>
-      <c r="D2" s="52"/>
-      <c r="F2" s="36" t="s">
+      <c r="D2" s="49"/>
+      <c r="F2" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
     </row>
     <row r="3" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
@@ -2986,12 +3001,12 @@
       <c r="C3" s="1">
         <v>16</v>
       </c>
-      <c r="D3" s="52"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
+      <c r="D3" s="49"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
     </row>
     <row r="4" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
@@ -3003,12 +3018,12 @@
       <c r="C4" s="1">
         <v>11</v>
       </c>
-      <c r="D4" s="52"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
+      <c r="D4" s="49"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
     </row>
     <row r="5" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
@@ -3020,12 +3035,12 @@
       <c r="C5" s="1">
         <v>12</v>
       </c>
-      <c r="D5" s="52"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
+      <c r="D5" s="49"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
     </row>
     <row r="6" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
@@ -3037,19 +3052,19 @@
       <c r="C6" s="1">
         <v>3</v>
       </c>
-      <c r="D6" s="52"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
+      <c r="D6" s="49"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
     </row>
     <row r="7" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3071,16 +3086,16 @@
   <sheetFormatPr defaultColWidth="15.1796875" defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="D1" s="47" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3094,13 +3109,13 @@
       <c r="C2" s="1">
         <v>0</v>
       </c>
-      <c r="D2" s="53"/>
-      <c r="F2" s="36" t="s">
+      <c r="D2" s="50"/>
+      <c r="F2" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
     </row>
     <row r="3" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
@@ -3112,11 +3127,11 @@
       <c r="C3" s="1">
         <v>0</v>
       </c>
-      <c r="D3" s="53"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
+      <c r="D3" s="50"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
     </row>
     <row r="4" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
@@ -3128,11 +3143,11 @@
       <c r="C4" s="1">
         <v>0</v>
       </c>
-      <c r="D4" s="53"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
+      <c r="D4" s="50"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
     </row>
     <row r="5" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
@@ -3144,7 +3159,7 @@
       <c r="C5" s="1">
         <v>-1</v>
       </c>
-      <c r="D5" s="53"/>
+      <c r="D5" s="50"/>
     </row>
     <row r="6" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
@@ -3156,7 +3171,7 @@
       <c r="C6" s="1">
         <v>1</v>
       </c>
-      <c r="D6" s="53"/>
+      <c r="D6" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3171,7 +3186,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5E0EEBD-7CED-4F85-A814-0292C94AC54D}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -3183,20 +3198,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
     </row>
     <row r="2" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="47" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3210,68 +3225,68 @@
       <c r="C3" s="1">
         <v>11</v>
       </c>
-      <c r="E3" s="36" t="s">
+      <c r="E3" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
     </row>
     <row r="4" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
     </row>
     <row r="5" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="54"/>
-      <c r="C5" s="20" t="s">
+      <c r="B5" s="51"/>
+      <c r="C5" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
     </row>
     <row r="6" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="55"/>
-      <c r="C6" s="20" t="s">
+      <c r="B6" s="52"/>
+      <c r="C6" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
     </row>
     <row r="7" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="55"/>
-      <c r="C7" s="20" t="s">
+      <c r="B7" s="52"/>
+      <c r="C7" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
     </row>
     <row r="8" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="55"/>
-      <c r="C8" s="20" t="s">
+      <c r="B8" s="52"/>
+      <c r="C8" s="18" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3279,8 +3294,8 @@
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="55"/>
-      <c r="C9" s="20" t="s">
+      <c r="B9" s="52"/>
+      <c r="C9" s="18" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3288,8 +3303,8 @@
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="55"/>
-      <c r="C10" s="20" t="s">
+      <c r="B10" s="52"/>
+      <c r="C10" s="18" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3308,7 +3323,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{375D116F-A2D1-41D0-B2E1-65A2E296E133}">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
@@ -3316,35 +3333,35 @@
     <col min="10" max="10" width="14.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:13" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="53" t="s">
         <v>35</v>
       </c>
     </row>
@@ -3373,18 +3390,12 @@
       <c r="H2" s="1">
         <v>10</v>
       </c>
-      <c r="I2" s="7">
-        <f>TIMEVALUE(E2&amp;":"&amp;F2)</f>
-        <v>0.38194444444444442</v>
-      </c>
-      <c r="J2" s="17">
-        <f>TIMEVALUE(G2&amp;":"&amp;H2)</f>
-        <v>0.75694444444444453</v>
-      </c>
-      <c r="L2" s="36" t="s">
+      <c r="I2" s="54"/>
+      <c r="J2" s="55"/>
+      <c r="L2" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="M2" s="36"/>
+      <c r="M2" s="33"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
@@ -3411,16 +3422,10 @@
       <c r="H3" s="1">
         <v>15</v>
       </c>
-      <c r="I3" s="7">
-        <f t="shared" ref="I3:I11" si="0">TIMEVALUE(E3&amp;":"&amp;F3)</f>
-        <v>0.37847222222222227</v>
-      </c>
-      <c r="J3" s="7">
-        <f>TIMEVALUE(G3&amp;":"&amp;H3)</f>
-        <v>0.76041666666666663</v>
-      </c>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="56"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
     </row>
     <row r="4" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
@@ -3447,16 +3452,10 @@
       <c r="H4" s="1">
         <v>45</v>
       </c>
-      <c r="I4" s="7">
-        <f t="shared" si="0"/>
-        <v>0.36458333333333331</v>
-      </c>
-      <c r="J4" s="7">
-        <f>TIMEVALUE(G4&amp;":"&amp;H4)</f>
-        <v>0.73958333333333337</v>
-      </c>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="56"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
     </row>
     <row r="5" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
@@ -3483,16 +3482,10 @@
       <c r="H5" s="1">
         <v>34</v>
       </c>
-      <c r="I5" s="7">
-        <f t="shared" si="0"/>
-        <v>0.38194444444444442</v>
-      </c>
-      <c r="J5" s="7">
-        <f>TIMEVALUE(G5&amp;":"&amp;H5)</f>
-        <v>0.77361111111111114</v>
-      </c>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="56"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
     </row>
     <row r="6" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
@@ -3519,16 +3512,10 @@
       <c r="H6" s="1">
         <v>12</v>
       </c>
-      <c r="I6" s="7">
-        <f t="shared" si="0"/>
-        <v>0.36458333333333331</v>
-      </c>
-      <c r="J6" s="7">
-        <f t="shared" ref="J6:J11" si="1">TIMEVALUE(G6&amp;":"&amp;H6)</f>
-        <v>0.79999999999999993</v>
-      </c>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="56"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
     </row>
     <row r="7" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
@@ -3555,16 +3542,10 @@
       <c r="H7" s="1">
         <v>18</v>
       </c>
-      <c r="I7" s="7">
-        <f t="shared" si="0"/>
-        <v>0.38541666666666669</v>
-      </c>
-      <c r="J7" s="7">
-        <f t="shared" si="1"/>
-        <v>0.76250000000000007</v>
-      </c>
-      <c r="L7" s="36"/>
-      <c r="M7" s="36"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="56"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
     </row>
     <row r="8" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
@@ -3591,16 +3572,10 @@
       <c r="H8" s="1">
         <v>20</v>
       </c>
-      <c r="I8" s="7">
-        <f t="shared" si="0"/>
-        <v>0.3833333333333333</v>
-      </c>
-      <c r="J8" s="7">
-        <f t="shared" si="1"/>
-        <v>0.72222222222222221</v>
-      </c>
-      <c r="L8" s="36"/>
-      <c r="M8" s="36"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="56"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
     </row>
     <row r="9" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
@@ -3627,16 +3602,10 @@
       <c r="H9" s="1">
         <v>35</v>
       </c>
-      <c r="I9" s="7">
-        <f t="shared" si="0"/>
-        <v>0.39097222222222222</v>
-      </c>
-      <c r="J9" s="7">
-        <f t="shared" si="1"/>
-        <v>0.81597222222222221</v>
-      </c>
-      <c r="L9" s="36"/>
-      <c r="M9" s="36"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="56"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
     </row>
     <row r="10" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
@@ -3663,16 +3632,10 @@
       <c r="H10" s="1">
         <v>55</v>
       </c>
-      <c r="I10" s="7">
-        <f t="shared" si="0"/>
-        <v>0.38263888888888892</v>
-      </c>
-      <c r="J10" s="7">
-        <f t="shared" si="1"/>
-        <v>0.78819444444444453</v>
-      </c>
-      <c r="L10" s="36"/>
-      <c r="M10" s="36"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="56"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
     </row>
     <row r="11" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
@@ -3699,22 +3662,16 @@
       <c r="H11" s="1">
         <v>17</v>
       </c>
-      <c r="I11" s="7">
-        <f t="shared" si="0"/>
-        <v>0.37152777777777773</v>
-      </c>
-      <c r="J11" s="7">
-        <f t="shared" si="1"/>
-        <v>0.76180555555555562</v>
-      </c>
-      <c r="L11" s="36"/>
-      <c r="M11" s="36"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="56"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
     </row>
     <row r="16" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="H16" s="29" t="s">
+      <c r="H16" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="I16" s="29"/>
+      <c r="I16" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3745,11 +3702,11 @@
       <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
     </row>
     <row r="2" spans="1:9" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -3759,7 +3716,7 @@
         <f ca="1">TODAY()</f>
         <v>45179</v>
       </c>
-      <c r="C2" s="13"/>
+      <c r="C2" s="12"/>
       <c r="D2" s="2" t="s">
         <v>41</v>
       </c>
@@ -3774,25 +3731,25 @@
       <c r="A3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="19">
+      <c r="B3" s="17">
         <f ca="1">NOW()</f>
-        <v>45179.489529976854</v>
-      </c>
-      <c r="C3" s="10"/>
+        <v>45179.490358680552</v>
+      </c>
+      <c r="C3" s="9"/>
       <c r="D3" s="1" t="s">
         <v>44</v>
       </c>
       <c r="E3" s="4">
         <v>44053</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="16">
         <f ca="1">(TODAY()-E3)/365</f>
         <v>3.0849315068493151</v>
       </c>
-      <c r="H3" s="36" t="s">
+      <c r="H3" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="I3" s="36"/>
+      <c r="I3" s="33"/>
     </row>
     <row r="4" spans="1:9" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
@@ -3808,12 +3765,12 @@
       <c r="E4" s="4">
         <v>43355</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="16">
         <f t="shared" ref="F4:F7" ca="1" si="0">(TODAY()-E4)/365</f>
         <v>4.9972602739726026</v>
       </c>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
     </row>
     <row r="5" spans="1:9" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
@@ -3829,12 +3786,12 @@
       <c r="E5" s="4">
         <v>43018</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="16">
         <f t="shared" ca="1" si="0"/>
         <v>5.9205479452054792</v>
       </c>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
     </row>
     <row r="6" spans="1:9" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
@@ -3850,12 +3807,12 @@
       <c r="E6" s="4">
         <v>42043</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="16">
         <f t="shared" ca="1" si="0"/>
         <v>8.5917808219178085</v>
       </c>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
     </row>
     <row r="7" spans="1:9" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D7" s="1" t="s">
@@ -3864,30 +3821,30 @@
       <c r="E7" s="4">
         <v>42402</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="16">
         <f t="shared" ca="1" si="0"/>
         <v>7.6082191780821917</v>
       </c>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
     </row>
     <row r="8" spans="1:9" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
     </row>
     <row r="9" spans="1:9" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F9" s="30" t="s">
+      <c r="F9" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="G9" s="30" t="s">
+      <c r="G9" s="27" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F10" s="30" t="s">
+      <c r="F10" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="G10" s="30" t="s">
+      <c r="G10" s="27" t="s">
         <v>125</v>
       </c>
     </row>
@@ -3912,102 +3869,102 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="3" spans="5:14" x14ac:dyDescent="0.35">
-      <c r="E3" s="35" t="s">
+      <c r="E3" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
     </row>
     <row r="4" spans="5:14" x14ac:dyDescent="0.35">
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
     </row>
     <row r="5" spans="5:14" x14ac:dyDescent="0.35">
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
     </row>
     <row r="6" spans="5:14" x14ac:dyDescent="0.35">
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32"/>
     </row>
     <row r="7" spans="5:14" x14ac:dyDescent="0.35">
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="32"/>
     </row>
     <row r="8" spans="5:14" x14ac:dyDescent="0.35">
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="35"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="32"/>
     </row>
     <row r="9" spans="5:14" x14ac:dyDescent="0.35">
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="32"/>
     </row>
     <row r="10" spans="5:14" x14ac:dyDescent="0.35">
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="35"/>
-      <c r="N10" s="35"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4044,7 +4001,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>63</v>
       </c>
       <c r="B2" s="1">
@@ -4059,16 +4016,16 @@
         <f>YEAR(A2)</f>
         <v>2019</v>
       </c>
-      <c r="F2" s="35" t="s">
+      <c r="F2" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="8">
+      <c r="A3" s="7">
         <f ca="1">NOW()</f>
-        <v>45179.489529976854</v>
+        <v>45179.490358680552</v>
       </c>
       <c r="B3" s="1">
         <f t="shared" ref="B3" ca="1" si="0">DAY(A3)</f>
@@ -4082,9 +4039,9 @@
         <f t="shared" ref="D3" ca="1" si="2">YEAR(A3)</f>
         <v>2023</v>
       </c>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
     </row>
     <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
@@ -4102,9 +4059,9 @@
         <f>YEAR(A4)</f>
         <v>2017</v>
       </c>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
     </row>
     <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
@@ -4158,17 +4115,17 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F10" s="31" t="s">
+      <c r="F10" s="28" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F11" s="31" t="s">
+      <c r="F11" s="28" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F12" s="31" t="s">
+      <c r="F12" s="28" t="s">
         <v>128</v>
       </c>
     </row>
@@ -4216,16 +4173,16 @@
         <f>WEEKNUM(B2)</f>
         <v>1</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="E2" s="32" t="s">
         <v>136</v>
       </c>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
     </row>
     <row r="3" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
@@ -4238,14 +4195,14 @@
         <f t="shared" ref="C3" si="0">WEEKNUM(B3)</f>
         <v>2</v>
       </c>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
     </row>
     <row r="4" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
@@ -4258,14 +4215,14 @@
         <f>WEEKNUM(B4)</f>
         <v>35</v>
       </c>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
     </row>
     <row r="5" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
@@ -4278,14 +4235,14 @@
         <f>WEEKNUM(B5)</f>
         <v>36</v>
       </c>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
     </row>
     <row r="6" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
@@ -4297,7 +4254,7 @@
       <c r="C6" s="1"/>
     </row>
     <row r="9" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="H9" s="31" t="s">
+      <c r="H9" s="28" t="s">
         <v>129</v>
       </c>
     </row>

--- a/Date_time_functions/Date_and_Time_InClass.xlsx
+++ b/Date_time_functions/Date_and_Time_InClass.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\MexEE402_ExcelExcercises\Date_time_functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1C71183-0ECD-47E6-9475-590A5232E666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E90F8B1-1E88-493A-AF17-8D4F08B9985A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="11160" tabRatio="988" activeTab="4" xr2:uid="{A6137C47-DE02-48C6-8473-5C1EB30628DD}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="11160" tabRatio="988" activeTab="6" xr2:uid="{A6137C47-DE02-48C6-8473-5C1EB30628DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Hour_Min_sec" sheetId="8" r:id="rId1"/>
@@ -1329,10 +1329,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1370,12 +1366,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1436,6 +1426,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1766,32 +1766,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
     </row>
     <row r="2" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="D2" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
     </row>
     <row r="3" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
@@ -1800,10 +1800,10 @@
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
     </row>
     <row r="4" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
@@ -1812,10 +1812,10 @@
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
     </row>
     <row r="5" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
@@ -1832,12 +1832,12 @@
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="F6" s="32" t="s">
+      <c r="F6" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
     </row>
     <row r="7" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
@@ -1846,10 +1846,10 @@
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
     </row>
     <row r="8" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
@@ -1858,10 +1858,10 @@
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
     </row>
     <row r="9" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
@@ -1873,25 +1873,25 @@
     </row>
     <row r="10" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C10" s="11"/>
-      <c r="F10" s="32" t="s">
+      <c r="F10" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
     </row>
     <row r="11" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C11" s="11"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
     </row>
     <row r="12" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
     </row>
     <row r="13" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G13" s="8"/>
@@ -2077,33 +2077,33 @@
     <row r="8" spans="1:7" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="12"/>
       <c r="B8" s="5"/>
-      <c r="D8" s="32" t="s">
+      <c r="D8" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
     </row>
     <row r="9" spans="1:7" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
     </row>
     <row r="10" spans="1:7" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
     </row>
     <row r="11" spans="1:7" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2130,30 +2130,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="59.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="39"/>
-      <c r="F1" s="32" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="35"/>
+      <c r="F1" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
     </row>
     <row r="2" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="42"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="38"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
     </row>
     <row r="3" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
@@ -2168,11 +2168,11 @@
       <c r="D3" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
     </row>
     <row r="4" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
@@ -2189,10 +2189,10 @@
         <f>EDATE(B4,3)</f>
         <v>43961</v>
       </c>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
     </row>
     <row r="5" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
@@ -2209,8 +2209,8 @@
         <f>EDATE(B5,3)</f>
         <v>43992</v>
       </c>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
     </row>
     <row r="6" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
@@ -2224,10 +2224,10 @@
         <v>43936</v>
       </c>
       <c r="D6" s="13"/>
-      <c r="F6" s="32" t="s">
+      <c r="F6" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="G6" s="32"/>
+      <c r="G6" s="30"/>
     </row>
     <row r="7" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
@@ -2276,7 +2276,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="26" t="s">
         <v>131</v>
       </c>
       <c r="F10" s="14"/>
@@ -2334,14 +2334,14 @@
         <f>EOMONTH(A2,1)</f>
         <v>44074</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
     </row>
     <row r="3" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
@@ -2351,12 +2351,12 @@
         <f>EOMONTH(A3,2)</f>
         <v>43982</v>
       </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
     </row>
     <row r="4" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
@@ -2366,12 +2366,12 @@
         <f>EOMONTH(A4,1)</f>
         <v>43921</v>
       </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
     </row>
     <row r="5" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
@@ -2392,7 +2392,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="26" t="s">
         <v>132</v>
       </c>
     </row>
@@ -2447,10 +2447,10 @@
       <c r="C2" s="1">
         <v>6</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2" s="18">
         <v>44051</v>
       </c>
-      <c r="E2" s="43">
+      <c r="E2" s="39">
         <f>WORKDAY(B2,C2,D2:D3)</f>
         <v>44055</v>
       </c>
@@ -2459,17 +2459,17 @@
       <c r="A3" s="15"/>
       <c r="B3" s="4"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="20">
+      <c r="D3" s="18">
         <v>44052</v>
       </c>
-      <c r="E3" s="44"/>
-      <c r="G3" s="32" t="s">
+      <c r="E3" s="40"/>
+      <c r="G3" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
     </row>
     <row r="4" spans="1:11" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
@@ -2481,32 +2481,32 @@
       <c r="C4" s="1">
         <v>5</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="19">
         <v>44051</v>
       </c>
-      <c r="E4" s="43">
+      <c r="E4" s="39">
         <f>WORKDAY(B4,C4,D4:D5)</f>
         <v>44055</v>
       </c>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
     </row>
     <row r="5" spans="1:11" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="15"/>
       <c r="B5" s="4"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="21">
+      <c r="D5" s="19">
         <v>44052</v>
       </c>
-      <c r="E5" s="44"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
+      <c r="E5" s="40"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
     </row>
     <row r="6" spans="1:11" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="15" t="s">
@@ -2518,32 +2518,32 @@
       <c r="C6" s="1">
         <v>4</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="21">
         <v>44051</v>
       </c>
-      <c r="E6" s="43">
+      <c r="E6" s="39">
         <f>WORKDAY(B6,C6,D6:D7)</f>
         <v>44056</v>
       </c>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
     </row>
     <row r="7" spans="1:11" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="15"/>
       <c r="B7" s="4"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="23">
+      <c r="D7" s="21">
         <v>44052</v>
       </c>
-      <c r="E7" s="44"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
+      <c r="E7" s="40"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
     </row>
     <row r="8" spans="1:11" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="15" t="s">
@@ -2555,10 +2555,10 @@
       <c r="C8" s="1">
         <v>10</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="20">
         <v>44044</v>
       </c>
-      <c r="E8" s="43" t="s">
+      <c r="E8" s="39" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2566,10 +2566,10 @@
       <c r="A9" s="15"/>
       <c r="B9" s="4"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="22">
+      <c r="D9" s="20">
         <v>44045</v>
       </c>
-      <c r="E9" s="44"/>
+      <c r="E9" s="40"/>
     </row>
     <row r="10" spans="1:11" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="15" t="s">
@@ -2581,25 +2581,25 @@
       <c r="C10" s="1">
         <v>3</v>
       </c>
-      <c r="D10" s="24">
+      <c r="D10" s="22">
         <v>44030</v>
       </c>
-      <c r="E10" s="43" t="s">
+      <c r="E10" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="28" t="s">
+      <c r="H10" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="I10" s="29"/>
+      <c r="I10" s="27"/>
     </row>
     <row r="11" spans="1:11" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="24">
+      <c r="D11" s="22">
         <v>44031</v>
       </c>
-      <c r="E11" s="44"/>
+      <c r="E11" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2665,16 +2665,16 @@
       <c r="D2" s="4">
         <v>44053</v>
       </c>
-      <c r="E2" s="43">
+      <c r="E2" s="39">
         <f>WORKDAY.INTL(B2,C2,1,D2:D3)</f>
         <v>44063</v>
       </c>
-      <c r="G2" s="32" t="s">
+      <c r="G2" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
     </row>
     <row r="3" spans="1:10" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15"/>
@@ -2683,11 +2683,11 @@
       <c r="D3" s="4">
         <v>44049</v>
       </c>
-      <c r="E3" s="44"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
+      <c r="E3" s="40"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
     </row>
     <row r="4" spans="1:10" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
@@ -2702,14 +2702,14 @@
       <c r="D4" s="4">
         <v>44053</v>
       </c>
-      <c r="E4" s="45">
+      <c r="E4" s="41">
         <f>WORKDAY.INTL(B4,C4,1,D4:D5)</f>
         <v>44057</v>
       </c>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
     </row>
     <row r="5" spans="1:10" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="15"/>
@@ -2718,11 +2718,11 @@
       <c r="D5" s="4">
         <v>44049</v>
       </c>
-      <c r="E5" s="46"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
+      <c r="E5" s="42"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
     </row>
     <row r="6" spans="1:10" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="15" t="s">
@@ -2735,21 +2735,21 @@
         <v>4</v>
       </c>
       <c r="D6" s="4"/>
-      <c r="E6" s="43">
+      <c r="E6" s="39">
         <f>WORKDAY.INTL(B6,C6,7)</f>
         <v>44055</v>
       </c>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
     </row>
     <row r="7" spans="1:10" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="15"/>
       <c r="B7" s="4"/>
       <c r="C7" s="1"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="44"/>
+      <c r="E7" s="40"/>
     </row>
     <row r="8" spans="1:10" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="15" t="s">
@@ -2764,10 +2764,10 @@
       <c r="D8" s="4">
         <v>44046</v>
       </c>
-      <c r="E8" s="43" t="s">
+      <c r="E8" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="28" t="s">
+      <c r="H8" s="26" t="s">
         <v>134</v>
       </c>
     </row>
@@ -2778,7 +2778,7 @@
       <c r="D9" s="4">
         <v>44047</v>
       </c>
-      <c r="E9" s="44"/>
+      <c r="E9" s="40"/>
     </row>
     <row r="10" spans="1:10" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="15" t="s">
@@ -2793,7 +2793,7 @@
       <c r="D10" s="4">
         <v>44024</v>
       </c>
-      <c r="E10" s="43" t="s">
+      <c r="E10" s="39" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2804,7 +2804,7 @@
       <c r="D11" s="4">
         <v>44025</v>
       </c>
-      <c r="E11" s="44"/>
+      <c r="E11" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2852,14 +2852,14 @@
         <f>_xlfn.DAYS(A2,B2)</f>
         <v>147</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
     </row>
     <row r="3" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
@@ -2872,12 +2872,12 @@
         <f>_xlfn.DAYS(A3,B3)</f>
         <v>965</v>
       </c>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
     </row>
     <row r="4" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
@@ -2890,12 +2890,12 @@
         <f>_xlfn.DAYS(A4,B4)</f>
         <v>8</v>
       </c>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
     </row>
     <row r="5" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
@@ -2907,12 +2907,12 @@
       <c r="C5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
     </row>
     <row r="6" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
@@ -2924,15 +2924,15 @@
       <c r="C6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
     </row>
     <row r="10" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="G10" s="28" t="s">
+      <c r="G10" s="26" t="s">
         <v>135</v>
       </c>
     </row>
@@ -2959,16 +2959,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="44" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2982,14 +2982,14 @@
       <c r="C2" s="1">
         <v>2</v>
       </c>
-      <c r="D2" s="49"/>
-      <c r="F2" s="33" t="s">
+      <c r="D2" s="45"/>
+      <c r="F2" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
     </row>
     <row r="3" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
@@ -3001,12 +3001,12 @@
       <c r="C3" s="1">
         <v>16</v>
       </c>
-      <c r="D3" s="49"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
+      <c r="D3" s="45"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
     </row>
     <row r="4" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
@@ -3018,12 +3018,12 @@
       <c r="C4" s="1">
         <v>11</v>
       </c>
-      <c r="D4" s="49"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
+      <c r="D4" s="45"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
     </row>
     <row r="5" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
@@ -3035,12 +3035,12 @@
       <c r="C5" s="1">
         <v>12</v>
       </c>
-      <c r="D5" s="49"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
+      <c r="D5" s="45"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
     </row>
     <row r="6" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
@@ -3052,19 +3052,19 @@
       <c r="C6" s="1">
         <v>3</v>
       </c>
-      <c r="D6" s="49"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
+      <c r="D6" s="45"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
     </row>
     <row r="7" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3086,16 +3086,16 @@
   <sheetFormatPr defaultColWidth="15.1796875" defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="43" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3109,13 +3109,13 @@
       <c r="C2" s="1">
         <v>0</v>
       </c>
-      <c r="D2" s="50"/>
-      <c r="F2" s="33" t="s">
+      <c r="D2" s="46"/>
+      <c r="F2" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
     </row>
     <row r="3" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
@@ -3127,11 +3127,11 @@
       <c r="C3" s="1">
         <v>0</v>
       </c>
-      <c r="D3" s="50"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
+      <c r="D3" s="46"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
     </row>
     <row r="4" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
@@ -3143,11 +3143,11 @@
       <c r="C4" s="1">
         <v>0</v>
       </c>
-      <c r="D4" s="50"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
+      <c r="D4" s="46"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
     </row>
     <row r="5" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
@@ -3159,7 +3159,7 @@
       <c r="C5" s="1">
         <v>-1</v>
       </c>
-      <c r="D5" s="50"/>
+      <c r="D5" s="46"/>
     </row>
     <row r="6" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
@@ -3171,7 +3171,7 @@
       <c r="C6" s="1">
         <v>1</v>
       </c>
-      <c r="D6" s="50"/>
+      <c r="D6" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3198,20 +3198,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
     </row>
     <row r="2" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="43" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3225,68 +3225,68 @@
       <c r="C3" s="1">
         <v>11</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
     </row>
     <row r="4" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
     </row>
     <row r="5" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="51"/>
-      <c r="C5" s="18" t="s">
+      <c r="B5" s="47"/>
+      <c r="C5" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
     </row>
     <row r="6" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="52"/>
-      <c r="C6" s="18" t="s">
+      <c r="B6" s="48"/>
+      <c r="C6" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
     </row>
     <row r="7" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="52"/>
-      <c r="C7" s="18" t="s">
+      <c r="B7" s="48"/>
+      <c r="C7" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
     </row>
     <row r="8" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="52"/>
-      <c r="C8" s="18" t="s">
+      <c r="B8" s="48"/>
+      <c r="C8" s="16" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3294,8 +3294,8 @@
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="52"/>
-      <c r="C9" s="18" t="s">
+      <c r="B9" s="48"/>
+      <c r="C9" s="16" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3303,8 +3303,8 @@
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="52"/>
-      <c r="C10" s="18" t="s">
+      <c r="B10" s="48"/>
+      <c r="C10" s="16" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3323,8 +3323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{375D116F-A2D1-41D0-B2E1-65A2E296E133}">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3333,35 +3333,35 @@
     <col min="10" max="10" width="14.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="53" t="s">
+    <row r="1" spans="1:13" s="23" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="53" t="s">
+      <c r="E1" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="53" t="s">
+      <c r="F1" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="53" t="s">
+      <c r="G1" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="53" t="s">
+      <c r="H1" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="53" t="s">
+      <c r="I1" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="53" t="s">
+      <c r="J1" s="49" t="s">
         <v>35</v>
       </c>
     </row>
@@ -3390,12 +3390,12 @@
       <c r="H2" s="1">
         <v>10</v>
       </c>
-      <c r="I2" s="54"/>
-      <c r="J2" s="55"/>
-      <c r="L2" s="33" t="s">
+      <c r="I2" s="50"/>
+      <c r="J2" s="51"/>
+      <c r="L2" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="M2" s="33"/>
+      <c r="M2" s="31"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
@@ -3422,10 +3422,10 @@
       <c r="H3" s="1">
         <v>15</v>
       </c>
-      <c r="I3" s="54"/>
-      <c r="J3" s="56"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="52"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
     </row>
     <row r="4" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
@@ -3452,10 +3452,10 @@
       <c r="H4" s="1">
         <v>45</v>
       </c>
-      <c r="I4" s="54"/>
-      <c r="J4" s="56"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="52"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
     </row>
     <row r="5" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
@@ -3482,10 +3482,10 @@
       <c r="H5" s="1">
         <v>34</v>
       </c>
-      <c r="I5" s="54"/>
-      <c r="J5" s="56"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="52"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
     </row>
     <row r="6" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
@@ -3512,10 +3512,10 @@
       <c r="H6" s="1">
         <v>12</v>
       </c>
-      <c r="I6" s="54"/>
-      <c r="J6" s="56"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="52"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
     </row>
     <row r="7" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
@@ -3542,10 +3542,10 @@
       <c r="H7" s="1">
         <v>18</v>
       </c>
-      <c r="I7" s="54"/>
-      <c r="J7" s="56"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="52"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
     </row>
     <row r="8" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
@@ -3572,10 +3572,10 @@
       <c r="H8" s="1">
         <v>20</v>
       </c>
-      <c r="I8" s="54"/>
-      <c r="J8" s="56"/>
-      <c r="L8" s="33"/>
-      <c r="M8" s="33"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="52"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
     </row>
     <row r="9" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
@@ -3602,10 +3602,10 @@
       <c r="H9" s="1">
         <v>35</v>
       </c>
-      <c r="I9" s="54"/>
-      <c r="J9" s="56"/>
-      <c r="L9" s="33"/>
-      <c r="M9" s="33"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="52"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
     </row>
     <row r="10" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
@@ -3632,10 +3632,10 @@
       <c r="H10" s="1">
         <v>55</v>
       </c>
-      <c r="I10" s="54"/>
-      <c r="J10" s="56"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="33"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="52"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
     </row>
     <row r="11" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
@@ -3662,16 +3662,16 @@
       <c r="H11" s="1">
         <v>17</v>
       </c>
-      <c r="I11" s="54"/>
-      <c r="J11" s="56"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="33"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="52"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
     </row>
     <row r="16" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="H16" s="26" t="s">
+      <c r="H16" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="I16" s="26"/>
+      <c r="I16" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3687,43 +3687,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{654B4470-1ABB-4AF7-AEAE-47D0AC98F86D}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.1796875" defaultRowHeight="29.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="22.81640625" customWidth="1"/>
-    <col min="2" max="2" width="15.1796875" customWidth="1"/>
+    <col min="2" max="2" width="17.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
     </row>
     <row r="2" spans="1:9" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="4">
-        <f ca="1">TODAY()</f>
-        <v>45179</v>
-      </c>
+      <c r="B2" s="45"/>
       <c r="C2" s="12"/>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="43" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3731,10 +3730,7 @@
       <c r="A3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="17">
-        <f ca="1">NOW()</f>
-        <v>45179.490358680552</v>
-      </c>
+      <c r="B3" s="53"/>
       <c r="C3" s="9"/>
       <c r="D3" s="1" t="s">
         <v>44</v>
@@ -3742,77 +3738,56 @@
       <c r="E3" s="4">
         <v>44053</v>
       </c>
-      <c r="F3" s="16">
-        <f ca="1">(TODAY()-E3)/365</f>
-        <v>3.0849315068493151</v>
-      </c>
-      <c r="H3" s="33" t="s">
+      <c r="F3" s="56"/>
+      <c r="H3" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="I3" s="33"/>
+      <c r="I3" s="31"/>
     </row>
     <row r="4" spans="1:9" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="4">
-        <f ca="1">TODAY()-1</f>
-        <v>45178</v>
-      </c>
+      <c r="B4" s="45"/>
       <c r="D4" s="1" t="s">
         <v>45</v>
       </c>
       <c r="E4" s="4">
         <v>43355</v>
       </c>
-      <c r="F4" s="16">
-        <f t="shared" ref="F4:F7" ca="1" si="0">(TODAY()-E4)/365</f>
-        <v>4.9972602739726026</v>
-      </c>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
+      <c r="F4" s="56"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
     </row>
     <row r="5" spans="1:9" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="4">
-        <f ca="1">TODAY()+1</f>
-        <v>45180</v>
-      </c>
+      <c r="B5" s="45"/>
       <c r="D5" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E5" s="4">
         <v>43018</v>
       </c>
-      <c r="F5" s="16">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.9205479452054792</v>
-      </c>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
+      <c r="F5" s="56"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
     </row>
     <row r="6" spans="1:9" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="4">
-        <f ca="1">TODAY()+7</f>
-        <v>45186</v>
-      </c>
+      <c r="B6" s="45"/>
       <c r="D6" s="1" t="s">
         <v>47</v>
       </c>
       <c r="E6" s="4">
         <v>42043</v>
       </c>
-      <c r="F6" s="16">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.5917808219178085</v>
-      </c>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
+      <c r="F6" s="56"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
     </row>
     <row r="7" spans="1:9" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D7" s="1" t="s">
@@ -3821,30 +3796,27 @@
       <c r="E7" s="4">
         <v>42402</v>
       </c>
-      <c r="F7" s="16">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.6082191780821917</v>
-      </c>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
+      <c r="F7" s="56"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
     </row>
     <row r="8" spans="1:9" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
     </row>
     <row r="9" spans="1:9" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F9" s="27" t="s">
+      <c r="F9" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="G9" s="27" t="s">
+      <c r="G9" s="25" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F10" s="27" t="s">
+      <c r="F10" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="G10" s="27" t="s">
+      <c r="G10" s="25" t="s">
         <v>125</v>
       </c>
     </row>
@@ -3862,113 +3834,115 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="E3:N10"/>
+  <dimension ref="D3:M10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="3" spans="5:14" x14ac:dyDescent="0.35">
-      <c r="E3" s="32" t="s">
+    <row r="3" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D3" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-    </row>
-    <row r="4" spans="5:14" x14ac:dyDescent="0.35">
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-    </row>
-    <row r="5" spans="5:14" x14ac:dyDescent="0.35">
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32"/>
-    </row>
-    <row r="6" spans="5:14" x14ac:dyDescent="0.35">
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="32"/>
-    </row>
-    <row r="7" spans="5:14" x14ac:dyDescent="0.35">
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="32"/>
-    </row>
-    <row r="8" spans="5:14" x14ac:dyDescent="0.35">
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="32"/>
-    </row>
-    <row r="9" spans="5:14" x14ac:dyDescent="0.35">
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="32"/>
-    </row>
-    <row r="10" spans="5:14" x14ac:dyDescent="0.35">
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="32"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+    </row>
+    <row r="4" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+    </row>
+    <row r="5" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+    </row>
+    <row r="6" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+    </row>
+    <row r="7" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+    </row>
+    <row r="8" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+    </row>
+    <row r="9" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+    </row>
+    <row r="10" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E3:N10"/>
+    <mergeCell ref="D3:M10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4016,16 +3990,16 @@
         <f>YEAR(A2)</f>
         <v>2019</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
         <f ca="1">NOW()</f>
-        <v>45179.490358680552</v>
+        <v>45179.495920023146</v>
       </c>
       <c r="B3" s="1">
         <f t="shared" ref="B3" ca="1" si="0">DAY(A3)</f>
@@ -4039,9 +4013,9 @@
         <f t="shared" ref="D3" ca="1" si="2">YEAR(A3)</f>
         <v>2023</v>
       </c>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
     </row>
     <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
@@ -4059,9 +4033,9 @@
         <f>YEAR(A4)</f>
         <v>2017</v>
       </c>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
     </row>
     <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
@@ -4115,17 +4089,17 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F10" s="28" t="s">
+      <c r="F10" s="26" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F11" s="28" t="s">
+      <c r="F11" s="26" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F12" s="28" t="s">
+      <c r="F12" s="26" t="s">
         <v>128</v>
       </c>
     </row>
@@ -4173,16 +4147,16 @@
         <f>WEEKNUM(B2)</f>
         <v>1</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
     </row>
     <row r="3" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
@@ -4195,14 +4169,14 @@
         <f t="shared" ref="C3" si="0">WEEKNUM(B3)</f>
         <v>2</v>
       </c>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
     </row>
     <row r="4" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
@@ -4215,14 +4189,14 @@
         <f>WEEKNUM(B4)</f>
         <v>35</v>
       </c>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
     </row>
     <row r="5" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
@@ -4235,14 +4209,14 @@
         <f>WEEKNUM(B5)</f>
         <v>36</v>
       </c>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
     </row>
     <row r="6" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
@@ -4254,7 +4228,7 @@
       <c r="C6" s="1"/>
     </row>
     <row r="9" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="H9" s="28" t="s">
+      <c r="H9" s="26" t="s">
         <v>129</v>
       </c>
     </row>

--- a/Date_time_functions/Date_and_Time_InClass.xlsx
+++ b/Date_time_functions/Date_and_Time_InClass.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\MexEE402_ExcelExcercises\Date_time_functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E90F8B1-1E88-493A-AF17-8D4F08B9985A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E1649AB-BE69-44C9-A8E1-DD03616439F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="11160" tabRatio="988" activeTab="6" xr2:uid="{A6137C47-DE02-48C6-8473-5C1EB30628DD}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="11160" tabRatio="988" activeTab="7" xr2:uid="{A6137C47-DE02-48C6-8473-5C1EB30628DD}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hour_Min_sec" sheetId="8" r:id="rId1"/>
-    <sheet name="Date" sheetId="1" r:id="rId2"/>
-    <sheet name="Time" sheetId="2" r:id="rId3"/>
-    <sheet name="Datevalue" sheetId="3" r:id="rId4"/>
-    <sheet name="Timevalue" sheetId="4" r:id="rId5"/>
-    <sheet name="Now &amp; Today" sheetId="5" r:id="rId6"/>
-    <sheet name="Serial Number" sheetId="21" r:id="rId7"/>
+    <sheet name="Date" sheetId="1" r:id="rId1"/>
+    <sheet name="Time" sheetId="2" r:id="rId2"/>
+    <sheet name="Datevalue" sheetId="3" r:id="rId3"/>
+    <sheet name="Timevalue" sheetId="4" r:id="rId4"/>
+    <sheet name="Now &amp; Today" sheetId="5" r:id="rId5"/>
+    <sheet name="Serial Number" sheetId="21" r:id="rId6"/>
+    <sheet name="Hour_Min_sec" sheetId="8" r:id="rId7"/>
     <sheet name="Day_Month_Year" sheetId="9" r:id="rId8"/>
     <sheet name="Weeknum" sheetId="10" r:id="rId9"/>
     <sheet name="Weekday" sheetId="13" r:id="rId10"/>
@@ -1751,162 +1751,132 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49F9B7FA-D6F8-4003-A416-AFBB4B7BA8C8}">
-  <dimension ref="A1:I14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60731025-88A1-4F03-9758-A1EC0BD1E50E}">
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.54296875" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="13.81640625" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.6328125" customWidth="1"/>
-    <col min="2" max="3" width="16.54296875" customWidth="1"/>
-    <col min="5" max="5" width="8.453125" customWidth="1"/>
+    <col min="4" max="4" width="16.36328125" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
-        <v>140</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-    </row>
-    <row r="2" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="43" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="43" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="43" t="s">
-        <v>54</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-    </row>
-    <row r="3" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-    </row>
-    <row r="4" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-    </row>
-    <row r="5" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="F6" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-    </row>
-    <row r="7" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-    </row>
-    <row r="8" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-    </row>
-    <row r="9" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="11"/>
-      <c r="F10" s="30" t="s">
-        <v>114</v>
-      </c>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-    </row>
-    <row r="11" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C11" s="11"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-    </row>
-    <row r="12" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-    </row>
-    <row r="13" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="G13" s="8"/>
-    </row>
-    <row r="14" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="H14" s="8"/>
+    <row r="1" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="44" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>1994</v>
+      </c>
+      <c r="B2" s="1">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2</v>
+      </c>
+      <c r="D2" s="45"/>
+      <c r="F2" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+    </row>
+    <row r="3" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>1987</v>
+      </c>
+      <c r="B3" s="1">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1">
+        <v>16</v>
+      </c>
+      <c r="D3" s="45"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+    </row>
+    <row r="4" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>1986</v>
+      </c>
+      <c r="B4" s="1">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1">
+        <v>11</v>
+      </c>
+      <c r="D4" s="45"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+    </row>
+    <row r="5" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>1976</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>12</v>
+      </c>
+      <c r="D5" s="45"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+    </row>
+    <row r="6" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>1940</v>
+      </c>
+      <c r="B6" s="1">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" s="45"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+    </row>
+    <row r="7" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F2:I4"/>
-    <mergeCell ref="F6:I8"/>
-    <mergeCell ref="F10:I12"/>
+  <mergeCells count="1">
+    <mergeCell ref="F2:J7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2946,136 +2916,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60731025-88A1-4F03-9758-A1EC0BD1E50E}">
-  <dimension ref="A1:J7"/>
-  <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="13.81640625" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="4" max="4" width="16.36328125" style="5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="44" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>1994</v>
-      </c>
-      <c r="B2" s="1">
-        <v>12</v>
-      </c>
-      <c r="C2" s="1">
-        <v>2</v>
-      </c>
-      <c r="D2" s="45"/>
-      <c r="F2" s="31" t="s">
-        <v>107</v>
-      </c>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-    </row>
-    <row r="3" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>1987</v>
-      </c>
-      <c r="B3" s="1">
-        <v>11</v>
-      </c>
-      <c r="C3" s="1">
-        <v>16</v>
-      </c>
-      <c r="D3" s="45"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-    </row>
-    <row r="4" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>1986</v>
-      </c>
-      <c r="B4" s="1">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1">
-        <v>11</v>
-      </c>
-      <c r="D4" s="45"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-    </row>
-    <row r="5" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>1976</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1">
-        <v>12</v>
-      </c>
-      <c r="D5" s="45"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-    </row>
-    <row r="6" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
-        <v>1940</v>
-      </c>
-      <c r="B6" s="1">
-        <v>9</v>
-      </c>
-      <c r="C6" s="1">
-        <v>3</v>
-      </c>
-      <c r="D6" s="45"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-    </row>
-    <row r="7" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="F2:J7"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D28EE48-3E28-4466-AD65-D8A34CB99B79}">
   <dimension ref="A1:I6"/>
   <sheetViews>
@@ -3182,7 +3022,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5E0EEBD-7CED-4F85-A814-0292C94AC54D}">
   <dimension ref="A1:G10"/>
   <sheetViews>
@@ -3319,7 +3159,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{375D116F-A2D1-41D0-B2E1-65A2E296E133}">
   <dimension ref="A1:M16"/>
   <sheetViews>
@@ -3683,7 +3523,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{654B4470-1ABB-4AF7-AEAE-47D0AC98F86D}">
   <dimension ref="A1:I10"/>
   <sheetViews>
@@ -3829,14 +3669,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D2E2B02-7DE1-4312-824A-451BA76A9CA0}">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
   <dimension ref="D3:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
@@ -3948,11 +3788,173 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49F9B7FA-D6F8-4003-A416-AFBB4B7BA8C8}">
+  <dimension ref="A1:I14"/>
+  <sheetViews>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.54296875" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="23.6328125" customWidth="1"/>
+    <col min="2" max="3" width="16.54296875" customWidth="1"/>
+    <col min="5" max="5" width="8.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+    </row>
+    <row r="2" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+    </row>
+    <row r="3" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+    </row>
+    <row r="4" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+    </row>
+    <row r="5" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="F6" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+    </row>
+    <row r="7" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+    </row>
+    <row r="8" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+    </row>
+    <row r="9" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C10" s="11"/>
+      <c r="F10" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+    </row>
+    <row r="11" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C11" s="11"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+    </row>
+    <row r="12" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+    </row>
+    <row r="13" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H14" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F2:I4"/>
+    <mergeCell ref="F6:I8"/>
+    <mergeCell ref="F10:I12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FEA91ED-DE3C-43D2-AF8B-27B475B13A63}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.81640625" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
@@ -3961,16 +3963,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="43" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3978,18 +3980,9 @@
       <c r="A2" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="1">
-        <f>DAY(A2)</f>
-        <v>10</v>
-      </c>
-      <c r="C2" s="1">
-        <f>MONTH(A2)</f>
-        <v>12</v>
-      </c>
-      <c r="D2" s="1">
-        <f>YEAR(A2)</f>
-        <v>2019</v>
-      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
       <c r="F2" s="30" t="s">
         <v>115</v>
       </c>
@@ -3999,20 +3992,11 @@
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
         <f ca="1">NOW()</f>
-        <v>45179.495920023146</v>
-      </c>
-      <c r="B3" s="1">
-        <f t="shared" ref="B3" ca="1" si="0">DAY(A3)</f>
-        <v>10</v>
-      </c>
-      <c r="C3" s="1">
-        <f t="shared" ref="C3" ca="1" si="1">MONTH(A3)</f>
-        <v>9</v>
-      </c>
-      <c r="D3" s="1">
-        <f t="shared" ref="D3" ca="1" si="2">YEAR(A3)</f>
-        <v>2023</v>
-      </c>
+        <v>45179.49839803241</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
       <c r="F3" s="30"/>
       <c r="G3" s="30"/>
       <c r="H3" s="30"/>
@@ -4021,18 +4005,9 @@
       <c r="A4" s="6">
         <v>42768</v>
       </c>
-      <c r="B4" s="1">
-        <f>DAY(A4)</f>
-        <v>2</v>
-      </c>
-      <c r="C4" s="1">
-        <f>MONTH(A4)</f>
-        <v>2</v>
-      </c>
-      <c r="D4" s="1">
-        <f>YEAR(A4)</f>
-        <v>2017</v>
-      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
       <c r="F4" s="30"/>
       <c r="G4" s="30"/>
       <c r="H4" s="30"/>
@@ -4041,52 +4016,25 @@
       <c r="A5" s="4">
         <v>43152</v>
       </c>
-      <c r="B5" s="1">
-        <f t="shared" ref="B5:B7" si="3">DAY(A5)</f>
-        <v>21</v>
-      </c>
-      <c r="C5" s="1">
-        <f t="shared" ref="C5:C7" si="4">MONTH(A5)</f>
-        <v>2</v>
-      </c>
-      <c r="D5" s="1">
-        <f t="shared" ref="D5:D7" si="5">YEAR(A5)</f>
-        <v>2018</v>
-      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>27771</v>
       </c>
-      <c r="B6" s="1">
-        <f t="shared" si="3"/>
-        <v>12</v>
-      </c>
-      <c r="C6" s="1">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="D6" s="1">
-        <f t="shared" si="5"/>
-        <v>1976</v>
-      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>32882</v>
       </c>
-      <c r="B7" s="1">
-        <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="C7" s="1">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="D7" s="1">
-        <f t="shared" si="5"/>
-        <v>1990</v>
-      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
     </row>
     <row r="10" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F10" s="26" t="s">

--- a/Date_time_functions/Date_and_Time_InClass.xlsx
+++ b/Date_time_functions/Date_and_Time_InClass.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\MexEE402_ExcelExcercises\Date_time_functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E1649AB-BE69-44C9-A8E1-DD03616439F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E32AE28-02FB-42C3-834E-A3DE87F24100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="11160" tabRatio="988" activeTab="7" xr2:uid="{A6137C47-DE02-48C6-8473-5C1EB30628DD}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="11160" tabRatio="988" firstSheet="4" activeTab="8" xr2:uid="{A6137C47-DE02-48C6-8473-5C1EB30628DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Date" sheetId="1" r:id="rId1"/>
@@ -1086,7 +1086,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1156,6 +1156,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1290,7 +1296,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1359,15 +1365,55 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1398,44 +1444,10 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="21" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1764,16 +1776,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="31" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1787,14 +1799,14 @@
       <c r="C2" s="1">
         <v>2</v>
       </c>
-      <c r="D2" s="45"/>
-      <c r="F2" s="31" t="s">
+      <c r="D2" s="32"/>
+      <c r="F2" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
     </row>
     <row r="3" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
@@ -1806,12 +1818,12 @@
       <c r="C3" s="1">
         <v>16</v>
       </c>
-      <c r="D3" s="45"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
+      <c r="D3" s="32"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
     </row>
     <row r="4" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
@@ -1823,12 +1835,12 @@
       <c r="C4" s="1">
         <v>11</v>
       </c>
-      <c r="D4" s="45"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
+      <c r="D4" s="32"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
     </row>
     <row r="5" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
@@ -1840,12 +1852,12 @@
       <c r="C5" s="1">
         <v>12</v>
       </c>
-      <c r="D5" s="45"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
+      <c r="D5" s="32"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
     </row>
     <row r="6" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
@@ -1857,19 +1869,19 @@
       <c r="C6" s="1">
         <v>3</v>
       </c>
-      <c r="D6" s="45"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
+      <c r="D6" s="32"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
     </row>
     <row r="7" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2047,33 +2059,33 @@
     <row r="8" spans="1:7" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="12"/>
       <c r="B8" s="5"/>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
     </row>
     <row r="9" spans="1:7" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C9" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
     </row>
     <row r="10" spans="1:7" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
     </row>
     <row r="11" spans="1:7" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2100,30 +2112,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="59.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="35"/>
-      <c r="F1" s="30" t="s">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="49"/>
+      <c r="F1" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
     </row>
     <row r="2" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="50" t="s">
         <v>137</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="38"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="52"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
     </row>
     <row r="3" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
@@ -2139,10 +2151,10 @@
         <v>87</v>
       </c>
       <c r="E3" s="17"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
     </row>
     <row r="4" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
@@ -2159,10 +2171,10 @@
         <f>EDATE(B4,3)</f>
         <v>43961</v>
       </c>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
     </row>
     <row r="5" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
@@ -2194,10 +2206,10 @@
         <v>43936</v>
       </c>
       <c r="D6" s="13"/>
-      <c r="F6" s="30" t="s">
+      <c r="F6" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="G6" s="30"/>
+      <c r="G6" s="46"/>
     </row>
     <row r="7" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
@@ -2304,14 +2316,14 @@
         <f>EOMONTH(A2,1)</f>
         <v>44074</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
     </row>
     <row r="3" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
@@ -2321,12 +2333,12 @@
         <f>EOMONTH(A3,2)</f>
         <v>43982</v>
       </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
     </row>
     <row r="4" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
@@ -2336,12 +2348,12 @@
         <f>EOMONTH(A4,1)</f>
         <v>43921</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
     </row>
     <row r="5" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
@@ -2420,7 +2432,7 @@
       <c r="D2" s="18">
         <v>44051</v>
       </c>
-      <c r="E2" s="39">
+      <c r="E2" s="53">
         <f>WORKDAY(B2,C2,D2:D3)</f>
         <v>44055</v>
       </c>
@@ -2432,14 +2444,14 @@
       <c r="D3" s="18">
         <v>44052</v>
       </c>
-      <c r="E3" s="40"/>
-      <c r="G3" s="30" t="s">
+      <c r="E3" s="54"/>
+      <c r="G3" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
     </row>
     <row r="4" spans="1:11" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
@@ -2454,15 +2466,15 @@
       <c r="D4" s="19">
         <v>44051</v>
       </c>
-      <c r="E4" s="39">
+      <c r="E4" s="53">
         <f>WORKDAY(B4,C4,D4:D5)</f>
         <v>44055</v>
       </c>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
     </row>
     <row r="5" spans="1:11" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="15"/>
@@ -2471,12 +2483,12 @@
       <c r="D5" s="19">
         <v>44052</v>
       </c>
-      <c r="E5" s="40"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
+      <c r="E5" s="54"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
     </row>
     <row r="6" spans="1:11" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="15" t="s">
@@ -2491,15 +2503,15 @@
       <c r="D6" s="21">
         <v>44051</v>
       </c>
-      <c r="E6" s="39">
+      <c r="E6" s="53">
         <f>WORKDAY(B6,C6,D6:D7)</f>
         <v>44056</v>
       </c>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
     </row>
     <row r="7" spans="1:11" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="15"/>
@@ -2508,12 +2520,12 @@
       <c r="D7" s="21">
         <v>44052</v>
       </c>
-      <c r="E7" s="40"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
+      <c r="E7" s="54"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
     </row>
     <row r="8" spans="1:11" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="15" t="s">
@@ -2528,7 +2540,7 @@
       <c r="D8" s="20">
         <v>44044</v>
       </c>
-      <c r="E8" s="39" t="s">
+      <c r="E8" s="53" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2539,7 +2551,7 @@
       <c r="D9" s="20">
         <v>44045</v>
       </c>
-      <c r="E9" s="40"/>
+      <c r="E9" s="54"/>
     </row>
     <row r="10" spans="1:11" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="15" t="s">
@@ -2554,7 +2566,7 @@
       <c r="D10" s="22">
         <v>44030</v>
       </c>
-      <c r="E10" s="39" t="s">
+      <c r="E10" s="53" t="s">
         <v>36</v>
       </c>
       <c r="H10" s="26" t="s">
@@ -2569,7 +2581,7 @@
       <c r="D11" s="22">
         <v>44031</v>
       </c>
-      <c r="E11" s="40"/>
+      <c r="E11" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2635,16 +2647,16 @@
       <c r="D2" s="4">
         <v>44053</v>
       </c>
-      <c r="E2" s="39">
+      <c r="E2" s="53">
         <f>WORKDAY.INTL(B2,C2,1,D2:D3)</f>
         <v>44063</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="G2" s="46" t="s">
         <v>138</v>
       </c>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
     </row>
     <row r="3" spans="1:10" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15"/>
@@ -2653,11 +2665,11 @@
       <c r="D3" s="4">
         <v>44049</v>
       </c>
-      <c r="E3" s="40"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
+      <c r="E3" s="54"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
     </row>
     <row r="4" spans="1:10" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
@@ -2672,14 +2684,14 @@
       <c r="D4" s="4">
         <v>44053</v>
       </c>
-      <c r="E4" s="41">
+      <c r="E4" s="55">
         <f>WORKDAY.INTL(B4,C4,1,D4:D5)</f>
         <v>44057</v>
       </c>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
     </row>
     <row r="5" spans="1:10" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="15"/>
@@ -2688,11 +2700,11 @@
       <c r="D5" s="4">
         <v>44049</v>
       </c>
-      <c r="E5" s="42"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
+      <c r="E5" s="56"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
     </row>
     <row r="6" spans="1:10" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="15" t="s">
@@ -2705,21 +2717,21 @@
         <v>4</v>
       </c>
       <c r="D6" s="4"/>
-      <c r="E6" s="39">
+      <c r="E6" s="53">
         <f>WORKDAY.INTL(B6,C6,7)</f>
         <v>44055</v>
       </c>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
     </row>
     <row r="7" spans="1:10" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="15"/>
       <c r="B7" s="4"/>
       <c r="C7" s="1"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="40"/>
+      <c r="E7" s="54"/>
     </row>
     <row r="8" spans="1:10" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="15" t="s">
@@ -2734,7 +2746,7 @@
       <c r="D8" s="4">
         <v>44046</v>
       </c>
-      <c r="E8" s="39" t="s">
+      <c r="E8" s="53" t="s">
         <v>36</v>
       </c>
       <c r="H8" s="26" t="s">
@@ -2748,7 +2760,7 @@
       <c r="D9" s="4">
         <v>44047</v>
       </c>
-      <c r="E9" s="40"/>
+      <c r="E9" s="54"/>
     </row>
     <row r="10" spans="1:10" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="15" t="s">
@@ -2763,7 +2775,7 @@
       <c r="D10" s="4">
         <v>44024</v>
       </c>
-      <c r="E10" s="39" t="s">
+      <c r="E10" s="53" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2774,7 +2786,7 @@
       <c r="D11" s="4">
         <v>44025</v>
       </c>
-      <c r="E11" s="40"/>
+      <c r="E11" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2822,14 +2834,14 @@
         <f>_xlfn.DAYS(A2,B2)</f>
         <v>147</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="46" t="s">
         <v>139</v>
       </c>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
     </row>
     <row r="3" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
@@ -2842,12 +2854,12 @@
         <f>_xlfn.DAYS(A3,B3)</f>
         <v>965</v>
       </c>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
     </row>
     <row r="4" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
@@ -2860,12 +2872,12 @@
         <f>_xlfn.DAYS(A4,B4)</f>
         <v>8</v>
       </c>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
     </row>
     <row r="5" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
@@ -2877,12 +2889,12 @@
       <c r="C5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
     </row>
     <row r="6" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
@@ -2894,12 +2906,12 @@
       <c r="C6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
     </row>
     <row r="10" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G10" s="26" t="s">
@@ -2926,16 +2938,16 @@
   <sheetFormatPr defaultColWidth="15.1796875" defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="30" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2949,13 +2961,13 @@
       <c r="C2" s="1">
         <v>0</v>
       </c>
-      <c r="D2" s="46"/>
-      <c r="F2" s="31" t="s">
+      <c r="D2" s="33"/>
+      <c r="F2" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
     </row>
     <row r="3" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
@@ -2967,11 +2979,11 @@
       <c r="C3" s="1">
         <v>0</v>
       </c>
-      <c r="D3" s="46"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
+      <c r="D3" s="33"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
     </row>
     <row r="4" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
@@ -2983,11 +2995,11 @@
       <c r="C4" s="1">
         <v>0</v>
       </c>
-      <c r="D4" s="46"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
+      <c r="D4" s="33"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
     </row>
     <row r="5" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
@@ -2999,7 +3011,7 @@
       <c r="C5" s="1">
         <v>-1</v>
       </c>
-      <c r="D5" s="46"/>
+      <c r="D5" s="33"/>
     </row>
     <row r="6" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
@@ -3011,7 +3023,7 @@
       <c r="C6" s="1">
         <v>1</v>
       </c>
-      <c r="D6" s="46"/>
+      <c r="D6" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3038,20 +3050,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
     </row>
     <row r="2" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="30" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3065,67 +3077,67 @@
       <c r="C3" s="1">
         <v>11</v>
       </c>
-      <c r="E3" s="31" t="s">
+      <c r="E3" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
     </row>
     <row r="4" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
     </row>
     <row r="5" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="47"/>
+      <c r="B5" s="34"/>
       <c r="C5" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
     </row>
     <row r="6" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="48"/>
+      <c r="B6" s="35"/>
       <c r="C6" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
     </row>
     <row r="7" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="48"/>
+      <c r="B7" s="35"/>
       <c r="C7" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
     </row>
     <row r="8" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="48"/>
+      <c r="B8" s="35"/>
       <c r="C8" s="16" t="s">
         <v>72</v>
       </c>
@@ -3134,7 +3146,7 @@
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="48"/>
+      <c r="B9" s="35"/>
       <c r="C9" s="16" t="s">
         <v>72</v>
       </c>
@@ -3143,7 +3155,7 @@
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="48"/>
+      <c r="B10" s="35"/>
       <c r="C10" s="16" t="s">
         <v>72</v>
       </c>
@@ -3174,34 +3186,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="23" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="F1" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="G1" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="49" t="s">
+      <c r="H1" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="49" t="s">
+      <c r="I1" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="49" t="s">
+      <c r="J1" s="36" t="s">
         <v>35</v>
       </c>
     </row>
@@ -3230,12 +3242,12 @@
       <c r="H2" s="1">
         <v>10</v>
       </c>
-      <c r="I2" s="50"/>
-      <c r="J2" s="51"/>
-      <c r="L2" s="31" t="s">
+      <c r="I2" s="37"/>
+      <c r="J2" s="38"/>
+      <c r="L2" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="M2" s="31"/>
+      <c r="M2" s="42"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
@@ -3262,10 +3274,10 @@
       <c r="H3" s="1">
         <v>15</v>
       </c>
-      <c r="I3" s="50"/>
-      <c r="J3" s="52"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="39"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
     </row>
     <row r="4" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
@@ -3292,10 +3304,10 @@
       <c r="H4" s="1">
         <v>45</v>
       </c>
-      <c r="I4" s="50"/>
-      <c r="J4" s="52"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="39"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
     </row>
     <row r="5" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
@@ -3322,10 +3334,10 @@
       <c r="H5" s="1">
         <v>34</v>
       </c>
-      <c r="I5" s="50"/>
-      <c r="J5" s="52"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="39"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
     </row>
     <row r="6" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
@@ -3352,10 +3364,10 @@
       <c r="H6" s="1">
         <v>12</v>
       </c>
-      <c r="I6" s="50"/>
-      <c r="J6" s="52"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="39"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
     </row>
     <row r="7" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
@@ -3382,10 +3394,10 @@
       <c r="H7" s="1">
         <v>18</v>
       </c>
-      <c r="I7" s="50"/>
-      <c r="J7" s="52"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="39"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
     </row>
     <row r="8" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
@@ -3412,10 +3424,10 @@
       <c r="H8" s="1">
         <v>20</v>
       </c>
-      <c r="I8" s="50"/>
-      <c r="J8" s="52"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="39"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
     </row>
     <row r="9" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
@@ -3442,10 +3454,10 @@
       <c r="H9" s="1">
         <v>35</v>
       </c>
-      <c r="I9" s="50"/>
-      <c r="J9" s="52"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="39"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
     </row>
     <row r="10" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
@@ -3472,10 +3484,10 @@
       <c r="H10" s="1">
         <v>55</v>
       </c>
-      <c r="I10" s="50"/>
-      <c r="J10" s="52"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="39"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
     </row>
     <row r="11" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
@@ -3502,10 +3514,10 @@
       <c r="H11" s="1">
         <v>17</v>
       </c>
-      <c r="I11" s="50"/>
-      <c r="J11" s="52"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="39"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="42"/>
     </row>
     <row r="16" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H16" s="24" t="s">
@@ -3538,31 +3550,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="D1" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
     </row>
     <row r="2" spans="1:9" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="45"/>
+      <c r="B2" s="32"/>
       <c r="C2" s="12"/>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="E2" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="30" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3570,7 +3582,7 @@
       <c r="A3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="53"/>
+      <c r="B3" s="40"/>
       <c r="C3" s="9"/>
       <c r="D3" s="1" t="s">
         <v>44</v>
@@ -3578,56 +3590,56 @@
       <c r="E3" s="4">
         <v>44053</v>
       </c>
-      <c r="F3" s="56"/>
-      <c r="H3" s="31" t="s">
+      <c r="F3" s="41"/>
+      <c r="H3" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="I3" s="31"/>
+      <c r="I3" s="42"/>
     </row>
     <row r="4" spans="1:9" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="45"/>
+      <c r="B4" s="32"/>
       <c r="D4" s="1" t="s">
         <v>45</v>
       </c>
       <c r="E4" s="4">
         <v>43355</v>
       </c>
-      <c r="F4" s="56"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
+      <c r="F4" s="41"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
     </row>
     <row r="5" spans="1:9" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="45"/>
+      <c r="B5" s="32"/>
       <c r="D5" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E5" s="4">
         <v>43018</v>
       </c>
-      <c r="F5" s="56"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
+      <c r="F5" s="41"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
     </row>
     <row r="6" spans="1:9" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="45"/>
+      <c r="B6" s="32"/>
       <c r="D6" s="1" t="s">
         <v>47</v>
       </c>
       <c r="E6" s="4">
         <v>42043</v>
       </c>
-      <c r="F6" s="56"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
+      <c r="F6" s="41"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
     </row>
     <row r="7" spans="1:9" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D7" s="1" t="s">
@@ -3636,13 +3648,13 @@
       <c r="E7" s="4">
         <v>42402</v>
       </c>
-      <c r="F7" s="56"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
+      <c r="F7" s="41"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
     </row>
     <row r="8" spans="1:9" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
     </row>
     <row r="9" spans="1:9" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F9" s="25" t="s">
@@ -3683,102 +3695,102 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="3" spans="4:13" x14ac:dyDescent="0.35">
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="46" t="s">
         <v>116</v>
       </c>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
     </row>
     <row r="4" spans="4:13" x14ac:dyDescent="0.35">
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
     </row>
     <row r="5" spans="4:13" x14ac:dyDescent="0.35">
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="46"/>
     </row>
     <row r="6" spans="4:13" x14ac:dyDescent="0.35">
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
     </row>
     <row r="7" spans="4:13" x14ac:dyDescent="0.35">
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="46"/>
     </row>
     <row r="8" spans="4:13" x14ac:dyDescent="0.35">
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="46"/>
     </row>
     <row r="9" spans="4:13" x14ac:dyDescent="0.35">
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="46"/>
     </row>
     <row r="10" spans="4:13" x14ac:dyDescent="0.35">
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3804,32 +3816,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
     </row>
     <row r="2" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="46" t="s">
         <v>112</v>
       </c>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
     </row>
     <row r="3" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
@@ -3838,10 +3850,10 @@
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
     </row>
     <row r="4" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
@@ -3850,10 +3862,10 @@
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
     </row>
     <row r="5" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
@@ -3870,12 +3882,12 @@
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="F6" s="30" t="s">
+      <c r="F6" s="46" t="s">
         <v>113</v>
       </c>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
     </row>
     <row r="7" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
@@ -3884,10 +3896,10 @@
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
     </row>
     <row r="8" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
@@ -3896,10 +3908,10 @@
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
     </row>
     <row r="9" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
@@ -3911,25 +3923,25 @@
     </row>
     <row r="10" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C10" s="11"/>
-      <c r="F10" s="30" t="s">
+      <c r="F10" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
     </row>
     <row r="11" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C11" s="11"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
     </row>
     <row r="12" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
     </row>
     <row r="13" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G13" s="8"/>
@@ -3952,7 +3964,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FEA91ED-DE3C-43D2-AF8B-27B475B13A63}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:D7"/>
     </sheetView>
   </sheetViews>
@@ -3963,16 +3975,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="30" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3983,23 +3995,23 @@
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
         <f ca="1">NOW()</f>
-        <v>45179.49839803241</v>
+        <v>45179.743803356483</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
     </row>
     <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
@@ -4008,9 +4020,9 @@
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
     </row>
     <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
@@ -4063,8 +4075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B431C455-3A26-459E-AA73-BF5069C861FB}">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4074,13 +4086,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="57" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="57" t="s">
         <v>66</v>
       </c>
     </row>
@@ -4091,20 +4103,17 @@
       <c r="B2" s="4">
         <v>43831</v>
       </c>
-      <c r="C2" s="1">
-        <f>WEEKNUM(B2)</f>
-        <v>1</v>
-      </c>
-      <c r="E2" s="30" t="s">
+      <c r="C2" s="58"/>
+      <c r="E2" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
     </row>
     <row r="3" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
@@ -4113,18 +4122,15 @@
       <c r="B3" s="4">
         <v>43837</v>
       </c>
-      <c r="C3" s="1">
-        <f t="shared" ref="C3" si="0">WEEKNUM(B3)</f>
-        <v>2</v>
-      </c>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
+      <c r="C3" s="58"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
     </row>
     <row r="4" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
@@ -4133,18 +4139,15 @@
       <c r="B4" s="4">
         <v>44068</v>
       </c>
-      <c r="C4" s="1">
-        <f>WEEKNUM(B4)</f>
-        <v>35</v>
-      </c>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
+      <c r="C4" s="58"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
     </row>
     <row r="5" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
@@ -4153,18 +4156,15 @@
       <c r="B5" s="4">
         <v>44074</v>
       </c>
-      <c r="C5" s="1">
-        <f>WEEKNUM(B5)</f>
-        <v>36</v>
-      </c>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
+      <c r="C5" s="58"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
     </row>
     <row r="6" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
@@ -4173,7 +4173,7 @@
       <c r="B6" s="4">
         <v>44046</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6" s="58"/>
     </row>
     <row r="9" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H9" s="26" t="s">
@@ -4201,15 +4201,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A740584D75509F4F816ECA19663AA050" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2c4fec7a5ecf2686ff0e7fa8e74d8f92">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a9454a14-a1be-4dae-96dd-930f17aa1325" xmlns:ns3="1670c0fe-6d31-4556-b86f-9e87b6880aec" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6f7e007abd3148683626701b1277c03d" ns2:_="" ns3:_="">
     <xsd:import namespace="a9454a14-a1be-4dae-96dd-930f17aa1325"/>
@@ -4452,6 +4443,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71BC860C-AA40-4CA3-9074-2EA8ABC54426}">
   <ds:schemaRefs>
@@ -4464,14 +4464,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FB83BE2-BC13-46AD-B889-B1608B0310FB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A0CF385-FD32-4537-8781-2D1FBAB4C748}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4488,4 +4480,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FB83BE2-BC13-46AD-B889-B1608B0310FB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Date_time_functions/Date_and_Time_InClass.xlsx
+++ b/Date_time_functions/Date_and_Time_InClass.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\MexEE402_ExcelExcercises\Date_time_functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E32AE28-02FB-42C3-834E-A3DE87F24100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E805F49-5378-4E74-B135-6F49B7514FB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="11160" tabRatio="988" firstSheet="4" activeTab="8" xr2:uid="{A6137C47-DE02-48C6-8473-5C1EB30628DD}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="11160" tabRatio="988" firstSheet="4" activeTab="9" xr2:uid="{A6137C47-DE02-48C6-8473-5C1EB30628DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Date" sheetId="1" r:id="rId1"/>
@@ -298,7 +298,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="141">
   <si>
     <t>Year</t>
   </si>
@@ -1304,9 +1304,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1448,6 +1445,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1772,20 +1772,20 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.81640625" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="16.36328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.36328125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="30" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1799,14 +1799,14 @@
       <c r="C2" s="1">
         <v>2</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="F2" s="42" t="s">
+      <c r="D2" s="31"/>
+      <c r="F2" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
     </row>
     <row r="3" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
@@ -1818,12 +1818,12 @@
       <c r="C3" s="1">
         <v>16</v>
       </c>
-      <c r="D3" s="32"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
+      <c r="D3" s="31"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
     </row>
     <row r="4" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
@@ -1835,12 +1835,12 @@
       <c r="C4" s="1">
         <v>11</v>
       </c>
-      <c r="D4" s="32"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
+      <c r="D4" s="31"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
     </row>
     <row r="5" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
@@ -1852,12 +1852,12 @@
       <c r="C5" s="1">
         <v>12</v>
       </c>
-      <c r="D5" s="32"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
+      <c r="D5" s="31"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
     </row>
     <row r="6" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
@@ -1869,19 +1869,19 @@
       <c r="C6" s="1">
         <v>3</v>
       </c>
-      <c r="D6" s="32"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
+      <c r="D6" s="31"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
     </row>
     <row r="7" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1896,8 +1896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60A01787-94D0-47F2-852E-F6AD7B2B2DE1}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.36328125" defaultRowHeight="23.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1912,180 +1912,139 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="56" t="s">
         <v>80</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="58" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>44060</v>
       </c>
-      <c r="B2" s="1">
-        <f>WEEKDAY(A2)</f>
-        <v>2</v>
-      </c>
+      <c r="B2" s="57"/>
       <c r="C2" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="1">
-        <f>WEEKDAY(A2,1)</f>
-        <v>2</v>
-      </c>
+      <c r="D2" s="57"/>
       <c r="E2" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="1">
-        <f>WEEKDAY(A2,2)</f>
-        <v>1</v>
-      </c>
+      <c r="F2" s="57"/>
       <c r="G2" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>44091</v>
       </c>
-      <c r="B3" s="1">
-        <f t="shared" ref="B3:B6" si="0">WEEKDAY(A3,2)</f>
-        <v>4</v>
-      </c>
+      <c r="B3" s="57"/>
       <c r="C3" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="1">
-        <f>WEEKDAY(A3,1)</f>
-        <v>5</v>
-      </c>
+      <c r="D3" s="57"/>
       <c r="E3" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="F3" s="57"/>
       <c r="G3" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>44121</v>
       </c>
-      <c r="B4" s="1">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
+      <c r="B4" s="57"/>
       <c r="C4" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D4" s="1">
-        <f>WEEKDAY(A4,1)</f>
-        <v>7</v>
-      </c>
+      <c r="D4" s="57"/>
       <c r="E4" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="F4" s="57"/>
       <c r="G4" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>44152</v>
       </c>
-      <c r="B5" s="1">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
+      <c r="B5" s="57"/>
       <c r="C5" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D5" s="1">
-        <f t="shared" ref="D5:D6" si="1">WEEKDAY(A5,1)</f>
-        <v>3</v>
-      </c>
+      <c r="D5" s="57"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="F5" s="57"/>
       <c r="G5" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>44182</v>
       </c>
-      <c r="B6" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
+      <c r="B6" s="57"/>
       <c r="C6" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="1">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
+      <c r="D6" s="57"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="F6" s="57"/>
       <c r="G6" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="12"/>
-      <c r="B8" s="5"/>
-      <c r="D8" s="46" t="s">
+      <c r="A8" s="11"/>
+      <c r="B8" s="4"/>
+      <c r="D8" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
     </row>
     <row r="9" spans="1:7" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
     </row>
     <row r="10" spans="1:7" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
     </row>
     <row r="11" spans="1:7" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2112,30 +2071,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="59.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="49"/>
-      <c r="F1" s="46" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="48"/>
+      <c r="F1" s="45" t="s">
         <v>118</v>
       </c>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
     </row>
     <row r="2" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="49" t="s">
         <v>137</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="52"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="51"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
     </row>
     <row r="3" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
@@ -2150,83 +2109,83 @@
       <c r="D3" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
     </row>
     <row r="4" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>43871</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="12">
         <f>EDATE(B4,1)</f>
         <v>43900</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="12">
         <f>EDATE(B4,3)</f>
         <v>43961</v>
       </c>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
     </row>
     <row r="5" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>43900</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="12">
         <f>EDATE(B5,1)</f>
         <v>43931</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="12">
         <f>EDATE(B5,3)</f>
         <v>43992</v>
       </c>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
     </row>
     <row r="6" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>43905</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="12">
         <f>EDATE(B6,1)</f>
         <v>43936</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="F6" s="46" t="s">
+      <c r="D6" s="12"/>
+      <c r="F6" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="G6" s="46"/>
+      <c r="G6" s="45"/>
     </row>
     <row r="7" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>43964</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="12">
         <f t="shared" ref="C7:C8" si="0">EDATE(B7,1)</f>
         <v>43995</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="F7" s="14" t="s">
+      <c r="D7" s="12"/>
+      <c r="F7" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="13" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2234,44 +2193,44 @@
       <c r="A8" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>44000</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="12">
         <f t="shared" si="0"/>
         <v>44030</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="F8" s="14">
+      <c r="D8" s="12"/>
+      <c r="F8" s="13">
         <v>44091</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="13" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="13" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
     </row>
     <row r="11" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D11" s="12"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
+      <c r="D11" s="11"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
     </row>
     <row r="12" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2309,72 +2268,72 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>44029</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2" s="12">
         <f>EOMONTH(A2,1)</f>
         <v>44074</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="45" t="s">
         <v>119</v>
       </c>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
     </row>
     <row r="3" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>43905</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="12">
         <f>EOMONTH(A3,2)</f>
         <v>43982</v>
       </c>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
     </row>
     <row r="4" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>43864</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="12">
         <f>EOMONTH(A4,1)</f>
         <v>43921</v>
       </c>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
     </row>
     <row r="5" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>43994</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="12">
         <f>EOMONTH(A5,1)</f>
         <v>44043</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>43831</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="12">
         <f>EOMONTH(A6,1)</f>
         <v>43890</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E8" s="26" t="s">
+      <c r="E8" s="25" t="s">
         <v>132</v>
       </c>
     </row>
@@ -2420,168 +2379,168 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <v>44047</v>
       </c>
       <c r="C2" s="1">
         <v>6</v>
       </c>
-      <c r="D2" s="18">
+      <c r="D2" s="17">
         <v>44051</v>
       </c>
-      <c r="E2" s="53">
+      <c r="E2" s="52">
         <f>WORKDAY(B2,C2,D2:D3)</f>
         <v>44055</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="15"/>
-      <c r="B3" s="4"/>
+      <c r="A3" s="14"/>
+      <c r="B3" s="3"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="18">
+      <c r="D3" s="17">
         <v>44052</v>
       </c>
-      <c r="E3" s="54"/>
-      <c r="G3" s="46" t="s">
+      <c r="E3" s="53"/>
+      <c r="G3" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
     </row>
     <row r="4" spans="1:11" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>44048</v>
       </c>
       <c r="C4" s="1">
         <v>5</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="18">
         <v>44051</v>
       </c>
-      <c r="E4" s="53">
+      <c r="E4" s="52">
         <f>WORKDAY(B4,C4,D4:D5)</f>
         <v>44055</v>
       </c>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
     </row>
     <row r="5" spans="1:11" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="15"/>
-      <c r="B5" s="4"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="3"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="19">
+      <c r="D5" s="18">
         <v>44052</v>
       </c>
-      <c r="E5" s="54"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
+      <c r="E5" s="53"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
     </row>
     <row r="6" spans="1:11" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>44050</v>
       </c>
       <c r="C6" s="1">
         <v>4</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="20">
         <v>44051</v>
       </c>
-      <c r="E6" s="53">
+      <c r="E6" s="52">
         <f>WORKDAY(B6,C6,D6:D7)</f>
         <v>44056</v>
       </c>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
     </row>
     <row r="7" spans="1:11" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="15"/>
-      <c r="B7" s="4"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="3"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="21">
+      <c r="D7" s="20">
         <v>44052</v>
       </c>
-      <c r="E7" s="54"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46"/>
+      <c r="E7" s="53"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
     </row>
     <row r="8" spans="1:11" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>44041</v>
       </c>
       <c r="C8" s="1">
         <v>10</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="19">
         <v>44044</v>
       </c>
-      <c r="E8" s="53" t="s">
+      <c r="E8" s="52" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="15"/>
-      <c r="B9" s="4"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="3"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="20">
+      <c r="D9" s="19">
         <v>44045</v>
       </c>
-      <c r="E9" s="54"/>
+      <c r="E9" s="53"/>
     </row>
     <row r="10" spans="1:11" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>44027</v>
       </c>
       <c r="C10" s="1">
         <v>3</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="21">
         <v>44030</v>
       </c>
-      <c r="E10" s="53" t="s">
+      <c r="E10" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="26" t="s">
+      <c r="H10" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="I10" s="27"/>
+      <c r="I10" s="26"/>
     </row>
     <row r="11" spans="1:11" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="22">
+      <c r="D11" s="21">
         <v>44031</v>
       </c>
-      <c r="E11" s="54"/>
+      <c r="E11" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2635,147 +2594,147 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <v>44047</v>
       </c>
       <c r="C2" s="1">
         <v>10</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>44053</v>
       </c>
-      <c r="E2" s="53">
+      <c r="E2" s="52">
         <f>WORKDAY.INTL(B2,C2,1,D2:D3)</f>
         <v>44063</v>
       </c>
-      <c r="G2" s="46" t="s">
+      <c r="G2" s="45" t="s">
         <v>138</v>
       </c>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
     </row>
     <row r="3" spans="1:10" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="15"/>
-      <c r="B3" s="4"/>
+      <c r="A3" s="14"/>
+      <c r="B3" s="3"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>44049</v>
       </c>
-      <c r="E3" s="54"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
+      <c r="E3" s="53"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
     </row>
     <row r="4" spans="1:10" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>44048</v>
       </c>
       <c r="C4" s="1">
         <v>5</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>44053</v>
       </c>
-      <c r="E4" s="55">
+      <c r="E4" s="54">
         <f>WORKDAY.INTL(B4,C4,1,D4:D5)</f>
         <v>44057</v>
       </c>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
     </row>
     <row r="5" spans="1:10" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="15"/>
-      <c r="B5" s="4"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="3"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>44049</v>
       </c>
-      <c r="E5" s="56"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
+      <c r="E5" s="55"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
     </row>
     <row r="6" spans="1:10" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>44050</v>
       </c>
       <c r="C6" s="1">
         <v>4</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="53">
+      <c r="D6" s="3"/>
+      <c r="E6" s="52">
         <f>WORKDAY.INTL(B6,C6,7)</f>
         <v>44055</v>
       </c>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
     </row>
     <row r="7" spans="1:10" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="15"/>
-      <c r="B7" s="4"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="3"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="54"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="53"/>
     </row>
     <row r="8" spans="1:10" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>44041</v>
       </c>
       <c r="C8" s="1">
         <v>10</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>44046</v>
       </c>
-      <c r="E8" s="53" t="s">
+      <c r="E8" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="26" t="s">
+      <c r="H8" s="25" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="15"/>
-      <c r="B9" s="4"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="3"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>44047</v>
       </c>
-      <c r="E9" s="54"/>
+      <c r="E9" s="53"/>
     </row>
     <row r="10" spans="1:10" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>44027</v>
       </c>
       <c r="C10" s="1">
         <v>3</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>44024</v>
       </c>
-      <c r="E10" s="53" t="s">
+      <c r="E10" s="52" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2783,10 +2742,10 @@
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>44025</v>
       </c>
-      <c r="E11" s="54"/>
+      <c r="E11" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2824,97 +2783,97 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>43675</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <v>43528</v>
       </c>
       <c r="C2" s="1">
         <f>_xlfn.DAYS(A2,B2)</f>
         <v>147</v>
       </c>
-      <c r="E2" s="46" t="s">
+      <c r="E2" s="45" t="s">
         <v>139</v>
       </c>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
     </row>
     <row r="3" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>44030</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>43065</v>
       </c>
       <c r="C3" s="1">
         <f>_xlfn.DAYS(A3,B3)</f>
         <v>965</v>
       </c>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
     </row>
     <row r="4" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>44030</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>44022</v>
       </c>
       <c r="C4" s="1">
         <f>_xlfn.DAYS(A4,B4)</f>
         <v>8</v>
       </c>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
     </row>
     <row r="5" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>43499</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>44013</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
     </row>
     <row r="6" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>44047</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>44061</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
     </row>
     <row r="10" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="G10" s="26" t="s">
+      <c r="G10" s="25" t="s">
         <v>135</v>
       </c>
     </row>
@@ -2938,16 +2897,16 @@
   <sheetFormatPr defaultColWidth="15.1796875" defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="29" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2961,13 +2920,13 @@
       <c r="C2" s="1">
         <v>0</v>
       </c>
-      <c r="D2" s="33"/>
-      <c r="F2" s="42" t="s">
+      <c r="D2" s="32"/>
+      <c r="F2" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
     </row>
     <row r="3" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
@@ -2979,11 +2938,11 @@
       <c r="C3" s="1">
         <v>0</v>
       </c>
-      <c r="D3" s="33"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
+      <c r="D3" s="32"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
     </row>
     <row r="4" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
@@ -2995,11 +2954,11 @@
       <c r="C4" s="1">
         <v>0</v>
       </c>
-      <c r="D4" s="33"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
+      <c r="D4" s="32"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
     </row>
     <row r="5" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
@@ -3011,7 +2970,7 @@
       <c r="C5" s="1">
         <v>-1</v>
       </c>
-      <c r="D5" s="33"/>
+      <c r="D5" s="32"/>
     </row>
     <row r="6" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
@@ -3023,7 +2982,7 @@
       <c r="C6" s="1">
         <v>1</v>
       </c>
-      <c r="D6" s="33"/>
+      <c r="D6" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3050,20 +3009,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
     </row>
     <row r="2" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="29" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3077,68 +3036,68 @@
       <c r="C3" s="1">
         <v>11</v>
       </c>
-      <c r="E3" s="42" t="s">
+      <c r="E3" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
     </row>
     <row r="4" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
     </row>
     <row r="5" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="16" t="s">
+      <c r="B5" s="33"/>
+      <c r="C5" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
     </row>
     <row r="6" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="16" t="s">
+      <c r="B6" s="34"/>
+      <c r="C6" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
     </row>
     <row r="7" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="16" t="s">
+      <c r="B7" s="34"/>
+      <c r="C7" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
     </row>
     <row r="8" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="16" t="s">
+      <c r="B8" s="34"/>
+      <c r="C8" s="15" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3146,8 +3105,8 @@
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="35"/>
-      <c r="C9" s="16" t="s">
+      <c r="B9" s="34"/>
+      <c r="C9" s="15" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3155,8 +3114,8 @@
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="35"/>
-      <c r="C10" s="16" t="s">
+      <c r="B10" s="34"/>
+      <c r="C10" s="15" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3185,35 +3144,35 @@
     <col min="10" max="10" width="14.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="23" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:13" s="22" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="H1" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="36" t="s">
+      <c r="J1" s="35" t="s">
         <v>35</v>
       </c>
     </row>
@@ -3224,7 +3183,7 @@
       <c r="B2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>44053</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -3242,12 +3201,12 @@
       <c r="H2" s="1">
         <v>10</v>
       </c>
-      <c r="I2" s="37"/>
-      <c r="J2" s="38"/>
-      <c r="L2" s="42" t="s">
+      <c r="I2" s="36"/>
+      <c r="J2" s="37"/>
+      <c r="L2" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="M2" s="42"/>
+      <c r="M2" s="41"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
@@ -3256,7 +3215,7 @@
       <c r="B3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>44054</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -3274,10 +3233,10 @@
       <c r="H3" s="1">
         <v>15</v>
       </c>
-      <c r="I3" s="37"/>
-      <c r="J3" s="39"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="38"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
     </row>
     <row r="4" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
@@ -3286,7 +3245,7 @@
       <c r="B4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>44055</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -3304,10 +3263,10 @@
       <c r="H4" s="1">
         <v>45</v>
       </c>
-      <c r="I4" s="37"/>
-      <c r="J4" s="39"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="38"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
     </row>
     <row r="5" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
@@ -3316,7 +3275,7 @@
       <c r="B5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>44056</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -3334,10 +3293,10 @@
       <c r="H5" s="1">
         <v>34</v>
       </c>
-      <c r="I5" s="37"/>
-      <c r="J5" s="39"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="38"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
     </row>
     <row r="6" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
@@ -3346,7 +3305,7 @@
       <c r="B6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>44057</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -3364,10 +3323,10 @@
       <c r="H6" s="1">
         <v>12</v>
       </c>
-      <c r="I6" s="37"/>
-      <c r="J6" s="39"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="42"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="38"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
     </row>
     <row r="7" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
@@ -3376,7 +3335,7 @@
       <c r="B7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>44053</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -3394,10 +3353,10 @@
       <c r="H7" s="1">
         <v>18</v>
       </c>
-      <c r="I7" s="37"/>
-      <c r="J7" s="39"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="38"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
     </row>
     <row r="8" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
@@ -3406,7 +3365,7 @@
       <c r="B8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>44054</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -3424,10 +3383,10 @@
       <c r="H8" s="1">
         <v>20</v>
       </c>
-      <c r="I8" s="37"/>
-      <c r="J8" s="39"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="38"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="41"/>
     </row>
     <row r="9" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
@@ -3436,7 +3395,7 @@
       <c r="B9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>44055</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -3454,10 +3413,10 @@
       <c r="H9" s="1">
         <v>35</v>
       </c>
-      <c r="I9" s="37"/>
-      <c r="J9" s="39"/>
-      <c r="L9" s="42"/>
-      <c r="M9" s="42"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="38"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="41"/>
     </row>
     <row r="10" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
@@ -3466,7 +3425,7 @@
       <c r="B10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>44056</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -3484,10 +3443,10 @@
       <c r="H10" s="1">
         <v>55</v>
       </c>
-      <c r="I10" s="37"/>
-      <c r="J10" s="39"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="42"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="38"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="41"/>
     </row>
     <row r="11" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
@@ -3496,7 +3455,7 @@
       <c r="B11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>44057</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -3514,16 +3473,16 @@
       <c r="H11" s="1">
         <v>17</v>
       </c>
-      <c r="I11" s="37"/>
-      <c r="J11" s="39"/>
-      <c r="L11" s="42"/>
-      <c r="M11" s="42"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="38"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="41"/>
     </row>
     <row r="16" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="H16" s="24" t="s">
+      <c r="H16" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="I16" s="24"/>
+      <c r="I16" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3550,31 +3509,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
     </row>
     <row r="2" spans="1:9" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="30" t="s">
+      <c r="B2" s="31"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="29" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3582,93 +3541,93 @@
       <c r="A3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="9"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="8"/>
       <c r="D3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>44053</v>
       </c>
-      <c r="F3" s="41"/>
-      <c r="H3" s="42" t="s">
+      <c r="F3" s="40"/>
+      <c r="H3" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="I3" s="42"/>
+      <c r="I3" s="41"/>
     </row>
     <row r="4" spans="1:9" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="32"/>
+      <c r="B4" s="31"/>
       <c r="D4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>43355</v>
       </c>
-      <c r="F4" s="41"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
+      <c r="F4" s="40"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
     </row>
     <row r="5" spans="1:9" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="32"/>
+      <c r="B5" s="31"/>
       <c r="D5" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>43018</v>
       </c>
-      <c r="F5" s="41"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
+      <c r="F5" s="40"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
     </row>
     <row r="6" spans="1:9" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="32"/>
+      <c r="B6" s="31"/>
       <c r="D6" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>42043</v>
       </c>
-      <c r="F6" s="41"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
+      <c r="F6" s="40"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
     </row>
     <row r="7" spans="1:9" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>42402</v>
       </c>
-      <c r="F7" s="41"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
+      <c r="F7" s="40"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
     </row>
     <row r="8" spans="1:9" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
     </row>
     <row r="9" spans="1:9" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F9" s="25" t="s">
+      <c r="F9" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="G9" s="25" t="s">
+      <c r="G9" s="24" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F10" s="25" t="s">
+      <c r="F10" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="G10" s="25" t="s">
+      <c r="G10" s="24" t="s">
         <v>125</v>
       </c>
     </row>
@@ -3695,102 +3654,102 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="3" spans="4:13" x14ac:dyDescent="0.35">
-      <c r="D3" s="46" t="s">
+      <c r="D3" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
     </row>
     <row r="4" spans="4:13" x14ac:dyDescent="0.35">
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
     </row>
     <row r="5" spans="4:13" x14ac:dyDescent="0.35">
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="46"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
     </row>
     <row r="6" spans="4:13" x14ac:dyDescent="0.35">
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="46"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
     </row>
     <row r="7" spans="4:13" x14ac:dyDescent="0.35">
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="46"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45"/>
     </row>
     <row r="8" spans="4:13" x14ac:dyDescent="0.35">
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="46"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
     </row>
     <row r="9" spans="4:13" x14ac:dyDescent="0.35">
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="46"/>
-      <c r="L9" s="46"/>
-      <c r="M9" s="46"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="45"/>
     </row>
     <row r="10" spans="4:13" x14ac:dyDescent="0.35">
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="46"/>
-      <c r="K10" s="46"/>
-      <c r="L10" s="46"/>
-      <c r="M10" s="46"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3816,59 +3775,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="45" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
     </row>
     <row r="2" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="F2" s="46" t="s">
+      <c r="F2" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
     </row>
     <row r="3" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>55</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
     </row>
     <row r="4" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>56</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
     </row>
     <row r="5" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>57</v>
       </c>
       <c r="B5" s="1"/>
@@ -3876,45 +3835,45 @@
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>58</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="F6" s="46" t="s">
+      <c r="F6" s="45" t="s">
         <v>113</v>
       </c>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
     </row>
     <row r="7" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>59</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
     </row>
     <row r="8" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>61</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
     </row>
     <row r="9" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>60</v>
       </c>
       <c r="B9" s="1"/>
@@ -3922,32 +3881,32 @@
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="11"/>
-      <c r="F10" s="46" t="s">
+      <c r="C10" s="10"/>
+      <c r="F10" s="45" t="s">
         <v>114</v>
       </c>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
     </row>
     <row r="11" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C11" s="11"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46"/>
+      <c r="C11" s="10"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
     </row>
     <row r="12" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="46"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
     </row>
     <row r="13" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="G13" s="8"/>
+      <c r="G13" s="7"/>
     </row>
     <row r="14" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="H14" s="8"/>
+      <c r="H14" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3975,57 +3934,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="29" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>63</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="F2" s="46" t="s">
+      <c r="F2" s="45" t="s">
         <v>115</v>
       </c>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="7">
+      <c r="A3" s="6">
         <f ca="1">NOW()</f>
-        <v>45179.743803356483</v>
+        <v>45179.749455902776</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
     </row>
     <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>42768</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
     </row>
     <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>43152</v>
       </c>
       <c r="B5" s="1"/>
@@ -4033,7 +3992,7 @@
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>27771</v>
       </c>
       <c r="B6" s="1"/>
@@ -4041,7 +4000,7 @@
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>32882</v>
       </c>
       <c r="B7" s="1"/>
@@ -4049,17 +4008,17 @@
       <c r="D7" s="1"/>
     </row>
     <row r="10" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F10" s="26" t="s">
+      <c r="F10" s="25" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F11" s="26" t="s">
+      <c r="F11" s="25" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F12" s="26" t="s">
+      <c r="F12" s="25" t="s">
         <v>128</v>
       </c>
     </row>
@@ -4075,7 +4034,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B431C455-3A26-459E-AA73-BF5069C861FB}">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -4086,13 +4045,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="56" t="s">
         <v>66</v>
       </c>
     </row>
@@ -4100,83 +4059,83 @@
       <c r="A2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <v>43831</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="E2" s="46" t="s">
+      <c r="C2" s="57"/>
+      <c r="E2" s="45" t="s">
         <v>136</v>
       </c>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
     </row>
     <row r="3" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>43837</v>
       </c>
-      <c r="C3" s="58"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
+      <c r="C3" s="57"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
     </row>
     <row r="4" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>44068</v>
       </c>
-      <c r="C4" s="58"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
+      <c r="C4" s="57"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
     </row>
     <row r="5" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>44074</v>
       </c>
-      <c r="C5" s="58"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
+      <c r="C5" s="57"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
     </row>
     <row r="6" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>44046</v>
       </c>
-      <c r="C6" s="58"/>
+      <c r="C6" s="57"/>
     </row>
     <row r="9" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="H9" s="26" t="s">
+      <c r="H9" s="25" t="s">
         <v>129</v>
       </c>
     </row>

--- a/Date_time_functions/Date_and_Time_InClass.xlsx
+++ b/Date_time_functions/Date_and_Time_InClass.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\MexEE402_ExcelExcercises\Date_time_functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E805F49-5378-4E74-B135-6F49B7514FB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F7B9603-87F6-4BF4-93AD-E41A6EE9DAAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="11160" tabRatio="988" firstSheet="4" activeTab="9" xr2:uid="{A6137C47-DE02-48C6-8473-5C1EB30628DD}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="11160" tabRatio="988" firstSheet="6" activeTab="11" xr2:uid="{A6137C47-DE02-48C6-8473-5C1EB30628DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Date" sheetId="1" r:id="rId1"/>
@@ -1296,7 +1296,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1448,6 +1448,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1896,7 +1899,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60A01787-94D0-47F2-852E-F6AD7B2B2DE1}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
@@ -2059,7 +2062,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D6" sqref="D6:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.1796875" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2097,16 +2100,16 @@
       <c r="I2" s="45"/>
     </row>
     <row r="3" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="56" t="s">
         <v>87</v>
       </c>
       <c r="E3" s="16"/>
@@ -2164,7 +2167,7 @@
         <f>EDATE(B6,1)</f>
         <v>43936</v>
       </c>
-      <c r="D6" s="12"/>
+      <c r="D6" s="59"/>
       <c r="F6" s="45" t="s">
         <v>97</v>
       </c>
@@ -2181,7 +2184,7 @@
         <f t="shared" ref="C7:C8" si="0">EDATE(B7,1)</f>
         <v>43995</v>
       </c>
-      <c r="D7" s="12"/>
+      <c r="D7" s="59"/>
       <c r="F7" s="13" t="s">
         <v>92</v>
       </c>
@@ -2200,7 +2203,7 @@
         <f t="shared" si="0"/>
         <v>44030</v>
       </c>
-      <c r="D8" s="12"/>
+      <c r="D8" s="59"/>
       <c r="F8" s="13">
         <v>44091</v>
       </c>
@@ -2249,8 +2252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAE4DB83-9FDE-47E5-A67B-E804EB96E598}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.1796875" defaultRowHeight="23" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2260,10 +2263,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="56" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="56" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2271,10 +2274,7 @@
       <c r="A2" s="3">
         <v>44029</v>
       </c>
-      <c r="B2" s="12">
-        <f>EOMONTH(A2,1)</f>
-        <v>44074</v>
-      </c>
+      <c r="B2" s="59"/>
       <c r="D2" s="45" t="s">
         <v>119</v>
       </c>
@@ -2288,10 +2288,7 @@
       <c r="A3" s="3">
         <v>43905</v>
       </c>
-      <c r="B3" s="12">
-        <f>EOMONTH(A3,2)</f>
-        <v>43982</v>
-      </c>
+      <c r="B3" s="59"/>
       <c r="D3" s="45"/>
       <c r="E3" s="45"/>
       <c r="F3" s="45"/>
@@ -2303,10 +2300,7 @@
       <c r="A4" s="3">
         <v>43864</v>
       </c>
-      <c r="B4" s="12">
-        <f>EOMONTH(A4,1)</f>
-        <v>43921</v>
-      </c>
+      <c r="B4" s="59"/>
       <c r="D4" s="45"/>
       <c r="E4" s="45"/>
       <c r="F4" s="45"/>
@@ -2318,19 +2312,13 @@
       <c r="A5" s="3">
         <v>43994</v>
       </c>
-      <c r="B5" s="12">
-        <f>EOMONTH(A5,1)</f>
-        <v>44043</v>
-      </c>
+      <c r="B5" s="59"/>
     </row>
     <row r="6" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>43831</v>
       </c>
-      <c r="B6" s="12">
-        <f>EOMONTH(A6,1)</f>
-        <v>43890</v>
-      </c>
+      <c r="B6" s="59"/>
     </row>
     <row r="8" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E8" s="25" t="s">
@@ -3963,7 +3951,7 @@
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <f ca="1">NOW()</f>
-        <v>45179.749455902776</v>
+        <v>45179.757148958335</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>

--- a/Date_time_functions/Date_and_Time_InClass.xlsx
+++ b/Date_time_functions/Date_and_Time_InClass.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\MexEE402_ExcelExcercises\Date_time_functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F7B9603-87F6-4BF4-93AD-E41A6EE9DAAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF0E4B8-0E82-48E3-936A-A8CF68EDA9E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="11160" tabRatio="988" firstSheet="6" activeTab="11" xr2:uid="{A6137C47-DE02-48C6-8473-5C1EB30628DD}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="11160" tabRatio="988" firstSheet="6" activeTab="12" xr2:uid="{A6137C47-DE02-48C6-8473-5C1EB30628DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Date" sheetId="1" r:id="rId1"/>
@@ -298,7 +298,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="141">
   <si>
     <t>Year</t>
   </si>
@@ -1296,7 +1296,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1451,6 +1451,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2252,8 +2258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAE4DB83-9FDE-47E5-A67B-E804EB96E598}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.1796875" defaultRowHeight="23" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2337,8 +2343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24DE25F6-ED1C-4EE9-B772-80D2ABC96BC9}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.1796875" defaultRowHeight="21.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2350,19 +2356,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="56" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="56" t="s">
         <v>102</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="56" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2450,9 +2456,8 @@
       <c r="D6" s="20">
         <v>44051</v>
       </c>
-      <c r="E6" s="52">
-        <f>WORKDAY(B6,C6,D6:D7)</f>
-        <v>44056</v>
+      <c r="E6" s="60" t="s">
+        <v>36</v>
       </c>
       <c r="G6" s="45"/>
       <c r="H6" s="45"/>
@@ -2467,7 +2472,7 @@
       <c r="D7" s="20">
         <v>44052</v>
       </c>
-      <c r="E7" s="53"/>
+      <c r="E7" s="61"/>
       <c r="G7" s="45"/>
       <c r="H7" s="45"/>
       <c r="I7" s="45"/>
@@ -2487,7 +2492,7 @@
       <c r="D8" s="19">
         <v>44044</v>
       </c>
-      <c r="E8" s="52" t="s">
+      <c r="E8" s="60" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2498,7 +2503,7 @@
       <c r="D9" s="19">
         <v>44045</v>
       </c>
-      <c r="E9" s="53"/>
+      <c r="E9" s="61"/>
     </row>
     <row r="10" spans="1:11" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="14" t="s">
@@ -2513,7 +2518,7 @@
       <c r="D10" s="21">
         <v>44030</v>
       </c>
-      <c r="E10" s="52" t="s">
+      <c r="E10" s="60" t="s">
         <v>36</v>
       </c>
       <c r="H10" s="25" t="s">
@@ -2528,7 +2533,7 @@
       <c r="D11" s="21">
         <v>44031</v>
       </c>
-      <c r="E11" s="53"/>
+      <c r="E11" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3951,7 +3956,7 @@
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <f ca="1">NOW()</f>
-        <v>45179.757148958335</v>
+        <v>45179.757944675926</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>

--- a/Date_time_functions/Date_and_Time_InClass.xlsx
+++ b/Date_time_functions/Date_and_Time_InClass.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\MexEE402_ExcelExcercises\Date_time_functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF0E4B8-0E82-48E3-936A-A8CF68EDA9E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFCF50B5-46A7-4DA9-9C6E-F131D144F1FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="11160" tabRatio="988" firstSheet="6" activeTab="12" xr2:uid="{A6137C47-DE02-48C6-8473-5C1EB30628DD}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="11160" tabRatio="988" firstSheet="6" activeTab="13" xr2:uid="{A6137C47-DE02-48C6-8473-5C1EB30628DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Date" sheetId="1" r:id="rId1"/>
@@ -2343,7 +2343,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24DE25F6-ED1C-4EE9-B772-80D2ABC96BC9}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -2556,8 +2556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7355E705-2809-47AE-BB94-DB17DD620ABA}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.1796875" defaultRowHeight="21.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2570,19 +2570,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="56" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="56" t="s">
         <v>102</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="56" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2698,7 +2698,7 @@
       <c r="D8" s="3">
         <v>44046</v>
       </c>
-      <c r="E8" s="52" t="s">
+      <c r="E8" s="60" t="s">
         <v>36</v>
       </c>
       <c r="H8" s="25" t="s">
@@ -2712,7 +2712,7 @@
       <c r="D9" s="3">
         <v>44047</v>
       </c>
-      <c r="E9" s="53"/>
+      <c r="E9" s="61"/>
     </row>
     <row r="10" spans="1:10" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="14" t="s">
@@ -2727,7 +2727,7 @@
       <c r="D10" s="3">
         <v>44024</v>
       </c>
-      <c r="E10" s="52" t="s">
+      <c r="E10" s="60" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2738,7 +2738,7 @@
       <c r="D11" s="3">
         <v>44025</v>
       </c>
-      <c r="E11" s="53"/>
+      <c r="E11" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/Date_time_functions/Date_and_Time_InClass.xlsx
+++ b/Date_time_functions/Date_and_Time_InClass.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\MexEE402_ExcelExcercises\Date_time_functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFCF50B5-46A7-4DA9-9C6E-F131D144F1FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D8F13B-736E-4774-A7CF-0D3E9DEDDD4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="11160" tabRatio="988" firstSheet="6" activeTab="13" xr2:uid="{A6137C47-DE02-48C6-8473-5C1EB30628DD}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="11160" tabRatio="988" firstSheet="6" activeTab="14" xr2:uid="{A6137C47-DE02-48C6-8473-5C1EB30628DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Date" sheetId="1" r:id="rId1"/>
@@ -298,7 +298,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="141">
   <si>
     <t>Year</t>
   </si>
@@ -1296,12 +1296,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1781,20 +1778,20 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.81640625" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="16.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.36328125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="29" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1808,14 +1805,14 @@
       <c r="C2" s="1">
         <v>2</v>
       </c>
-      <c r="D2" s="31"/>
-      <c r="F2" s="41" t="s">
+      <c r="D2" s="30"/>
+      <c r="F2" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
     </row>
     <row r="3" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
@@ -1827,12 +1824,12 @@
       <c r="C3" s="1">
         <v>16</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
+      <c r="D3" s="30"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
     </row>
     <row r="4" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
@@ -1844,12 +1841,12 @@
       <c r="C4" s="1">
         <v>11</v>
       </c>
-      <c r="D4" s="31"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
+      <c r="D4" s="30"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
     </row>
     <row r="5" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
@@ -1861,12 +1858,12 @@
       <c r="C5" s="1">
         <v>12</v>
       </c>
-      <c r="D5" s="31"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
+      <c r="D5" s="30"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
     </row>
     <row r="6" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
@@ -1878,19 +1875,19 @@
       <c r="C6" s="1">
         <v>3</v>
       </c>
-      <c r="D6" s="31"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
+      <c r="D6" s="30"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
     </row>
     <row r="7" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1921,139 +1918,139 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="55" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="56" t="s">
+      <c r="E1" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="F1" s="58" t="s">
+      <c r="F1" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="G1" s="58" t="s">
+      <c r="G1" s="57" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>44060</v>
       </c>
-      <c r="B2" s="57"/>
+      <c r="B2" s="56"/>
       <c r="C2" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="57"/>
+      <c r="D2" s="56"/>
       <c r="E2" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="57"/>
+      <c r="F2" s="56"/>
       <c r="G2" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>44091</v>
       </c>
-      <c r="B3" s="57"/>
+      <c r="B3" s="56"/>
       <c r="C3" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="57"/>
+      <c r="D3" s="56"/>
       <c r="E3" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F3" s="57"/>
+      <c r="F3" s="56"/>
       <c r="G3" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>44121</v>
       </c>
-      <c r="B4" s="57"/>
+      <c r="B4" s="56"/>
       <c r="C4" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D4" s="57"/>
+      <c r="D4" s="56"/>
       <c r="E4" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F4" s="57"/>
+      <c r="F4" s="56"/>
       <c r="G4" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>44152</v>
       </c>
-      <c r="B5" s="57"/>
+      <c r="B5" s="56"/>
       <c r="C5" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D5" s="57"/>
+      <c r="D5" s="56"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="57"/>
+      <c r="F5" s="56"/>
       <c r="G5" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>44182</v>
       </c>
-      <c r="B6" s="57"/>
+      <c r="B6" s="56"/>
       <c r="C6" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="57"/>
+      <c r="D6" s="56"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="57"/>
+      <c r="F6" s="56"/>
       <c r="G6" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="11"/>
-      <c r="B8" s="4"/>
-      <c r="D8" s="45" t="s">
+      <c r="A8" s="10"/>
+      <c r="B8" s="3"/>
+      <c r="D8" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
     </row>
     <row r="9" spans="1:7" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
     </row>
     <row r="10" spans="1:7" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
     </row>
     <row r="11" spans="1:7" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2080,121 +2077,121 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="59.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="48"/>
-      <c r="F1" s="45" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="47"/>
+      <c r="F1" s="44" t="s">
         <v>118</v>
       </c>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
     </row>
     <row r="2" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="48" t="s">
         <v>137</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="51"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="50"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
     </row>
     <row r="3" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="56" t="s">
+      <c r="C3" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="D3" s="56" t="s">
+      <c r="D3" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
     </row>
     <row r="4" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>43871</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="11">
         <f>EDATE(B4,1)</f>
         <v>43900</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="11">
         <f>EDATE(B4,3)</f>
         <v>43961</v>
       </c>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
     </row>
     <row r="5" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>43900</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="11">
         <f>EDATE(B5,1)</f>
         <v>43931</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="11">
         <f>EDATE(B5,3)</f>
         <v>43992</v>
       </c>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
     </row>
     <row r="6" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>43905</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="11">
         <f>EDATE(B6,1)</f>
         <v>43936</v>
       </c>
-      <c r="D6" s="59"/>
-      <c r="F6" s="45" t="s">
+      <c r="D6" s="58"/>
+      <c r="F6" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="G6" s="45"/>
+      <c r="G6" s="44"/>
     </row>
     <row r="7" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>43964</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="11">
         <f t="shared" ref="C7:C8" si="0">EDATE(B7,1)</f>
         <v>43995</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="F7" s="13" t="s">
+      <c r="D7" s="58"/>
+      <c r="F7" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="12" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2202,44 +2199,44 @@
       <c r="A8" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>44000</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="11">
         <f t="shared" si="0"/>
         <v>44030</v>
       </c>
-      <c r="D8" s="59"/>
-      <c r="F8" s="13">
+      <c r="D8" s="58"/>
+      <c r="F8" s="12">
         <v>44091</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="12" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="12" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
     </row>
     <row r="11" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D11" s="11"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
+      <c r="D11" s="10"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
     </row>
     <row r="12" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2269,65 +2266,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="55" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="55" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>44029</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="D2" s="45" t="s">
+      <c r="B2" s="58"/>
+      <c r="D2" s="44" t="s">
         <v>119</v>
       </c>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
     </row>
     <row r="3" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>43905</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
+      <c r="B3" s="58"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
     </row>
     <row r="4" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>43864</v>
       </c>
-      <c r="B4" s="59"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
+      <c r="B4" s="58"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
     </row>
     <row r="5" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>43994</v>
       </c>
-      <c r="B5" s="59"/>
+      <c r="B5" s="58"/>
     </row>
     <row r="6" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>43831</v>
       </c>
-      <c r="B6" s="59"/>
+      <c r="B6" s="58"/>
     </row>
     <row r="8" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E8" s="25" t="s">
+      <c r="E8" s="24" t="s">
         <v>132</v>
       </c>
     </row>
@@ -2356,184 +2353,184 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="55" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="55" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="55" t="s">
         <v>101</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="55" t="s">
         <v>102</v>
       </c>
-      <c r="E1" s="56" t="s">
+      <c r="E1" s="55" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>44047</v>
       </c>
       <c r="C2" s="1">
         <v>6</v>
       </c>
-      <c r="D2" s="17">
+      <c r="D2" s="16">
         <v>44051</v>
       </c>
-      <c r="E2" s="52">
+      <c r="E2" s="51">
         <f>WORKDAY(B2,C2,D2:D3)</f>
         <v>44055</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="14"/>
-      <c r="B3" s="3"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="2"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="17">
+      <c r="D3" s="16">
         <v>44052</v>
       </c>
-      <c r="E3" s="53"/>
-      <c r="G3" s="45" t="s">
+      <c r="E3" s="52"/>
+      <c r="G3" s="44" t="s">
         <v>120</v>
       </c>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
     </row>
     <row r="4" spans="1:11" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>44048</v>
       </c>
       <c r="C4" s="1">
         <v>5</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="17">
         <v>44051</v>
       </c>
-      <c r="E4" s="52">
+      <c r="E4" s="51">
         <f>WORKDAY(B4,C4,D4:D5)</f>
         <v>44055</v>
       </c>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
     </row>
     <row r="5" spans="1:11" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="14"/>
-      <c r="B5" s="3"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="2"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="18">
+      <c r="D5" s="17">
         <v>44052</v>
       </c>
-      <c r="E5" s="53"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
+      <c r="E5" s="52"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
     </row>
     <row r="6" spans="1:11" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>44050</v>
       </c>
       <c r="C6" s="1">
         <v>4</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="19">
         <v>44051</v>
       </c>
-      <c r="E6" s="60" t="s">
+      <c r="E6" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
     </row>
     <row r="7" spans="1:11" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="14"/>
-      <c r="B7" s="3"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="2"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="20">
+      <c r="D7" s="19">
         <v>44052</v>
       </c>
-      <c r="E7" s="61"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="45"/>
+      <c r="E7" s="60"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
     </row>
     <row r="8" spans="1:11" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>44041</v>
       </c>
       <c r="C8" s="1">
         <v>10</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="18">
         <v>44044</v>
       </c>
-      <c r="E8" s="60" t="s">
+      <c r="E8" s="59" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="14"/>
-      <c r="B9" s="3"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="2"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="19">
+      <c r="D9" s="18">
         <v>44045</v>
       </c>
-      <c r="E9" s="61"/>
+      <c r="E9" s="60"/>
     </row>
     <row r="10" spans="1:11" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>44027</v>
       </c>
       <c r="C10" s="1">
         <v>3</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="20">
         <v>44030</v>
       </c>
-      <c r="E10" s="60" t="s">
+      <c r="E10" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="25" t="s">
+      <c r="H10" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="I10" s="26"/>
+      <c r="I10" s="25"/>
     </row>
     <row r="11" spans="1:11" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="21">
+      <c r="D11" s="20">
         <v>44031</v>
       </c>
-      <c r="E11" s="61"/>
+      <c r="E11" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2556,7 +2553,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7355E705-2809-47AE-BB94-DB17DD620ABA}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -2570,164 +2567,164 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="55" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="55" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="55" t="s">
         <v>101</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="55" t="s">
         <v>102</v>
       </c>
-      <c r="E1" s="56" t="s">
+      <c r="E1" s="55" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>44047</v>
       </c>
       <c r="C2" s="1">
         <v>10</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>44053</v>
       </c>
-      <c r="E2" s="52">
+      <c r="E2" s="51">
         <f>WORKDAY.INTL(B2,C2,1,D2:D3)</f>
         <v>44063</v>
       </c>
-      <c r="G2" s="45" t="s">
+      <c r="G2" s="44" t="s">
         <v>138</v>
       </c>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
     </row>
     <row r="3" spans="1:10" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="14"/>
-      <c r="B3" s="3"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="2"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>44049</v>
       </c>
-      <c r="E3" s="53"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
+      <c r="E3" s="52"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
     </row>
     <row r="4" spans="1:10" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>44048</v>
       </c>
       <c r="C4" s="1">
         <v>5</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>44053</v>
       </c>
-      <c r="E4" s="54">
+      <c r="E4" s="53">
         <f>WORKDAY.INTL(B4,C4,1,D4:D5)</f>
         <v>44057</v>
       </c>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
     </row>
     <row r="5" spans="1:10" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="14"/>
-      <c r="B5" s="3"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="2"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>44049</v>
       </c>
-      <c r="E5" s="55"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
+      <c r="E5" s="54"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
     </row>
     <row r="6" spans="1:10" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>44050</v>
       </c>
       <c r="C6" s="1">
         <v>4</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="52">
+      <c r="D6" s="2"/>
+      <c r="E6" s="51">
         <f>WORKDAY.INTL(B6,C6,7)</f>
         <v>44055</v>
       </c>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
     </row>
     <row r="7" spans="1:10" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="14"/>
-      <c r="B7" s="3"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="2"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="53"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="52"/>
     </row>
     <row r="8" spans="1:10" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>44041</v>
       </c>
       <c r="C8" s="1">
         <v>10</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>44046</v>
       </c>
-      <c r="E8" s="60" t="s">
+      <c r="E8" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="25" t="s">
+      <c r="H8" s="24" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="14"/>
-      <c r="B9" s="3"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="2"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <v>44047</v>
       </c>
-      <c r="E9" s="61"/>
+      <c r="E9" s="60"/>
     </row>
     <row r="10" spans="1:10" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>44027</v>
       </c>
       <c r="C10" s="1">
         <v>3</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>44024</v>
       </c>
-      <c r="E10" s="60" t="s">
+      <c r="E10" s="59" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2735,10 +2732,10 @@
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>44025</v>
       </c>
-      <c r="E11" s="61"/>
+      <c r="E11" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2758,115 +2755,108 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1B76EEE-9476-498C-9910-4A41101CEEF2}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.1796875" defaultRowHeight="18.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="55" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="55" t="s">
         <v>105</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="55" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>43675</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>43528</v>
       </c>
       <c r="C2" s="1">
         <f>_xlfn.DAYS(A2,B2)</f>
         <v>147</v>
       </c>
-      <c r="E2" s="45" t="s">
+      <c r="E2" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
     </row>
     <row r="3" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>44030</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>43065</v>
       </c>
       <c r="C3" s="1">
         <f>_xlfn.DAYS(A3,B3)</f>
         <v>965</v>
       </c>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
     </row>
     <row r="4" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>44030</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>44022</v>
       </c>
-      <c r="C4" s="1">
-        <f>_xlfn.DAYS(A4,B4)</f>
-        <v>8</v>
-      </c>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
+      <c r="C4" s="56"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
     </row>
     <row r="5" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>43499</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>44013</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
+      <c r="C5" s="56"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
     </row>
     <row r="6" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>44047</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>44061</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
+      <c r="C6" s="56"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
     </row>
     <row r="10" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="G10" s="25" t="s">
+      <c r="G10" s="24" t="s">
         <v>135</v>
       </c>
     </row>
@@ -2890,16 +2880,16 @@
   <sheetFormatPr defaultColWidth="15.1796875" defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="28" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2913,13 +2903,13 @@
       <c r="C2" s="1">
         <v>0</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="F2" s="41" t="s">
+      <c r="D2" s="31"/>
+      <c r="F2" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
     </row>
     <row r="3" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
@@ -2931,11 +2921,11 @@
       <c r="C3" s="1">
         <v>0</v>
       </c>
-      <c r="D3" s="32"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
+      <c r="D3" s="31"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
     </row>
     <row r="4" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
@@ -2947,11 +2937,11 @@
       <c r="C4" s="1">
         <v>0</v>
       </c>
-      <c r="D4" s="32"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
+      <c r="D4" s="31"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
     </row>
     <row r="5" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
@@ -2963,7 +2953,7 @@
       <c r="C5" s="1">
         <v>-1</v>
       </c>
-      <c r="D5" s="32"/>
+      <c r="D5" s="31"/>
     </row>
     <row r="6" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
@@ -2975,7 +2965,7 @@
       <c r="C6" s="1">
         <v>1</v>
       </c>
-      <c r="D6" s="32"/>
+      <c r="D6" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3002,20 +2992,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
     </row>
     <row r="2" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="28" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3029,68 +3019,68 @@
       <c r="C3" s="1">
         <v>11</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="E3" s="40" t="s">
         <v>109</v>
       </c>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
     </row>
     <row r="4" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
     </row>
     <row r="5" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="15" t="s">
+      <c r="B5" s="32"/>
+      <c r="C5" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
     </row>
     <row r="6" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="15" t="s">
+      <c r="B6" s="33"/>
+      <c r="C6" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
     </row>
     <row r="7" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="15" t="s">
+      <c r="B7" s="33"/>
+      <c r="C7" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
     </row>
     <row r="8" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="34"/>
-      <c r="C8" s="15" t="s">
+      <c r="B8" s="33"/>
+      <c r="C8" s="14" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3098,8 +3088,8 @@
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="34"/>
-      <c r="C9" s="15" t="s">
+      <c r="B9" s="33"/>
+      <c r="C9" s="14" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3107,8 +3097,8 @@
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="34"/>
-      <c r="C10" s="15" t="s">
+      <c r="B10" s="33"/>
+      <c r="C10" s="14" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3137,35 +3127,35 @@
     <col min="10" max="10" width="14.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="22" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:13" s="21" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="G1" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="H1" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="35" t="s">
+      <c r="I1" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="35" t="s">
+      <c r="J1" s="34" t="s">
         <v>35</v>
       </c>
     </row>
@@ -3176,7 +3166,7 @@
       <c r="B2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>44053</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -3194,12 +3184,12 @@
       <c r="H2" s="1">
         <v>10</v>
       </c>
-      <c r="I2" s="36"/>
-      <c r="J2" s="37"/>
-      <c r="L2" s="41" t="s">
+      <c r="I2" s="35"/>
+      <c r="J2" s="36"/>
+      <c r="L2" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="M2" s="41"/>
+      <c r="M2" s="40"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
@@ -3208,7 +3198,7 @@
       <c r="B3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>44054</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -3226,10 +3216,10 @@
       <c r="H3" s="1">
         <v>15</v>
       </c>
-      <c r="I3" s="36"/>
-      <c r="J3" s="38"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="37"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
     </row>
     <row r="4" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
@@ -3238,7 +3228,7 @@
       <c r="B4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>44055</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -3256,10 +3246,10 @@
       <c r="H4" s="1">
         <v>45</v>
       </c>
-      <c r="I4" s="36"/>
-      <c r="J4" s="38"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="37"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
     </row>
     <row r="5" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
@@ -3268,7 +3258,7 @@
       <c r="B5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>44056</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -3286,10 +3276,10 @@
       <c r="H5" s="1">
         <v>34</v>
       </c>
-      <c r="I5" s="36"/>
-      <c r="J5" s="38"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="37"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
     </row>
     <row r="6" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
@@ -3298,7 +3288,7 @@
       <c r="B6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>44057</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -3316,10 +3306,10 @@
       <c r="H6" s="1">
         <v>12</v>
       </c>
-      <c r="I6" s="36"/>
-      <c r="J6" s="38"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="37"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
     </row>
     <row r="7" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
@@ -3328,7 +3318,7 @@
       <c r="B7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>44053</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -3346,10 +3336,10 @@
       <c r="H7" s="1">
         <v>18</v>
       </c>
-      <c r="I7" s="36"/>
-      <c r="J7" s="38"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="37"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
     </row>
     <row r="8" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
@@ -3358,7 +3348,7 @@
       <c r="B8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>44054</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -3376,10 +3366,10 @@
       <c r="H8" s="1">
         <v>20</v>
       </c>
-      <c r="I8" s="36"/>
-      <c r="J8" s="38"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="41"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="37"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
     </row>
     <row r="9" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
@@ -3388,7 +3378,7 @@
       <c r="B9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>44055</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -3406,10 +3396,10 @@
       <c r="H9" s="1">
         <v>35</v>
       </c>
-      <c r="I9" s="36"/>
-      <c r="J9" s="38"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="41"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="37"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
     </row>
     <row r="10" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
@@ -3418,7 +3408,7 @@
       <c r="B10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>44056</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -3436,10 +3426,10 @@
       <c r="H10" s="1">
         <v>55</v>
       </c>
-      <c r="I10" s="36"/>
-      <c r="J10" s="38"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="41"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="37"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
     </row>
     <row r="11" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
@@ -3448,7 +3438,7 @@
       <c r="B11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>44057</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -3466,16 +3456,16 @@
       <c r="H11" s="1">
         <v>17</v>
       </c>
-      <c r="I11" s="36"/>
-      <c r="J11" s="38"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="41"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="37"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
     </row>
     <row r="16" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="H16" s="23" t="s">
+      <c r="H16" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="I16" s="23"/>
+      <c r="I16" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3502,31 +3492,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
     </row>
     <row r="2" spans="1:9" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="29" t="s">
+      <c r="B2" s="30"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="28" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3534,93 +3524,93 @@
       <c r="A3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="8"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="7"/>
       <c r="D3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>44053</v>
       </c>
-      <c r="F3" s="40"/>
-      <c r="H3" s="41" t="s">
+      <c r="F3" s="39"/>
+      <c r="H3" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="I3" s="41"/>
+      <c r="I3" s="40"/>
     </row>
     <row r="4" spans="1:9" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="31"/>
+      <c r="B4" s="30"/>
       <c r="D4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>43355</v>
       </c>
-      <c r="F4" s="40"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
+      <c r="F4" s="39"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
     </row>
     <row r="5" spans="1:9" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="31"/>
+      <c r="B5" s="30"/>
       <c r="D5" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>43018</v>
       </c>
-      <c r="F5" s="40"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
+      <c r="F5" s="39"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
     </row>
     <row r="6" spans="1:9" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="31"/>
+      <c r="B6" s="30"/>
       <c r="D6" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>42043</v>
       </c>
-      <c r="F6" s="40"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
+      <c r="F6" s="39"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
     </row>
     <row r="7" spans="1:9" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>42402</v>
       </c>
-      <c r="F7" s="40"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
+      <c r="F7" s="39"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
     </row>
     <row r="8" spans="1:9" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
     </row>
     <row r="9" spans="1:9" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="G9" s="24" t="s">
+      <c r="G9" s="23" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F10" s="24" t="s">
+      <c r="F10" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="G10" s="24" t="s">
+      <c r="G10" s="23" t="s">
         <v>125</v>
       </c>
     </row>
@@ -3647,102 +3637,102 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="3" spans="4:13" x14ac:dyDescent="0.35">
-      <c r="D3" s="45" t="s">
+      <c r="D3" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
     </row>
     <row r="4" spans="4:13" x14ac:dyDescent="0.35">
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
     </row>
     <row r="5" spans="4:13" x14ac:dyDescent="0.35">
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
     </row>
     <row r="6" spans="4:13" x14ac:dyDescent="0.35">
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
     </row>
     <row r="7" spans="4:13" x14ac:dyDescent="0.35">
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="45"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
     </row>
     <row r="8" spans="4:13" x14ac:dyDescent="0.35">
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="44"/>
     </row>
     <row r="9" spans="4:13" x14ac:dyDescent="0.35">
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="45"/>
-      <c r="M9" s="45"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="44"/>
     </row>
     <row r="10" spans="4:13" x14ac:dyDescent="0.35">
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="45"/>
-      <c r="M10" s="45"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="44"/>
+      <c r="M10" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3768,59 +3758,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="44" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
     </row>
     <row r="2" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="F2" s="45" t="s">
+      <c r="F2" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
     </row>
     <row r="3" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>55</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
     </row>
     <row r="4" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>56</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
     </row>
     <row r="5" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>57</v>
       </c>
       <c r="B5" s="1"/>
@@ -3828,45 +3818,45 @@
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>58</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="F6" s="45" t="s">
+      <c r="F6" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
     </row>
     <row r="7" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>59</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
     </row>
     <row r="8" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>61</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
     </row>
     <row r="9" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>60</v>
       </c>
       <c r="B9" s="1"/>
@@ -3874,32 +3864,32 @@
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="10"/>
-      <c r="F10" s="45" t="s">
+      <c r="C10" s="9"/>
+      <c r="F10" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
     </row>
     <row r="11" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C11" s="10"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
+      <c r="C11" s="9"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
     </row>
     <row r="12" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
     </row>
     <row r="13" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="G13" s="7"/>
+      <c r="G13" s="6"/>
     </row>
     <row r="14" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="H14" s="7"/>
+      <c r="H14" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3927,57 +3917,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="28" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>63</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="F2" s="45" t="s">
+      <c r="F2" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <f ca="1">NOW()</f>
-        <v>45179.757944675926</v>
+        <v>45179.770823611114</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
     </row>
     <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>42768</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
     </row>
     <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>43152</v>
       </c>
       <c r="B5" s="1"/>
@@ -3985,7 +3975,7 @@
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>27771</v>
       </c>
       <c r="B6" s="1"/>
@@ -3993,7 +3983,7 @@
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>32882</v>
       </c>
       <c r="B7" s="1"/>
@@ -4001,17 +3991,17 @@
       <c r="D7" s="1"/>
     </row>
     <row r="10" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F10" s="25" t="s">
+      <c r="F10" s="24" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F11" s="25" t="s">
+      <c r="F11" s="24" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F12" s="25" t="s">
+      <c r="F12" s="24" t="s">
         <v>128</v>
       </c>
     </row>
@@ -4038,13 +4028,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="55" t="s">
         <v>66</v>
       </c>
     </row>
@@ -4052,83 +4042,83 @@
       <c r="A2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>43831</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="E2" s="45" t="s">
+      <c r="C2" s="56"/>
+      <c r="E2" s="44" t="s">
         <v>136</v>
       </c>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
     </row>
     <row r="3" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>43837</v>
       </c>
-      <c r="C3" s="57"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
+      <c r="C3" s="56"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
     </row>
     <row r="4" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>44068</v>
       </c>
-      <c r="C4" s="57"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
+      <c r="C4" s="56"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
     </row>
     <row r="5" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>44074</v>
       </c>
-      <c r="C5" s="57"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
+      <c r="C5" s="56"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
     </row>
     <row r="6" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>44046</v>
       </c>
-      <c r="C6" s="57"/>
+      <c r="C6" s="56"/>
     </row>
     <row r="9" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="H9" s="25" t="s">
+      <c r="H9" s="24" t="s">
         <v>129</v>
       </c>
     </row>

--- a/Date_time_functions/Date_and_Time_InClass.xlsx
+++ b/Date_time_functions/Date_and_Time_InClass.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\MexEE402_ExcelExcercises\Date_time_functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D8F13B-736E-4774-A7CF-0D3E9DEDDD4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F17E3F60-772E-41B7-8D20-EC2E3CA5115D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="11160" tabRatio="988" firstSheet="6" activeTab="14" xr2:uid="{A6137C47-DE02-48C6-8473-5C1EB30628DD}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="11160" tabRatio="988" activeTab="14" xr2:uid="{A6137C47-DE02-48C6-8473-5C1EB30628DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Date" sheetId="1" r:id="rId1"/>

--- a/Date_time_functions/Date_and_Time_InClass.xlsx
+++ b/Date_time_functions/Date_and_Time_InClass.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\MexEE402_ExcelExcercises\Date_time_functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F17E3F60-772E-41B7-8D20-EC2E3CA5115D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45748815-B6F7-44CE-A9A9-EE28C3F098B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="11160" tabRatio="988" activeTab="14" xr2:uid="{A6137C47-DE02-48C6-8473-5C1EB30628DD}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="11160" tabRatio="988" firstSheet="6" activeTab="14" xr2:uid="{A6137C47-DE02-48C6-8473-5C1EB30628DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Date" sheetId="1" r:id="rId1"/>
@@ -298,7 +298,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="145">
   <si>
     <t>Year</t>
   </si>
@@ -406,9 +406,6 @@
   </si>
   <si>
     <t>TIMEVALUE() OUT</t>
-  </si>
-  <si>
-    <t>?</t>
   </si>
   <si>
     <t>Yesterday</t>
@@ -1007,6 +1004,21 @@
   </si>
   <si>
     <t>Call Center Scenerio: Number of calls recevied during 9th hour ?</t>
+  </si>
+  <si>
+    <t>Week 1</t>
+  </si>
+  <si>
+    <t>Week 2</t>
+  </si>
+  <si>
+    <t>Week 35</t>
+  </si>
+  <si>
+    <t>Week 36</t>
+  </si>
+  <si>
+    <t>Week 32</t>
   </si>
 </sst>
 </file>
@@ -1296,7 +1308,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1386,11 +1398,20 @@
     <xf numFmtId="166" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1426,6 +1447,12 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1436,24 +1463,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1773,7 +1782,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.81640625" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1805,14 +1814,17 @@
       <c r="C2" s="1">
         <v>2</v>
       </c>
-      <c r="D2" s="30"/>
-      <c r="F2" s="40" t="s">
-        <v>107</v>
-      </c>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
+      <c r="D2" s="30">
+        <f>DATE(A2,B2,C2)</f>
+        <v>34670</v>
+      </c>
+      <c r="F2" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
     </row>
     <row r="3" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
@@ -1824,12 +1836,15 @@
       <c r="C3" s="1">
         <v>16</v>
       </c>
-      <c r="D3" s="30"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
+      <c r="D3" s="30">
+        <f>DATE(A3,B3,C3)</f>
+        <v>32097</v>
+      </c>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
     </row>
     <row r="4" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
@@ -1841,12 +1856,15 @@
       <c r="C4" s="1">
         <v>11</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
+      <c r="D4" s="30">
+        <f>DATE(A4,B4,C4)</f>
+        <v>31635</v>
+      </c>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
     </row>
     <row r="5" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
@@ -1858,12 +1876,15 @@
       <c r="C5" s="1">
         <v>12</v>
       </c>
-      <c r="D5" s="30"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
+      <c r="D5" s="30">
+        <f>DATE(A5,B5,C5)</f>
+        <v>27771</v>
+      </c>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
     </row>
     <row r="6" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
@@ -1875,19 +1896,22 @@
       <c r="C6" s="1">
         <v>3</v>
       </c>
-      <c r="D6" s="30"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
+      <c r="D6" s="30">
+        <f>DATE(A6,B6,C6)</f>
+        <v>14857</v>
+      </c>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
     </row>
     <row r="7" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1903,7 +1927,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.36328125" defaultRowHeight="23.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1918,139 +1942,188 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="55" t="s">
-        <v>65</v>
-      </c>
-      <c r="B1" s="55" t="s">
+      <c r="A1" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="D1" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="55" t="s">
-        <v>73</v>
-      </c>
-      <c r="E1" s="55" t="s">
+      <c r="F1" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="G1" s="41" t="s">
         <v>81</v>
-      </c>
-      <c r="G1" s="57" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>44060</v>
       </c>
-      <c r="B2" s="56"/>
+      <c r="B2" s="40">
+        <f>WEEKDAY(A2,2)</f>
+        <v>1</v>
+      </c>
       <c r="C2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D2" s="56"/>
+        <v>73</v>
+      </c>
+      <c r="D2" s="40">
+        <f>WEEKDAY(A2,1)</f>
+        <v>2</v>
+      </c>
       <c r="E2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F2" s="56"/>
+        <v>73</v>
+      </c>
+      <c r="F2" s="40">
+        <f>WEEKDAY(A2,3)</f>
+        <v>0</v>
+      </c>
       <c r="G2" s="1" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>44091</v>
       </c>
-      <c r="B3" s="56"/>
+      <c r="B3" s="40">
+        <f>WEEKDAY(A3,2)</f>
+        <v>4</v>
+      </c>
       <c r="C3" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D3" s="56"/>
+        <v>74</v>
+      </c>
+      <c r="D3" s="40">
+        <f>WEEKDAY(A3,1)</f>
+        <v>5</v>
+      </c>
       <c r="E3" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F3" s="56"/>
+        <v>74</v>
+      </c>
+      <c r="F3" s="40">
+        <f>WEEKDAY(A3,3)</f>
+        <v>3</v>
+      </c>
       <c r="G3" s="1" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>44121</v>
       </c>
-      <c r="B4" s="56"/>
+      <c r="B4" s="40">
+        <f>WEEKDAY(A4,2)</f>
+        <v>6</v>
+      </c>
       <c r="C4" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D4" s="56"/>
+        <v>75</v>
+      </c>
+      <c r="D4" s="40">
+        <f>WEEKDAY(A4,1)</f>
+        <v>7</v>
+      </c>
       <c r="E4" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F4" s="56"/>
+        <v>75</v>
+      </c>
+      <c r="F4" s="40">
+        <f t="shared" ref="F3:F6" si="0">WEEKDAY(A4,3)</f>
+        <v>5</v>
+      </c>
       <c r="G4" s="1" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>44152</v>
       </c>
-      <c r="B5" s="56"/>
+      <c r="B5" s="40">
+        <f>WEEKDAY(A5,2)</f>
+        <v>2</v>
+      </c>
       <c r="C5" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D5" s="56"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="56"/>
+        <v>76</v>
+      </c>
+      <c r="D5" s="40">
+        <f>WEEKDAY(A5,1)</f>
+        <v>3</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" s="40">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="G5" s="1" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>44182</v>
       </c>
-      <c r="B6" s="56"/>
+      <c r="B6" s="40">
+        <f>WEEKDAY(A6,2)</f>
+        <v>4</v>
+      </c>
       <c r="C6" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D6" s="56"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="56"/>
+        <v>74</v>
+      </c>
+      <c r="D6" s="40">
+        <f>WEEKDAY(A6,1)</f>
+        <v>5</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6" s="40">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
       <c r="G6" s="1" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="10"/>
       <c r="B8" s="3"/>
-      <c r="D8" s="44" t="s">
-        <v>117</v>
-      </c>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
+      <c r="D8" s="47" t="s">
+        <v>116</v>
+      </c>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
     </row>
     <row r="9" spans="1:7" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C9" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
+        <v>129</v>
+      </c>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
     </row>
     <row r="10" spans="1:7" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
     </row>
     <row r="11" spans="1:7" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2064,8 +2137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B745AB8-D9D9-470E-96EF-EB333539B3A4}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:D8"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.1796875" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2077,53 +2150,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="59.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="50"/>
+      <c r="F1" s="47" t="s">
+        <v>117</v>
+      </c>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+    </row>
+    <row r="2" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="51" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="53"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+    </row>
+    <row r="3" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="47"/>
-      <c r="F1" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-    </row>
-    <row r="2" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="48" t="s">
-        <v>137</v>
-      </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="50"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-    </row>
-    <row r="3" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="55" t="s">
+      <c r="B3" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="C3" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="D3" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="D3" s="55" t="s">
-        <v>87</v>
-      </c>
       <c r="E3" s="15"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
     </row>
     <row r="4" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" s="2">
         <v>43871</v>
@@ -2133,17 +2206,17 @@
         <v>43900</v>
       </c>
       <c r="D4" s="11">
-        <f>EDATE(B4,3)</f>
-        <v>43961</v>
-      </c>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
+        <f>EDATE(B4,1)</f>
+        <v>43900</v>
+      </c>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
     </row>
     <row r="5" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B5" s="2">
         <v>43900</v>
@@ -2153,15 +2226,15 @@
         <v>43931</v>
       </c>
       <c r="D5" s="11">
-        <f>EDATE(B5,3)</f>
-        <v>43992</v>
+        <f>EDATE(B5,1)</f>
+        <v>43931</v>
       </c>
       <c r="F5" s="27"/>
       <c r="G5" s="27"/>
     </row>
     <row r="6" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B6" s="2">
         <v>43905</v>
@@ -2170,15 +2243,18 @@
         <f>EDATE(B6,1)</f>
         <v>43936</v>
       </c>
-      <c r="D6" s="58"/>
-      <c r="F6" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="G6" s="44"/>
+      <c r="D6" s="42">
+        <f>EDATE(B6,1)</f>
+        <v>43936</v>
+      </c>
+      <c r="F6" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="G6" s="47"/>
     </row>
     <row r="7" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B7" s="2">
         <v>43964</v>
@@ -2187,17 +2263,20 @@
         <f t="shared" ref="C7:C8" si="0">EDATE(B7,1)</f>
         <v>43995</v>
       </c>
-      <c r="D7" s="58"/>
+      <c r="D7" s="42">
+        <f>EDATE(B7,1)</f>
+        <v>43995</v>
+      </c>
       <c r="F7" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B8" s="2">
         <v>44000</v>
@@ -2206,25 +2285,28 @@
         <f t="shared" si="0"/>
         <v>44030</v>
       </c>
-      <c r="D8" s="58"/>
+      <c r="D8" s="42">
+        <f>EDATE(B8,1)</f>
+        <v>44030</v>
+      </c>
       <c r="F8" s="12">
         <v>44091</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F9" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C10" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -2256,7 +2338,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.1796875" defaultRowHeight="23" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2266,66 +2348,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="39" t="s">
         <v>98</v>
-      </c>
-      <c r="B1" s="55" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>44029</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="D2" s="44" t="s">
-        <v>119</v>
-      </c>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
+      <c r="B2" s="42">
+        <f>EOMONTH(A2,1)</f>
+        <v>44074</v>
+      </c>
+      <c r="D2" s="47" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
     </row>
     <row r="3" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>43905</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
+      <c r="B3" s="42">
+        <f>EOMONTH(A3,2)</f>
+        <v>43982</v>
+      </c>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
     </row>
     <row r="4" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>43864</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
+      <c r="B4" s="42">
+        <f>EOMONTH(A4,4)</f>
+        <v>44012</v>
+      </c>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
     </row>
     <row r="5" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>43994</v>
       </c>
-      <c r="B5" s="58"/>
+      <c r="B5" s="42">
+        <f>EOMONTH(A5,1)</f>
+        <v>44043</v>
+      </c>
     </row>
     <row r="6" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>43831</v>
       </c>
-      <c r="B6" s="58"/>
+      <c r="B6" s="42">
+        <f>EOMONTH(A6,1)</f>
+        <v>43890</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E8" s="24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -2340,8 +2437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24DE25F6-ED1C-4EE9-B772-80D2ABC96BC9}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.1796875" defaultRowHeight="21.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2353,25 +2450,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="55" t="s">
-        <v>103</v>
-      </c>
-      <c r="B1" s="55" t="s">
+      <c r="A1" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="D1" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="D1" s="55" t="s">
-        <v>102</v>
-      </c>
-      <c r="E1" s="55" t="s">
+      <c r="E1" s="39" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B2" s="2">
         <v>44047</v>
@@ -2382,7 +2479,7 @@
       <c r="D2" s="16">
         <v>44051</v>
       </c>
-      <c r="E2" s="51">
+      <c r="E2" s="56">
         <f>WORKDAY(B2,C2,D2:D3)</f>
         <v>44055</v>
       </c>
@@ -2394,18 +2491,18 @@
       <c r="D3" s="16">
         <v>44052</v>
       </c>
-      <c r="E3" s="52"/>
-      <c r="G3" s="44" t="s">
-        <v>120</v>
-      </c>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
+      <c r="E3" s="57"/>
+      <c r="G3" s="47" t="s">
+        <v>119</v>
+      </c>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
     </row>
     <row r="4" spans="1:11" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B4" s="2">
         <v>44048</v>
@@ -2416,15 +2513,15 @@
       <c r="D4" s="17">
         <v>44051</v>
       </c>
-      <c r="E4" s="51">
+      <c r="E4" s="56">
         <f>WORKDAY(B4,C4,D4:D5)</f>
         <v>44055</v>
       </c>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
     </row>
     <row r="5" spans="1:11" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="13"/>
@@ -2433,16 +2530,16 @@
       <c r="D5" s="17">
         <v>44052</v>
       </c>
-      <c r="E5" s="52"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
+      <c r="E5" s="57"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
     </row>
     <row r="6" spans="1:11" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B6" s="2">
         <v>44050</v>
@@ -2453,14 +2550,15 @@
       <c r="D6" s="19">
         <v>44051</v>
       </c>
-      <c r="E6" s="59" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
+      <c r="E6" s="54">
+        <f>WORKDAY(B6,C6,D6:D7)</f>
+        <v>44056</v>
+      </c>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
     </row>
     <row r="7" spans="1:11" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="13"/>
@@ -2469,16 +2567,16 @@
       <c r="D7" s="19">
         <v>44052</v>
       </c>
-      <c r="E7" s="60"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44"/>
+      <c r="E7" s="55"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
     </row>
     <row r="8" spans="1:11" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B8" s="2">
         <v>44041</v>
@@ -2489,8 +2587,9 @@
       <c r="D8" s="18">
         <v>44044</v>
       </c>
-      <c r="E8" s="59" t="s">
-        <v>36</v>
+      <c r="E8" s="54">
+        <f>WORKDAY(B8,C8,D8:D9)</f>
+        <v>44055</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2500,11 +2599,11 @@
       <c r="D9" s="18">
         <v>44045</v>
       </c>
-      <c r="E9" s="60"/>
+      <c r="E9" s="55"/>
     </row>
     <row r="10" spans="1:11" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B10" s="2">
         <v>44027</v>
@@ -2515,11 +2614,12 @@
       <c r="D10" s="20">
         <v>44030</v>
       </c>
-      <c r="E10" s="59" t="s">
-        <v>36</v>
+      <c r="E10" s="54">
+        <f>WORKDAY(B10,C10,D10:D11)</f>
+        <v>44032</v>
       </c>
       <c r="H10" s="24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I10" s="25"/>
     </row>
@@ -2530,7 +2630,7 @@
       <c r="D11" s="20">
         <v>44031</v>
       </c>
-      <c r="E11" s="60"/>
+      <c r="E11" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2554,7 +2654,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="E6" sqref="E6:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.1796875" defaultRowHeight="21.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2567,25 +2667,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="55" t="s">
-        <v>103</v>
-      </c>
-      <c r="B1" s="55" t="s">
+      <c r="A1" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="D1" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="D1" s="55" t="s">
-        <v>102</v>
-      </c>
-      <c r="E1" s="55" t="s">
+      <c r="E1" s="39" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B2" s="2">
         <v>44047</v>
@@ -2596,16 +2696,16 @@
       <c r="D2" s="2">
         <v>44053</v>
       </c>
-      <c r="E2" s="51">
+      <c r="E2" s="56">
         <f>WORKDAY.INTL(B2,C2,1,D2:D3)</f>
         <v>44063</v>
       </c>
-      <c r="G2" s="44" t="s">
-        <v>138</v>
-      </c>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
+      <c r="G2" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
     </row>
     <row r="3" spans="1:10" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="13"/>
@@ -2614,15 +2714,15 @@
       <c r="D3" s="2">
         <v>44049</v>
       </c>
-      <c r="E3" s="52"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
+      <c r="E3" s="57"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
     </row>
     <row r="4" spans="1:10" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B4" s="2">
         <v>44048</v>
@@ -2633,14 +2733,14 @@
       <c r="D4" s="2">
         <v>44053</v>
       </c>
-      <c r="E4" s="53">
+      <c r="E4" s="58">
         <f>WORKDAY.INTL(B4,C4,1,D4:D5)</f>
         <v>44057</v>
       </c>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
     </row>
     <row r="5" spans="1:10" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="13"/>
@@ -2649,15 +2749,15 @@
       <c r="D5" s="2">
         <v>44049</v>
       </c>
-      <c r="E5" s="54"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
+      <c r="E5" s="59"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
     </row>
     <row r="6" spans="1:10" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B6" s="2">
         <v>44050</v>
@@ -2666,25 +2766,25 @@
         <v>4</v>
       </c>
       <c r="D6" s="2"/>
-      <c r="E6" s="51">
+      <c r="E6" s="56">
         <f>WORKDAY.INTL(B6,C6,7)</f>
         <v>44055</v>
       </c>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
     </row>
     <row r="7" spans="1:10" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="13"/>
       <c r="B7" s="2"/>
       <c r="C7" s="1"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="52"/>
+      <c r="E7" s="57"/>
     </row>
     <row r="8" spans="1:10" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B8" s="2">
         <v>44041</v>
@@ -2695,11 +2795,12 @@
       <c r="D8" s="2">
         <v>44046</v>
       </c>
-      <c r="E8" s="59" t="s">
-        <v>36</v>
+      <c r="E8" s="54">
+        <f>WORKDAY.INTL(B8,C8,1,D8:D9)</f>
+        <v>44057</v>
       </c>
       <c r="H8" s="24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2709,11 +2810,11 @@
       <c r="D9" s="2">
         <v>44047</v>
       </c>
-      <c r="E9" s="60"/>
+      <c r="E9" s="55"/>
     </row>
     <row r="10" spans="1:10" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B10" s="2">
         <v>44027</v>
@@ -2724,8 +2825,9 @@
       <c r="D10" s="2">
         <v>44024</v>
       </c>
-      <c r="E10" s="59" t="s">
-        <v>36</v>
+      <c r="E10" s="54">
+        <f>WORKDAY.INTL(B10,C10,1,D10:D11)</f>
+        <v>44032</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2735,7 +2837,7 @@
       <c r="D11" s="2">
         <v>44025</v>
       </c>
-      <c r="E11" s="60"/>
+      <c r="E11" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2756,20 +2858,20 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.1796875" defaultRowHeight="18.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="C1" s="39" t="s">
         <v>105</v>
-      </c>
-      <c r="C1" s="55" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2783,14 +2885,14 @@
         <f>_xlfn.DAYS(A2,B2)</f>
         <v>147</v>
       </c>
-      <c r="E2" s="44" t="s">
-        <v>139</v>
-      </c>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
+      <c r="E2" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
     </row>
     <row r="3" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
@@ -2803,12 +2905,12 @@
         <f>_xlfn.DAYS(A3,B3)</f>
         <v>965</v>
       </c>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
     </row>
     <row r="4" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
@@ -2817,13 +2919,16 @@
       <c r="B4" s="2">
         <v>44022</v>
       </c>
-      <c r="C4" s="56"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
+      <c r="C4" s="40">
+        <f>_xlfn.DAYS(A4,B4)</f>
+        <v>8</v>
+      </c>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
     </row>
     <row r="5" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
@@ -2832,13 +2937,16 @@
       <c r="B5" s="2">
         <v>44013</v>
       </c>
-      <c r="C5" s="56"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
+      <c r="C5" s="40">
+        <f>_xlfn.DAYS(B5,A5)</f>
+        <v>514</v>
+      </c>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
     </row>
     <row r="6" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
@@ -2847,17 +2955,20 @@
       <c r="B6" s="2">
         <v>44061</v>
       </c>
-      <c r="C6" s="56"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
+      <c r="C6" s="40">
+        <f>_xlfn.DAYS(B6,A6)</f>
+        <v>14</v>
+      </c>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
     </row>
     <row r="10" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G10" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -2874,7 +2985,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.1796875" defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2903,13 +3014,16 @@
       <c r="C2" s="1">
         <v>0</v>
       </c>
-      <c r="D2" s="31"/>
-      <c r="F2" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
+      <c r="D2" s="31">
+        <f>TIME(A2,B2,C2)</f>
+        <v>0.35069444444444442</v>
+      </c>
+      <c r="F2" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
     </row>
     <row r="3" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
@@ -2921,11 +3035,14 @@
       <c r="C3" s="1">
         <v>0</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
+      <c r="D3" s="31">
+        <f t="shared" ref="D3:D6" si="0">TIME(A3,B3,C3)</f>
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
     </row>
     <row r="4" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
@@ -2937,11 +3054,14 @@
       <c r="C4" s="1">
         <v>0</v>
       </c>
-      <c r="D4" s="31"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
+      <c r="D4" s="31">
+        <f t="shared" si="0"/>
+        <v>0.5083333333333333</v>
+      </c>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
     </row>
     <row r="5" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
@@ -2953,7 +3073,10 @@
       <c r="C5" s="1">
         <v>-1</v>
       </c>
-      <c r="D5" s="31"/>
+      <c r="D5" s="31">
+        <f t="shared" si="0"/>
+        <v>3.460648148148282E-3</v>
+      </c>
     </row>
     <row r="6" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
@@ -2965,7 +3088,10 @@
       <c r="C6" s="1">
         <v>1</v>
       </c>
-      <c r="D6" s="31"/>
+      <c r="D6" s="31">
+        <f>TIME(A6,B6,C6)</f>
+        <v>0.58334490740740741</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2981,7 +3107,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.54296875" defaultRowHeight="28" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2992,11 +3118,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
     </row>
     <row r="2" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
@@ -3019,11 +3145,11 @@
       <c r="C3" s="1">
         <v>11</v>
       </c>
-      <c r="E3" s="40" t="s">
-        <v>109</v>
-      </c>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
+      <c r="E3" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
     </row>
     <row r="4" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="28" t="s">
@@ -3035,71 +3161,89 @@
       <c r="C4" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
     </row>
     <row r="5" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="32"/>
+      <c r="B5" s="32">
+        <f>DATEVALUE("05-12-1998")</f>
+        <v>36134</v>
+      </c>
       <c r="C5" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
+        <v>71</v>
+      </c>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
     </row>
     <row r="6" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="33"/>
+      <c r="B6" s="33">
+        <f>DATEVALUE("05/12/1998")</f>
+        <v>36134</v>
+      </c>
       <c r="C6" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
+        <v>71</v>
+      </c>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
     </row>
     <row r="7" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="33"/>
+      <c r="B7" s="33">
+        <f>DATEVALUE("05-August-1998")</f>
+        <v>36012</v>
+      </c>
       <c r="C7" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
+        <v>71</v>
+      </c>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
     </row>
     <row r="8" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="33"/>
+      <c r="B8" s="33">
+        <f>DATEVALUE("05-August")</f>
+        <v>45143</v>
+      </c>
       <c r="C8" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="33"/>
+      <c r="B9" s="33">
+        <f>DATEVALUE("August-1998")</f>
+        <v>36008</v>
+      </c>
       <c r="C9" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="33"/>
+      <c r="B10" s="33">
+        <f>DATEVALUE(C3&amp;"/"&amp;B3&amp;"/"&amp;A3)</f>
+        <v>43688</v>
+      </c>
       <c r="C10" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -3118,7 +3262,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3184,12 +3328,18 @@
       <c r="H2" s="1">
         <v>10</v>
       </c>
-      <c r="I2" s="35"/>
-      <c r="J2" s="36"/>
-      <c r="L2" s="40" t="s">
-        <v>110</v>
-      </c>
-      <c r="M2" s="40"/>
+      <c r="I2" s="35">
+        <f>TIMEVALUE(E2&amp;":"&amp;F2)</f>
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="J2" s="36">
+        <f>TIMEVALUE(G2&amp;":"&amp;H2)</f>
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="L2" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="M2" s="43"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
@@ -3216,10 +3366,16 @@
       <c r="H3" s="1">
         <v>15</v>
       </c>
-      <c r="I3" s="35"/>
-      <c r="J3" s="37"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
+      <c r="I3" s="35">
+        <f>TIMEVALUE(E3&amp;":"&amp;F3)</f>
+        <v>0.37847222222222227</v>
+      </c>
+      <c r="J3" s="36">
+        <f t="shared" ref="J3:J11" si="0">TIMEVALUE(G3&amp;":"&amp;H3)</f>
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
     </row>
     <row r="4" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
@@ -3246,10 +3402,16 @@
       <c r="H4" s="1">
         <v>45</v>
       </c>
-      <c r="I4" s="35"/>
-      <c r="J4" s="37"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
+      <c r="I4" s="35">
+        <f>TIMEVALUE(E4&amp;":"&amp;F4)</f>
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="J4" s="36">
+        <f t="shared" si="0"/>
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
     </row>
     <row r="5" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
@@ -3276,10 +3438,16 @@
       <c r="H5" s="1">
         <v>34</v>
       </c>
-      <c r="I5" s="35"/>
-      <c r="J5" s="37"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
+      <c r="I5" s="35">
+        <f>TIMEVALUE(E5&amp;":"&amp;F5)</f>
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="J5" s="36">
+        <f t="shared" si="0"/>
+        <v>0.77361111111111114</v>
+      </c>
+      <c r="L5" s="43"/>
+      <c r="M5" s="43"/>
     </row>
     <row r="6" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
@@ -3306,10 +3474,16 @@
       <c r="H6" s="1">
         <v>12</v>
       </c>
-      <c r="I6" s="35"/>
-      <c r="J6" s="37"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
+      <c r="I6" s="35">
+        <f t="shared" ref="I6:I11" si="1">TIMEVALUE(E6&amp;":"&amp;F6)</f>
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="J6" s="36">
+        <f t="shared" si="0"/>
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="L6" s="43"/>
+      <c r="M6" s="43"/>
     </row>
     <row r="7" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
@@ -3336,10 +3510,16 @@
       <c r="H7" s="1">
         <v>18</v>
       </c>
-      <c r="I7" s="35"/>
-      <c r="J7" s="37"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
+      <c r="I7" s="35">
+        <f t="shared" si="1"/>
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="J7" s="36">
+        <f t="shared" si="0"/>
+        <v>0.76250000000000007</v>
+      </c>
+      <c r="L7" s="43"/>
+      <c r="M7" s="43"/>
     </row>
     <row r="8" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
@@ -3366,10 +3546,16 @@
       <c r="H8" s="1">
         <v>20</v>
       </c>
-      <c r="I8" s="35"/>
-      <c r="J8" s="37"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
+      <c r="I8" s="35">
+        <f t="shared" si="1"/>
+        <v>0.3833333333333333</v>
+      </c>
+      <c r="J8" s="36">
+        <f t="shared" si="0"/>
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
     </row>
     <row r="9" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
@@ -3396,10 +3582,16 @@
       <c r="H9" s="1">
         <v>35</v>
       </c>
-      <c r="I9" s="35"/>
-      <c r="J9" s="37"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
+      <c r="I9" s="35">
+        <f t="shared" si="1"/>
+        <v>0.39097222222222222</v>
+      </c>
+      <c r="J9" s="36">
+        <f t="shared" si="0"/>
+        <v>0.81597222222222221</v>
+      </c>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
     </row>
     <row r="10" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
@@ -3426,10 +3618,16 @@
       <c r="H10" s="1">
         <v>55</v>
       </c>
-      <c r="I10" s="35"/>
-      <c r="J10" s="37"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
+      <c r="I10" s="35">
+        <f t="shared" si="1"/>
+        <v>0.38263888888888892</v>
+      </c>
+      <c r="J10" s="36">
+        <f t="shared" si="0"/>
+        <v>0.78819444444444453</v>
+      </c>
+      <c r="L10" s="43"/>
+      <c r="M10" s="43"/>
     </row>
     <row r="11" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
@@ -3456,14 +3654,20 @@
       <c r="H11" s="1">
         <v>17</v>
       </c>
-      <c r="I11" s="35"/>
-      <c r="J11" s="37"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
+      <c r="I11" s="35">
+        <f t="shared" si="1"/>
+        <v>0.37152777777777773</v>
+      </c>
+      <c r="J11" s="36">
+        <f t="shared" si="0"/>
+        <v>0.76180555555555562</v>
+      </c>
+      <c r="L11" s="43"/>
+      <c r="M11" s="43"/>
     </row>
     <row r="16" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H16" s="22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I16" s="22"/>
     </row>
@@ -3482,7 +3686,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.1796875" defaultRowHeight="29.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3498,120 +3702,150 @@
       <c r="B1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
+      <c r="D1" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
     </row>
     <row r="2" spans="1:9" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="30"/>
+        <v>48</v>
+      </c>
+      <c r="B2" s="30">
+        <f ca="1">TODAY()</f>
+        <v>45179</v>
+      </c>
       <c r="C2" s="10"/>
       <c r="D2" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="F2" s="28" t="s">
         <v>42</v>
-      </c>
-      <c r="F2" s="28" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="38"/>
+        <v>49</v>
+      </c>
+      <c r="B3" s="37">
+        <f ca="1">NOW()</f>
+        <v>45179.926887152775</v>
+      </c>
       <c r="C3" s="7"/>
       <c r="D3" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E3" s="2">
         <v>44053</v>
       </c>
-      <c r="F3" s="39"/>
-      <c r="H3" s="40" t="s">
-        <v>111</v>
-      </c>
-      <c r="I3" s="40"/>
+      <c r="F3" s="38">
+        <f ca="1">(TODAY()-E3)/365</f>
+        <v>3.0849315068493151</v>
+      </c>
+      <c r="H3" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="I3" s="43"/>
     </row>
     <row r="4" spans="1:9" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="30"/>
+        <v>36</v>
+      </c>
+      <c r="B4" s="30">
+        <f ca="1">TODAY()-1</f>
+        <v>45178</v>
+      </c>
       <c r="D4" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E4" s="2">
         <v>43355</v>
       </c>
-      <c r="F4" s="39"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
+      <c r="F4" s="38">
+        <f ca="1">(TODAY()-E4)/365</f>
+        <v>4.9972602739726026</v>
+      </c>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
     </row>
     <row r="5" spans="1:9" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="30"/>
+        <v>37</v>
+      </c>
+      <c r="B5" s="30">
+        <f ca="1">TODAY()+1</f>
+        <v>45180</v>
+      </c>
       <c r="D5" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E5" s="2">
         <v>43018</v>
       </c>
-      <c r="F5" s="39"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
+      <c r="F5" s="38">
+        <f t="shared" ref="F5:F7" ca="1" si="0">(TODAY()-E5)/365</f>
+        <v>5.9205479452054792</v>
+      </c>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
     </row>
     <row r="6" spans="1:9" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="30"/>
+        <v>38</v>
+      </c>
+      <c r="B6" s="30">
+        <f ca="1">TODAY()+7</f>
+        <v>45186</v>
+      </c>
       <c r="D6" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E6" s="2">
         <v>42043</v>
       </c>
-      <c r="F6" s="39"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
+      <c r="F6" s="38">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.5917808219178085</v>
+      </c>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
     </row>
     <row r="7" spans="1:9" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D7" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E7" s="2">
         <v>42402</v>
       </c>
-      <c r="F7" s="39"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
+      <c r="F7" s="38">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.6082191780821917</v>
+      </c>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
     </row>
     <row r="8" spans="1:9" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
     </row>
     <row r="9" spans="1:9" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F9" s="23" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G9" s="23" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F10" s="23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G10" s="23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -3631,108 +3865,108 @@
   <dimension ref="D3:M10"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="D3" sqref="D3:M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="3" spans="4:13" x14ac:dyDescent="0.35">
-      <c r="D3" s="44" t="s">
-        <v>116</v>
-      </c>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
+      <c r="D3" s="47" t="s">
+        <v>115</v>
+      </c>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
     </row>
     <row r="4" spans="4:13" x14ac:dyDescent="0.35">
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="44"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
     </row>
     <row r="5" spans="4:13" x14ac:dyDescent="0.35">
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="44"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
     </row>
     <row r="6" spans="4:13" x14ac:dyDescent="0.35">
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="44"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
     </row>
     <row r="7" spans="4:13" x14ac:dyDescent="0.35">
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44"/>
-      <c r="M7" s="44"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
     </row>
     <row r="8" spans="4:13" x14ac:dyDescent="0.35">
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
-      <c r="M8" s="44"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
     </row>
     <row r="9" spans="4:13" x14ac:dyDescent="0.35">
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="44"/>
-      <c r="M9" s="44"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="47"/>
     </row>
     <row r="10" spans="4:13" x14ac:dyDescent="0.35">
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="44"/>
-      <c r="M10" s="44"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3747,7 +3981,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.54296875" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3758,132 +3992,195 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="44" t="s">
-        <v>140</v>
-      </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
+      <c r="A1" s="47" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
     </row>
     <row r="2" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="C2" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="D2" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="F2" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
+      <c r="F2" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
     </row>
     <row r="3" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
+        <v>54</v>
+      </c>
+      <c r="B3" s="1">
+        <f>HOUR(A3)</f>
+        <v>10</v>
+      </c>
+      <c r="C3" s="1">
+        <f>MINUTE(A3)</f>
+        <v>34</v>
+      </c>
+      <c r="D3" s="1">
+        <f>SECOND(A3)</f>
+        <v>21</v>
+      </c>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
     </row>
     <row r="4" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
+        <v>55</v>
+      </c>
+      <c r="B4" s="1">
+        <f t="shared" ref="B4:B9" si="0">HOUR(A4)</f>
+        <v>9</v>
+      </c>
+      <c r="C4" s="1">
+        <f t="shared" ref="C4:C9" si="1">MINUTE(A4)</f>
+        <v>34</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" ref="D4:D9" si="2">SECOND(A4)</f>
+        <v>11</v>
+      </c>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
     </row>
     <row r="5" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+        <v>56</v>
+      </c>
+      <c r="B5" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C5" s="1">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
     </row>
     <row r="6" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="F6" s="44" t="s">
-        <v>113</v>
-      </c>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
+        <v>57</v>
+      </c>
+      <c r="B6" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="F6" s="47" t="s">
+        <v>112</v>
+      </c>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
     </row>
     <row r="7" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
+        <v>58</v>
+      </c>
+      <c r="B7" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C7" s="1">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
     </row>
     <row r="8" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
+        <v>60</v>
+      </c>
+      <c r="B8" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C8" s="1">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
     </row>
     <row r="9" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+        <v>59</v>
+      </c>
+      <c r="B9" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C9" s="1">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
     </row>
     <row r="10" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C10" s="9"/>
-      <c r="F10" s="44" t="s">
-        <v>114</v>
-      </c>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
+      <c r="F10" s="47" t="s">
+        <v>113</v>
+      </c>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
     </row>
     <row r="11" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C11" s="9"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
     </row>
     <row r="12" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
     </row>
     <row r="13" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G13" s="6"/>
@@ -3907,7 +4204,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D7"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.81640625" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3918,7 +4215,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B1" s="28" t="s">
         <v>2</v>
@@ -3932,77 +4229,131 @@
     </row>
     <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="F2" s="44" t="s">
-        <v>115</v>
-      </c>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
+        <v>62</v>
+      </c>
+      <c r="B2" s="1">
+        <f>DAY(A2)</f>
+        <v>10</v>
+      </c>
+      <c r="C2" s="1">
+        <f>MONTH(A2)</f>
+        <v>12</v>
+      </c>
+      <c r="D2" s="1">
+        <f>YEAR(A2)</f>
+        <v>2019</v>
+      </c>
+      <c r="F2" s="47" t="s">
+        <v>114</v>
+      </c>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <f ca="1">NOW()</f>
-        <v>45179.770823611114</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
+        <v>45179.926887152775</v>
+      </c>
+      <c r="B3" s="1">
+        <f t="shared" ref="B3:B7" ca="1" si="0">DAY(A3)</f>
+        <v>10</v>
+      </c>
+      <c r="C3" s="1">
+        <f t="shared" ref="C3:C7" ca="1" si="1">MONTH(A3)</f>
+        <v>9</v>
+      </c>
+      <c r="D3" s="1">
+        <f t="shared" ref="D3:D7" ca="1" si="2">YEAR(A3)</f>
+        <v>2023</v>
+      </c>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
     </row>
     <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>42768</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
+      <c r="B4" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" si="2"/>
+        <v>2017</v>
+      </c>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
     </row>
     <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>43152</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="B5" s="1">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="C5" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="2"/>
+        <v>2018</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>27771</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="B6" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C6" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="2"/>
+        <v>1976</v>
+      </c>
     </row>
     <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>32882</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="B7" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C7" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="2"/>
+        <v>1990</v>
+      </c>
     </row>
     <row r="10" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F10" s="24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F11" s="24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F12" s="24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -4018,7 +4369,7 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4028,98 +4379,128 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="C1" s="39" t="s">
         <v>65</v>
-      </c>
-      <c r="C1" s="55" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B2" s="2">
         <v>43831</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="E2" s="44" t="s">
-        <v>136</v>
-      </c>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
+      <c r="C2" s="40">
+        <f>WEEKNUM(B2)</f>
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E2" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
     </row>
     <row r="3" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B3" s="2">
         <v>43837</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
+      <c r="C3" s="40">
+        <f>WEEKNUM(B3,2)</f>
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
     </row>
     <row r="4" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B4" s="2">
         <v>44068</v>
       </c>
-      <c r="C4" s="56"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
+      <c r="C4" s="40">
+        <f>WEEKNUM(B4,2)</f>
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
     </row>
     <row r="5" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B5" s="2">
         <v>44074</v>
       </c>
-      <c r="C5" s="56"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
+      <c r="C5" s="40">
+        <f>WEEKNUM(B5,2)</f>
+        <v>36</v>
+      </c>
+      <c r="D5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
     </row>
     <row r="6" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B6" s="2">
         <v>44046</v>
       </c>
-      <c r="C6" s="56"/>
+      <c r="C6" s="40">
+        <f>WEEKNUM(B6,2)</f>
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="9" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H9" s="24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -4143,6 +4524,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A740584D75509F4F816ECA19663AA050" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2c4fec7a5ecf2686ff0e7fa8e74d8f92">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a9454a14-a1be-4dae-96dd-930f17aa1325" xmlns:ns3="1670c0fe-6d31-4556-b86f-9e87b6880aec" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6f7e007abd3148683626701b1277c03d" ns2:_="" ns3:_="">
     <xsd:import namespace="a9454a14-a1be-4dae-96dd-930f17aa1325"/>
@@ -4385,15 +4775,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71BC860C-AA40-4CA3-9074-2EA8ABC54426}">
   <ds:schemaRefs>
@@ -4406,6 +4787,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FB83BE2-BC13-46AD-B889-B1608B0310FB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A0CF385-FD32-4537-8781-2D1FBAB4C748}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4422,12 +4811,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FB83BE2-BC13-46AD-B889-B1608B0310FB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Date_time_functions/Date_and_Time_InClass.xlsx
+++ b/Date_time_functions/Date_and_Time_InClass.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\MexEE402_ExcelExcercises\Date_time_functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45748815-B6F7-44CE-A9A9-EE28C3F098B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F6F577-4028-4C55-BDA6-E14B1B9528BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="11160" tabRatio="988" firstSheet="6" activeTab="14" xr2:uid="{A6137C47-DE02-48C6-8473-5C1EB30628DD}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="11160" tabRatio="988" xr2:uid="{A6137C47-DE02-48C6-8473-5C1EB30628DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Date" sheetId="1" r:id="rId1"/>
@@ -1781,8 +1781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60731025-88A1-4F03-9758-A1EC0BD1E50E}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.81640625" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2035,7 +2035,7 @@
         <v>75</v>
       </c>
       <c r="F4" s="40">
-        <f t="shared" ref="F3:F6" si="0">WEEKDAY(A4,3)</f>
+        <f t="shared" ref="F4:F6" si="0">WEEKDAY(A4,3)</f>
         <v>5</v>
       </c>
       <c r="G4" s="1" t="s">
@@ -2857,7 +2857,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1B76EEE-9476-498C-9910-4A41101CEEF2}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -3036,7 +3036,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="31">
-        <f t="shared" ref="D3:D6" si="0">TIME(A3,B3,C3)</f>
+        <f t="shared" ref="D3:D5" si="0">TIME(A3,B3,C3)</f>
         <v>0.38541666666666669</v>
       </c>
       <c r="F3" s="43"/>
@@ -3714,7 +3714,7 @@
       </c>
       <c r="B2" s="30">
         <f ca="1">TODAY()</f>
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="28" t="s">
@@ -3733,7 +3733,7 @@
       </c>
       <c r="B3" s="37">
         <f ca="1">NOW()</f>
-        <v>45179.926887152775</v>
+        <v>45180.376411226855</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="1" t="s">
@@ -3744,7 +3744,7 @@
       </c>
       <c r="F3" s="38">
         <f ca="1">(TODAY()-E3)/365</f>
-        <v>3.0849315068493151</v>
+        <v>3.0876712328767124</v>
       </c>
       <c r="H3" s="43" t="s">
         <v>110</v>
@@ -3757,7 +3757,7 @@
       </c>
       <c r="B4" s="30">
         <f ca="1">TODAY()-1</f>
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>44</v>
@@ -3767,7 +3767,7 @@
       </c>
       <c r="F4" s="38">
         <f ca="1">(TODAY()-E4)/365</f>
-        <v>4.9972602739726026</v>
+        <v>5</v>
       </c>
       <c r="H4" s="43"/>
       <c r="I4" s="43"/>
@@ -3778,7 +3778,7 @@
       </c>
       <c r="B5" s="30">
         <f ca="1">TODAY()+1</f>
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>45</v>
@@ -3788,7 +3788,7 @@
       </c>
       <c r="F5" s="38">
         <f t="shared" ref="F5:F7" ca="1" si="0">(TODAY()-E5)/365</f>
-        <v>5.9205479452054792</v>
+        <v>5.9232876712328766</v>
       </c>
       <c r="H5" s="43"/>
       <c r="I5" s="43"/>
@@ -3799,7 +3799,7 @@
       </c>
       <c r="B6" s="30">
         <f ca="1">TODAY()+7</f>
-        <v>45186</v>
+        <v>45187</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>46</v>
@@ -3809,7 +3809,7 @@
       </c>
       <c r="F6" s="38">
         <f t="shared" ca="1" si="0"/>
-        <v>8.5917808219178085</v>
+        <v>8.5945205479452049</v>
       </c>
       <c r="H6" s="43"/>
       <c r="I6" s="43"/>
@@ -3823,7 +3823,7 @@
       </c>
       <c r="F7" s="38">
         <f t="shared" ca="1" si="0"/>
-        <v>7.6082191780821917</v>
+        <v>7.6109589041095891</v>
       </c>
       <c r="H7" s="43"/>
       <c r="I7" s="43"/>
@@ -4252,11 +4252,11 @@
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <f ca="1">NOW()</f>
-        <v>45179.926887152775</v>
+        <v>45180.376411226855</v>
       </c>
       <c r="B3" s="1">
         <f t="shared" ref="B3:B7" ca="1" si="0">DAY(A3)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1">
         <f t="shared" ref="C3:C7" ca="1" si="1">MONTH(A3)</f>
@@ -4524,15 +4524,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A740584D75509F4F816ECA19663AA050" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2c4fec7a5ecf2686ff0e7fa8e74d8f92">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a9454a14-a1be-4dae-96dd-930f17aa1325" xmlns:ns3="1670c0fe-6d31-4556-b86f-9e87b6880aec" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6f7e007abd3148683626701b1277c03d" ns2:_="" ns3:_="">
     <xsd:import namespace="a9454a14-a1be-4dae-96dd-930f17aa1325"/>
@@ -4775,6 +4766,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71BC860C-AA40-4CA3-9074-2EA8ABC54426}">
   <ds:schemaRefs>
@@ -4787,14 +4787,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FB83BE2-BC13-46AD-B889-B1608B0310FB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A0CF385-FD32-4537-8781-2D1FBAB4C748}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4811,4 +4803,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FB83BE2-BC13-46AD-B889-B1608B0310FB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>